--- a/AAII_Financials/Quarterly/TCCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TCCO_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>TCCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,101 +665,104 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43827</v>
+      </c>
+      <c r="E7" s="2">
         <v>43736</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43645</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43554</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43463</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43372</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43099</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42917</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42826</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>700</v>
+      </c>
+      <c r="E8" s="3">
         <v>2700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1900</v>
-      </c>
-      <c r="G8" s="3">
-        <v>1100</v>
       </c>
       <c r="H8" s="3">
         <v>1100</v>
       </c>
       <c r="I8" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J8" s="3">
         <v>900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>800</v>
-      </c>
-      <c r="K8" s="3">
-        <v>1100</v>
       </c>
       <c r="L8" s="3">
         <v>1100</v>
@@ -768,77 +771,83 @@
         <v>1100</v>
       </c>
       <c r="N8" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O8" s="3">
         <v>1400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>400</v>
+      </c>
+      <c r="E9" s="3">
         <v>1000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>500</v>
-      </c>
-      <c r="N9" s="3">
-        <v>200</v>
       </c>
       <c r="O9" s="3">
         <v>200</v>
       </c>
       <c r="P9" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q9" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>300</v>
+      </c>
+      <c r="E10" s="3">
         <v>1700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>400</v>
-      </c>
-      <c r="H10" s="3">
-        <v>200</v>
       </c>
       <c r="I10" s="3">
         <v>200</v>
@@ -847,25 +856,28 @@
         <v>200</v>
       </c>
       <c r="K10" s="3">
+        <v>200</v>
+      </c>
+      <c r="L10" s="3">
         <v>600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -882,22 +894,23 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>200</v>
+      </c>
+      <c r="E12" s="3">
         <v>100</v>
       </c>
-      <c r="E12" s="3">
-        <v>0</v>
-      </c>
       <c r="F12" s="3">
         <v>0</v>
       </c>
       <c r="G12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H12" s="3">
         <v>100</v>
@@ -906,7 +919,7 @@
         <v>100</v>
       </c>
       <c r="J12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K12" s="3">
         <v>200</v>
@@ -915,19 +928,22 @@
         <v>200</v>
       </c>
       <c r="M12" s="3">
+        <v>200</v>
+      </c>
+      <c r="N12" s="3">
         <v>400</v>
-      </c>
-      <c r="N12" s="3">
-        <v>500</v>
       </c>
       <c r="O12" s="3">
         <v>500</v>
       </c>
       <c r="P12" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q12" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -970,8 +986,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1014,8 +1033,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1058,8 +1080,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1073,22 +1098,23 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E17" s="3">
         <v>1700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1800</v>
-      </c>
-      <c r="G17" s="3">
-        <v>1400</v>
       </c>
       <c r="H17" s="3">
         <v>1400</v>
@@ -1097,19 +1123,19 @@
         <v>1400</v>
       </c>
       <c r="J17" s="3">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="K17" s="3">
         <v>1200</v>
       </c>
       <c r="L17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M17" s="3">
         <v>1600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1400</v>
-      </c>
-      <c r="N17" s="3">
-        <v>1300</v>
       </c>
       <c r="O17" s="3">
         <v>1300</v>
@@ -1117,52 +1143,58 @@
       <c r="P17" s="3">
         <v>1300</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E18" s="3">
         <v>1000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>100</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-300</v>
       </c>
       <c r="H18" s="3">
         <v>-300</v>
       </c>
       <c r="I18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J18" s="3">
         <v>-500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1179,8 +1211,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1223,52 +1256,58 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E21" s="3">
         <v>1000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>200</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-200</v>
       </c>
       <c r="H21" s="3">
         <v>-200</v>
       </c>
       <c r="I21" s="3">
-        <v>-400</v>
+        <v>-200</v>
       </c>
       <c r="J21" s="3">
         <v>-400</v>
       </c>
       <c r="K21" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
         <v>-500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1311,52 +1350,58 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E23" s="3">
         <v>1000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-300</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-400</v>
       </c>
       <c r="J23" s="3">
         <v>-400</v>
       </c>
       <c r="K23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L23" s="3">
         <v>-100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1381,26 +1426,29 @@
       <c r="J24" s="3">
         <v>0</v>
       </c>
-      <c r="K24" s="3" t="s">
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>19</v>
+      <c r="N24" s="3">
+        <v>0</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1443,96 +1491,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E26" s="3">
         <v>1000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-300</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-400</v>
       </c>
       <c r="J26" s="3">
         <v>-400</v>
       </c>
       <c r="K26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L26" s="3">
         <v>-100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E27" s="3">
         <v>1000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-300</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-400</v>
       </c>
       <c r="J27" s="3">
         <v>-400</v>
       </c>
       <c r="K27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1575,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1619,8 +1679,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1663,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1707,8 +1773,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1751,52 +1820,58 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E33" s="3">
         <v>1000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-300</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-400</v>
       </c>
       <c r="J33" s="3">
         <v>-400</v>
       </c>
       <c r="K33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1839,101 +1914,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E35" s="3">
         <v>1000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-300</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-400</v>
       </c>
       <c r="J35" s="3">
         <v>-400</v>
       </c>
       <c r="K35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43827</v>
+      </c>
+      <c r="E38" s="2">
         <v>43736</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43645</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43554</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43463</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43372</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43099</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42917</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42826</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1950,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1968,52 +2053,56 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>700</v>
+      </c>
+      <c r="E41" s="3">
         <v>1600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2029,79 +2118,85 @@
       <c r="G42" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H42" s="3">
-        <v>0</v>
+      <c r="H42" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="I42" s="3">
         <v>0</v>
       </c>
       <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3">
         <v>100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>200</v>
-      </c>
-      <c r="L42" s="3">
-        <v>400</v>
       </c>
       <c r="M42" s="3">
         <v>400</v>
       </c>
       <c r="N42" s="3">
+        <v>400</v>
+      </c>
+      <c r="O42" s="3">
         <v>600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>300</v>
+      </c>
+      <c r="E43" s="3">
         <v>100</v>
       </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
       <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
         <v>300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>200</v>
-      </c>
-      <c r="H43" s="3">
-        <v>600</v>
       </c>
       <c r="I43" s="3">
         <v>600</v>
       </c>
       <c r="J43" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="K43" s="3">
         <v>300</v>
       </c>
       <c r="L43" s="3">
+        <v>300</v>
+      </c>
+      <c r="M43" s="3">
         <v>700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2109,31 +2204,31 @@
         <v>1000</v>
       </c>
       <c r="E44" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F44" s="3">
         <v>1100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1000</v>
-      </c>
-      <c r="G44" s="3">
-        <v>1400</v>
       </c>
       <c r="H44" s="3">
         <v>1400</v>
       </c>
       <c r="I44" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="J44" s="3">
         <v>1500</v>
       </c>
       <c r="K44" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="L44" s="3">
         <v>1400</v>
       </c>
       <c r="M44" s="3">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="N44" s="3">
         <v>1800</v>
@@ -2142,10 +2237,13 @@
         <v>1800</v>
       </c>
       <c r="P44" s="3">
+        <v>1800</v>
+      </c>
+      <c r="Q44" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2165,19 +2263,19 @@
         <v>100</v>
       </c>
       <c r="I45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J45" s="3">
         <v>200</v>
       </c>
       <c r="K45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L45" s="3">
         <v>100</v>
       </c>
       <c r="M45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N45" s="3">
         <v>200</v>
@@ -2188,52 +2286,58 @@
       <c r="P45" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E46" s="3">
         <v>2900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2258,12 +2362,12 @@
       <c r="J47" s="3">
         <v>0</v>
       </c>
-      <c r="K47" s="3" t="s">
+      <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
-      </c>
       <c r="M47" s="3">
         <v>0</v>
       </c>
@@ -2271,18 +2375,21 @@
         <v>0</v>
       </c>
       <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
         <v>200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E48" s="3">
         <v>0</v>
@@ -2297,16 +2404,16 @@
         <v>0</v>
       </c>
       <c r="I48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J48" s="3">
         <v>100</v>
       </c>
       <c r="K48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M48" s="3">
         <v>100</v>
@@ -2318,10 +2425,13 @@
         <v>100</v>
       </c>
       <c r="P48" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q48" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2364,8 +2474,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2408,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2452,8 +2568,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2496,8 +2615,11 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2540,52 +2662,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E54" s="3">
         <v>2900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2602,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2620,19 +2749,20 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>100</v>
+      </c>
+      <c r="E57" s="3">
         <v>400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>300</v>
-      </c>
-      <c r="F57" s="3">
-        <v>200</v>
       </c>
       <c r="G57" s="3">
         <v>200</v>
@@ -2641,7 +2771,7 @@
         <v>200</v>
       </c>
       <c r="I57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J57" s="3">
         <v>100</v>
@@ -2659,13 +2789,16 @@
         <v>100</v>
       </c>
       <c r="O57" s="3">
+        <v>100</v>
+      </c>
+      <c r="P57" s="3">
         <v>200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2708,37 +2841,40 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>500</v>
+      </c>
+      <c r="E59" s="3">
         <v>300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>200</v>
-      </c>
-      <c r="L59" s="3">
-        <v>300</v>
       </c>
       <c r="M59" s="3">
         <v>300</v>
@@ -2750,39 +2886,42 @@
         <v>300</v>
       </c>
       <c r="P59" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q59" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>600</v>
+      </c>
+      <c r="E60" s="3">
         <v>700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>300</v>
-      </c>
-      <c r="L60" s="3">
-        <v>400</v>
       </c>
       <c r="M60" s="3">
         <v>400</v>
@@ -2791,13 +2930,16 @@
         <v>400</v>
       </c>
       <c r="O60" s="3">
+        <v>400</v>
+      </c>
+      <c r="P60" s="3">
         <v>500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2840,31 +2982,34 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
-      </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+        <v>500</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
@@ -2884,8 +3029,11 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2928,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2972,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3016,37 +3170,40 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E66" s="3">
         <v>700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>300</v>
-      </c>
-      <c r="L66" s="3">
-        <v>400</v>
       </c>
       <c r="M66" s="3">
         <v>400</v>
@@ -3055,13 +3212,16 @@
         <v>400</v>
       </c>
       <c r="O66" s="3">
+        <v>400</v>
+      </c>
+      <c r="P66" s="3">
         <v>500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3078,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3122,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3166,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3210,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3254,52 +3424,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-2200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-3200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-2900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-3000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-2800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-2500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-2100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-300</v>
       </c>
-      <c r="N72" s="3">
-        <v>0</v>
-      </c>
       <c r="O72" s="3">
+        <v>0</v>
+      </c>
+      <c r="P72" s="3">
         <v>-100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3342,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3386,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3430,52 +3612,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E76" s="3">
         <v>2200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2200</v>
-      </c>
-      <c r="K76" s="3">
-        <v>3500</v>
       </c>
       <c r="L76" s="3">
         <v>3500</v>
       </c>
       <c r="M76" s="3">
+        <v>3500</v>
+      </c>
+      <c r="N76" s="3">
         <v>4000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>4200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3518,101 +3706,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43827</v>
+      </c>
+      <c r="E80" s="2">
         <v>43736</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43645</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43554</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43463</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43372</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43099</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42917</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42826</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E81" s="3">
         <v>1000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-300</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-400</v>
       </c>
       <c r="J81" s="3">
         <v>-400</v>
       </c>
       <c r="K81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3629,8 +3826,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3673,8 +3871,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3717,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3761,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3805,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3849,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3893,52 +4106,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E89" s="3">
         <v>800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1000</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
       <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3955,16 +4174,17 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
-      </c>
-      <c r="E91" s="3" t="s">
+      <c r="D91" s="3" t="s">
         <v>19</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>19</v>
@@ -3972,20 +4192,20 @@
       <c r="G91" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
+      <c r="H91" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>19</v>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="L91" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -3999,8 +4219,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4043,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4087,13 +4313,16 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
+      <c r="D94" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -4108,31 +4337,34 @@
         <v>0</v>
       </c>
       <c r="I94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J94" s="3">
         <v>100</v>
       </c>
       <c r="K94" s="3">
+        <v>100</v>
+      </c>
+      <c r="L94" s="3">
         <v>200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>100</v>
-      </c>
-      <c r="M94" s="3">
-        <v>200</v>
       </c>
       <c r="N94" s="3">
         <v>200</v>
       </c>
       <c r="O94" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4149,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4193,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4237,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4281,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4325,8 +4567,11 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4369,8 +4614,11 @@
       <c r="P100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4413,48 +4661,54 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E102" s="3">
         <v>800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1000</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>500</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TCCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TCCO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
   <si>
     <t>TCCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,219 +665,245 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44009</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43918</v>
+      </c>
+      <c r="F7" s="2">
         <v>43827</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43736</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43645</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43554</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43463</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43372</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43099</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42917</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42826</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>600</v>
+      </c>
+      <c r="E8" s="3">
         <v>700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
+        <v>700</v>
+      </c>
+      <c r="G8" s="3">
         <v>2700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>1200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>1900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>1100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>1100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>800</v>
-      </c>
-      <c r="L8" s="3">
-        <v>1100</v>
-      </c>
-      <c r="M8" s="3">
-        <v>1100</v>
       </c>
       <c r="N8" s="3">
         <v>1100</v>
       </c>
       <c r="O8" s="3">
+        <v>1100</v>
+      </c>
+      <c r="P8" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Q8" s="3">
         <v>1400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>200</v>
+      </c>
+      <c r="E9" s="3">
         <v>400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
+        <v>400</v>
+      </c>
+      <c r="G9" s="3">
         <v>1000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>1100</v>
-      </c>
-      <c r="H9" s="3">
-        <v>700</v>
-      </c>
-      <c r="I9" s="3">
-        <v>900</v>
       </c>
       <c r="J9" s="3">
         <v>700</v>
       </c>
       <c r="K9" s="3">
+        <v>900</v>
+      </c>
+      <c r="L9" s="3">
+        <v>700</v>
+      </c>
+      <c r="M9" s="3">
         <v>600</v>
-      </c>
-      <c r="L9" s="3">
-        <v>500</v>
-      </c>
-      <c r="M9" s="3">
-        <v>1000</v>
       </c>
       <c r="N9" s="3">
         <v>500</v>
       </c>
       <c r="O9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P9" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q9" s="3">
         <v>200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>400</v>
+      </c>
+      <c r="E10" s="3">
         <v>300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
+        <v>300</v>
+      </c>
+      <c r="G10" s="3">
         <v>1700</v>
-      </c>
-      <c r="F10" s="3">
-        <v>400</v>
-      </c>
-      <c r="G10" s="3">
-        <v>800</v>
       </c>
       <c r="H10" s="3">
         <v>400</v>
       </c>
       <c r="I10" s="3">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="J10" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K10" s="3">
         <v>200</v>
       </c>
       <c r="L10" s="3">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="M10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N10" s="3">
         <v>600</v>
       </c>
       <c r="O10" s="3">
+        <v>100</v>
+      </c>
+      <c r="P10" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q10" s="3">
         <v>1200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -895,55 +921,63 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>300</v>
+      </c>
+      <c r="E12" s="3">
         <v>200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
+        <v>200</v>
+      </c>
+      <c r="G12" s="3">
         <v>100</v>
       </c>
-      <c r="F12" s="3">
-        <v>0</v>
-      </c>
-      <c r="G12" s="3">
-        <v>0</v>
-      </c>
       <c r="H12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J12" s="3">
         <v>100</v>
       </c>
       <c r="K12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M12" s="3">
         <v>200</v>
       </c>
       <c r="N12" s="3">
+        <v>200</v>
+      </c>
+      <c r="O12" s="3">
+        <v>200</v>
+      </c>
+      <c r="P12" s="3">
         <v>400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -989,8 +1023,14 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1036,8 +1076,14 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1083,8 +1129,14 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,8 +1151,10 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,93 +1162,105 @@
         <v>1100</v>
       </c>
       <c r="E17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G17" s="3">
         <v>1700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1800</v>
-      </c>
-      <c r="H17" s="3">
-        <v>1400</v>
-      </c>
-      <c r="I17" s="3">
-        <v>1400</v>
       </c>
       <c r="J17" s="3">
         <v>1400</v>
       </c>
       <c r="K17" s="3">
+        <v>1400</v>
+      </c>
+      <c r="L17" s="3">
+        <v>1400</v>
+      </c>
+      <c r="M17" s="3">
         <v>1200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1400</v>
-      </c>
-      <c r="O17" s="3">
-        <v>1300</v>
-      </c>
-      <c r="P17" s="3">
-        <v>1300</v>
       </c>
       <c r="Q17" s="3">
         <v>1300</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3">
+        <v>1300</v>
+      </c>
+      <c r="S17" s="3">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-400</v>
-      </c>
-      <c r="E18" s="3">
-        <v>1000</v>
       </c>
       <c r="F18" s="3">
         <v>-400</v>
       </c>
       <c r="G18" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I18" s="3">
         <v>100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1212,8 +1278,10 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1259,8 +1327,14 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1268,46 +1342,52 @@
         <v>-500</v>
       </c>
       <c r="E21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G21" s="3">
         <v>1000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-400</v>
       </c>
-      <c r="L21" s="3">
-        <v>0</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3">
         <v>-500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1353,8 +1433,14 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
@@ -1362,46 +1448,52 @@
         <v>-500</v>
       </c>
       <c r="E23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G23" s="3">
         <v>1000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1429,26 +1521,32 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-      <c r="L24" s="3" t="s">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
-      <c r="O24" s="3" t="s">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="P24" s="3" t="s">
+      <c r="R24" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,8 +1592,14 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1503,46 +1607,52 @@
         <v>-500</v>
       </c>
       <c r="E26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G26" s="3">
         <v>1000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1550,46 +1660,52 @@
         <v>-500</v>
       </c>
       <c r="E27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G27" s="3">
         <v>1000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1751,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1804,14 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1857,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,8 +1910,14 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1823,8 +1963,14 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1832,46 +1978,52 @@
         <v>-500</v>
       </c>
       <c r="E33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G33" s="3">
         <v>1000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,8 +2069,14 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1926,98 +2084,110 @@
         <v>-500</v>
       </c>
       <c r="E35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G35" s="3">
         <v>1000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44009</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43918</v>
+      </c>
+      <c r="F38" s="2">
         <v>43827</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43736</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43645</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43554</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43463</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43372</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43099</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42917</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42826</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2205,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,72 +2226,80 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>600</v>
+      </c>
+      <c r="F41" s="3">
         <v>700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>1600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>1800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>1700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>2000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>1300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>1500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>1100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>1400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>19</v>
+      <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0</v>
       </c>
       <c r="I42" s="3">
         <v>0</v>
@@ -2128,122 +2308,140 @@
         <v>0</v>
       </c>
       <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
         <v>100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
+        <v>200</v>
+      </c>
+      <c r="F43" s="3">
         <v>300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>100</v>
       </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
         <v>300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="E44" s="3">
         <v>1000</v>
       </c>
       <c r="F44" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="G44" s="3">
         <v>1000</v>
       </c>
       <c r="H44" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I44" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J44" s="3">
         <v>1400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>1400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>1500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>1500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>1400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>1400</v>
-      </c>
-      <c r="N44" s="3">
-        <v>1800</v>
-      </c>
-      <c r="O44" s="3">
-        <v>1800</v>
       </c>
       <c r="P44" s="3">
         <v>1800</v>
       </c>
       <c r="Q44" s="3">
+        <v>1800</v>
+      </c>
+      <c r="R44" s="3">
+        <v>1800</v>
+      </c>
+      <c r="S44" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2266,22 +2464,22 @@
         <v>100</v>
       </c>
       <c r="J45" s="3">
+        <v>100</v>
+      </c>
+      <c r="K45" s="3">
+        <v>100</v>
+      </c>
+      <c r="L45" s="3">
         <v>200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>100</v>
-      </c>
-      <c r="N45" s="3">
-        <v>200</v>
-      </c>
-      <c r="O45" s="3">
-        <v>200</v>
       </c>
       <c r="P45" s="3">
         <v>200</v>
@@ -2289,55 +2487,67 @@
       <c r="Q45" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>200</v>
+      </c>
+      <c r="S45" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E46" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F46" s="3">
         <v>2100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>2900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>2000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>3200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>3400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>4100</v>
-      </c>
-      <c r="J46" s="3">
-        <v>3700</v>
-      </c>
-      <c r="K46" s="3">
-        <v>3500</v>
       </c>
       <c r="L46" s="3">
         <v>3700</v>
       </c>
       <c r="M46" s="3">
+        <v>3500</v>
+      </c>
+      <c r="N46" s="3">
+        <v>3700</v>
+      </c>
+      <c r="O46" s="3">
         <v>3900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>4300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>4700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>4400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2365,37 +2575,43 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-      <c r="L47" s="3" t="s">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
-      </c>
-      <c r="N47" s="3">
-        <v>0</v>
-      </c>
       <c r="O47" s="3">
         <v>0</v>
       </c>
       <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
         <v>200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>600</v>
+      </c>
+      <c r="E48" s="3">
         <v>700</v>
       </c>
-      <c r="E48" s="3">
-        <v>0</v>
-      </c>
       <c r="F48" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="G48" s="3">
         <v>0</v>
@@ -2407,19 +2623,19 @@
         <v>0</v>
       </c>
       <c r="J48" s="3">
+        <v>0</v>
+      </c>
+      <c r="K48" s="3">
+        <v>0</v>
+      </c>
+      <c r="L48" s="3">
         <v>100</v>
-      </c>
-      <c r="K48" s="3">
-        <v>100</v>
-      </c>
-      <c r="L48" s="3">
-        <v>0</v>
       </c>
       <c r="M48" s="3">
         <v>100</v>
       </c>
       <c r="N48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O48" s="3">
         <v>100</v>
@@ -2428,10 +2644,16 @@
         <v>100</v>
       </c>
       <c r="Q48" s="3">
+        <v>100</v>
+      </c>
+      <c r="R48" s="3">
+        <v>100</v>
+      </c>
+      <c r="S48" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2477,8 +2699,14 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2752,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,8 +2805,14 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2618,8 +2858,14 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2911,67 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F54" s="3">
         <v>2800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>2900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>2100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>3300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>3500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>4100</v>
-      </c>
-      <c r="J54" s="3">
-        <v>3800</v>
-      </c>
-      <c r="K54" s="3">
-        <v>3500</v>
       </c>
       <c r="L54" s="3">
         <v>3800</v>
       </c>
       <c r="M54" s="3">
+        <v>3500</v>
+      </c>
+      <c r="N54" s="3">
+        <v>3800</v>
+      </c>
+      <c r="O54" s="3">
         <v>3900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>4400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>4800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>4700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2989,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,8 +3010,10 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2759,25 +3021,25 @@
         <v>100</v>
       </c>
       <c r="E57" s="3">
+        <v>0</v>
+      </c>
+      <c r="F57" s="3">
+        <v>100</v>
+      </c>
+      <c r="G57" s="3">
         <v>400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>300</v>
-      </c>
-      <c r="G57" s="3">
-        <v>200</v>
-      </c>
-      <c r="H57" s="3">
-        <v>200</v>
       </c>
       <c r="I57" s="3">
         <v>200</v>
       </c>
       <c r="J57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L57" s="3">
         <v>100</v>
@@ -2792,13 +3054,19 @@
         <v>100</v>
       </c>
       <c r="P57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>200</v>
+      </c>
+      <c r="S57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2844,43 +3112,49 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E59" s="3">
+        <v>700</v>
+      </c>
+      <c r="F59" s="3">
         <v>500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>2000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>2400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>200</v>
-      </c>
-      <c r="M59" s="3">
-        <v>300</v>
-      </c>
-      <c r="N59" s="3">
-        <v>300</v>
       </c>
       <c r="O59" s="3">
         <v>300</v>
@@ -2889,57 +3163,69 @@
         <v>300</v>
       </c>
       <c r="Q59" s="3">
+        <v>300</v>
+      </c>
+      <c r="R59" s="3">
+        <v>300</v>
+      </c>
+      <c r="S59" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="E60" s="3">
         <v>700</v>
       </c>
       <c r="F60" s="3">
+        <v>600</v>
+      </c>
+      <c r="G60" s="3">
+        <v>700</v>
+      </c>
+      <c r="H60" s="3">
         <v>900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>2200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>2600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>2000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>300</v>
-      </c>
-      <c r="M60" s="3">
-        <v>400</v>
-      </c>
-      <c r="N60" s="3">
-        <v>400</v>
       </c>
       <c r="O60" s="3">
         <v>400</v>
       </c>
       <c r="P60" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>400</v>
+      </c>
+      <c r="R60" s="3">
         <v>500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2985,19 +3271,25 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>400</v>
+      </c>
+      <c r="E62" s="3">
         <v>500</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>19</v>
+      <c r="F62" s="3">
+        <v>500</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>19</v>
@@ -3011,11 +3303,11 @@
       <c r="J62" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
@@ -3032,8 +3324,14 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3377,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3430,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3483,67 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F66" s="3">
         <v>1100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>2200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>2600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>2000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>300</v>
-      </c>
-      <c r="M66" s="3">
-        <v>400</v>
-      </c>
-      <c r="N66" s="3">
-        <v>400</v>
       </c>
       <c r="O66" s="3">
         <v>400</v>
       </c>
       <c r="P66" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q66" s="3">
+        <v>400</v>
+      </c>
+      <c r="R66" s="3">
         <v>500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3561,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3610,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3663,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3716,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3769,67 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-2600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-2200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-3200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-2900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-3000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-2800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-2500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-2100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-300</v>
       </c>
-      <c r="O72" s="3">
-        <v>0</v>
-      </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
+        <v>0</v>
+      </c>
+      <c r="R72" s="3">
         <v>-100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3875,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3928,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3981,67 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F76" s="3">
         <v>1800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>2200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>1200</v>
-      </c>
-      <c r="G76" s="3">
-        <v>1500</v>
-      </c>
-      <c r="H76" s="3">
-        <v>1300</v>
       </c>
       <c r="I76" s="3">
         <v>1500</v>
       </c>
       <c r="J76" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K76" s="3">
+        <v>1500</v>
+      </c>
+      <c r="L76" s="3">
         <v>1800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>2200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>3500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>3500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>4000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>4400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>4200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,60 +4087,72 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44009</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43918</v>
+      </c>
+      <c r="F80" s="2">
         <v>43827</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43736</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43645</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43554</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43463</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43372</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43099</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42917</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42826</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3770,46 +4160,52 @@
         <v>-500</v>
       </c>
       <c r="E81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G81" s="3">
         <v>1000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4223,10 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3874,8 +4272,14 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4325,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4378,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4431,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4484,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,37 +4537,43 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F89" s="3">
         <v>-800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-1000</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-100</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-300</v>
-      </c>
-      <c r="L89" s="3">
-        <v>200</v>
       </c>
       <c r="M89" s="3">
         <v>-300</v>
@@ -4148,16 +4582,22 @@
         <v>200</v>
       </c>
       <c r="O89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P89" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,43 +4615,45 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
+      <c r="E91" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>19</v>
+      <c r="G91" s="3">
+        <v>0</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3" t="s">
+      <c r="I91" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L91" s="3" t="s">
+      <c r="J91" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -4222,8 +4664,14 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4717,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,19 +4770,25 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
+      <c r="E94" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="G94" s="3">
         <v>0</v>
@@ -4340,13 +4800,13 @@
         <v>0</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>100</v>
-      </c>
-      <c r="K94" s="3">
-        <v>100</v>
-      </c>
-      <c r="L94" s="3">
-        <v>200</v>
       </c>
       <c r="M94" s="3">
         <v>100</v>
@@ -4355,16 +4815,22 @@
         <v>200</v>
       </c>
       <c r="O94" s="3">
+        <v>100</v>
+      </c>
+      <c r="P94" s="3">
         <v>200</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
+        <v>200</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4848,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4897,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4950,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +5003,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,8 +5056,14 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4617,8 +5109,14 @@
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,37 +5162,43 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>400</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F102" s="3">
         <v>-800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-1000</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>500</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3">
-        <v>-200</v>
-      </c>
       <c r="L102" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="M102" s="3">
         <v>-200</v>
@@ -4703,12 +5207,18 @@
         <v>400</v>
       </c>
       <c r="O102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P102" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TCCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TCCO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
   <si>
     <t>TCCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,245 +665,270 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44191</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44100</v>
+      </c>
+      <c r="F7" s="2">
         <v>44009</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43918</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43827</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43736</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43645</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43554</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43463</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43372</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43099</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42917</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42826</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>200</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F8" s="3">
         <v>600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>2700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>1200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>1900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>800</v>
-      </c>
-      <c r="N8" s="3">
-        <v>1100</v>
-      </c>
-      <c r="O8" s="3">
-        <v>1100</v>
       </c>
       <c r="P8" s="3">
         <v>1100</v>
       </c>
       <c r="Q8" s="3">
+        <v>1100</v>
+      </c>
+      <c r="R8" s="3">
+        <v>1100</v>
+      </c>
+      <c r="S8" s="3">
         <v>1400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>700</v>
+      </c>
+      <c r="F9" s="3">
         <v>200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>1000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>1100</v>
-      </c>
-      <c r="J9" s="3">
-        <v>700</v>
-      </c>
-      <c r="K9" s="3">
-        <v>900</v>
       </c>
       <c r="L9" s="3">
         <v>700</v>
       </c>
       <c r="M9" s="3">
+        <v>900</v>
+      </c>
+      <c r="N9" s="3">
+        <v>700</v>
+      </c>
+      <c r="O9" s="3">
         <v>600</v>
-      </c>
-      <c r="N9" s="3">
-        <v>500</v>
-      </c>
-      <c r="O9" s="3">
-        <v>1000</v>
       </c>
       <c r="P9" s="3">
         <v>500</v>
       </c>
       <c r="Q9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R9" s="3">
+        <v>500</v>
+      </c>
+      <c r="S9" s="3">
         <v>200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>200</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F10" s="3">
         <v>400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>1700</v>
-      </c>
-      <c r="H10" s="3">
-        <v>400</v>
-      </c>
-      <c r="I10" s="3">
-        <v>800</v>
       </c>
       <c r="J10" s="3">
         <v>400</v>
       </c>
       <c r="K10" s="3">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="L10" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="M10" s="3">
         <v>200</v>
       </c>
       <c r="N10" s="3">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="O10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P10" s="3">
         <v>600</v>
       </c>
       <c r="Q10" s="3">
+        <v>100</v>
+      </c>
+      <c r="R10" s="3">
+        <v>600</v>
+      </c>
+      <c r="S10" s="3">
         <v>1200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -923,61 +948,69 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>400</v>
+      </c>
+      <c r="E12" s="3">
+        <v>400</v>
+      </c>
+      <c r="F12" s="3">
         <v>300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>100</v>
       </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
-      <c r="I12" s="3">
-        <v>0</v>
-      </c>
       <c r="J12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L12" s="3">
         <v>100</v>
       </c>
       <c r="M12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O12" s="3">
         <v>200</v>
       </c>
       <c r="P12" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>200</v>
+      </c>
+      <c r="R12" s="3">
         <v>400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>500</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1029,8 +1062,14 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1082,8 +1121,14 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1135,8 +1180,14 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,114 +1204,128 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="E17" s="3">
-        <v>1100</v>
+        <v>1700</v>
       </c>
       <c r="F17" s="3">
         <v>1100</v>
       </c>
       <c r="G17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I17" s="3">
         <v>1700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1800</v>
-      </c>
-      <c r="J17" s="3">
-        <v>1400</v>
-      </c>
-      <c r="K17" s="3">
-        <v>1400</v>
       </c>
       <c r="L17" s="3">
         <v>1400</v>
       </c>
       <c r="M17" s="3">
+        <v>1400</v>
+      </c>
+      <c r="N17" s="3">
+        <v>1400</v>
+      </c>
+      <c r="O17" s="3">
         <v>1200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1400</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>1300</v>
-      </c>
-      <c r="R17" s="3">
-        <v>1300</v>
       </c>
       <c r="S17" s="3">
         <v>1300</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3">
+        <v>1300</v>
+      </c>
+      <c r="U17" s="3">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E18" s="3">
+        <v>400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-400</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-400</v>
-      </c>
-      <c r="G18" s="3">
-        <v>1000</v>
       </c>
       <c r="H18" s="3">
         <v>-400</v>
       </c>
       <c r="I18" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K18" s="3">
         <v>100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1280,13 +1345,15 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1333,84 +1400,96 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="E21" s="3">
-        <v>-400</v>
+        <v>400</v>
       </c>
       <c r="F21" s="3">
         <v>-500</v>
       </c>
       <c r="G21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I21" s="3">
         <v>1000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-400</v>
       </c>
-      <c r="N21" s="3">
-        <v>0</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
         <v>0</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+      <c r="E22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1439,61 +1518,73 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="E23" s="3">
-        <v>-400</v>
+        <v>400</v>
       </c>
       <c r="F23" s="3">
         <v>-500</v>
       </c>
       <c r="G23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I23" s="3">
         <v>1000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1527,26 +1618,32 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-      <c r="N24" s="3" t="s">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="3" t="s">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="R24" s="3" t="s">
+      <c r="T24" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1598,114 +1695,132 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="E26" s="3">
-        <v>-400</v>
+        <v>400</v>
       </c>
       <c r="F26" s="3">
         <v>-500</v>
       </c>
       <c r="G26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I26" s="3">
         <v>1000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="E27" s="3">
-        <v>-400</v>
+        <v>400</v>
       </c>
       <c r="F27" s="3">
         <v>-500</v>
       </c>
       <c r="G27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I27" s="3">
         <v>1000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1757,8 +1872,14 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1810,8 +1931,14 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +1990,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,13 +2049,19 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -1969,61 +2108,73 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="E33" s="3">
-        <v>-400</v>
+        <v>400</v>
       </c>
       <c r="F33" s="3">
         <v>-500</v>
       </c>
       <c r="G33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I33" s="3">
         <v>1000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,119 +2226,137 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="E35" s="3">
-        <v>-400</v>
+        <v>400</v>
       </c>
       <c r="F35" s="3">
         <v>-500</v>
       </c>
       <c r="G35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I35" s="3">
         <v>1000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44191</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44100</v>
+      </c>
+      <c r="F38" s="2">
         <v>44009</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43918</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43827</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43736</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43645</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43554</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43463</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43372</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43099</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42917</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42826</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2376,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,61 +2399,69 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>700</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F41" s="3">
         <v>1000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>1600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>1800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>2000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>1400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>1700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>1300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>1500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>1100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>1400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2314,134 +2493,152 @@
         <v>0</v>
       </c>
       <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
         <v>100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>500</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E43" s="3">
+        <v>100</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
         <v>200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>100</v>
       </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3">
         <v>300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E44" s="3">
+        <v>900</v>
+      </c>
+      <c r="F44" s="3">
         <v>1100</v>
-      </c>
-      <c r="E44" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F44" s="3">
-        <v>1000</v>
       </c>
       <c r="G44" s="3">
         <v>1000</v>
       </c>
       <c r="H44" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="I44" s="3">
         <v>1000</v>
       </c>
       <c r="J44" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K44" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L44" s="3">
         <v>1400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>1400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>1500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>1500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>1400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>1400</v>
-      </c>
-      <c r="P44" s="3">
-        <v>1800</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>1800</v>
       </c>
       <c r="R44" s="3">
         <v>1800</v>
       </c>
       <c r="S44" s="3">
+        <v>1800</v>
+      </c>
+      <c r="T44" s="3">
+        <v>1800</v>
+      </c>
+      <c r="U44" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2449,7 +2646,7 @@
         <v>100</v>
       </c>
       <c r="E45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F45" s="3">
         <v>100</v>
@@ -2470,22 +2667,22 @@
         <v>100</v>
       </c>
       <c r="L45" s="3">
+        <v>100</v>
+      </c>
+      <c r="M45" s="3">
+        <v>100</v>
+      </c>
+      <c r="N45" s="3">
         <v>200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>100</v>
-      </c>
-      <c r="P45" s="3">
-        <v>200</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>200</v>
       </c>
       <c r="R45" s="3">
         <v>200</v>
@@ -2493,61 +2690,73 @@
       <c r="S45" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>200</v>
+      </c>
+      <c r="U45" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E46" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F46" s="3">
         <v>2300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>2000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>2100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>2900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>2000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>3200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>3400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>4100</v>
-      </c>
-      <c r="L46" s="3">
-        <v>3700</v>
-      </c>
-      <c r="M46" s="3">
-        <v>3500</v>
       </c>
       <c r="N46" s="3">
         <v>3700</v>
       </c>
       <c r="O46" s="3">
+        <v>3500</v>
+      </c>
+      <c r="P46" s="3">
+        <v>3700</v>
+      </c>
+      <c r="Q46" s="3">
         <v>3900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>4300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>4700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>4400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2581,44 +2790,50 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-      <c r="N47" s="3" t="s">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
-      </c>
-      <c r="P47" s="3">
-        <v>0</v>
-      </c>
       <c r="Q47" s="3">
         <v>0</v>
       </c>
       <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+      <c r="T47" s="3">
         <v>200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>500</v>
+      </c>
+      <c r="E48" s="3">
         <v>600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
+        <v>600</v>
+      </c>
+      <c r="G48" s="3">
         <v>700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>700</v>
       </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
       <c r="I48" s="3">
         <v>0</v>
       </c>
@@ -2629,19 +2844,19 @@
         <v>0</v>
       </c>
       <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3">
         <v>100</v>
-      </c>
-      <c r="M48" s="3">
-        <v>100</v>
-      </c>
-      <c r="N48" s="3">
-        <v>0</v>
       </c>
       <c r="O48" s="3">
         <v>100</v>
       </c>
       <c r="P48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q48" s="3">
         <v>100</v>
@@ -2650,10 +2865,16 @@
         <v>100</v>
       </c>
       <c r="S48" s="3">
+        <v>100</v>
+      </c>
+      <c r="T48" s="3">
+        <v>100</v>
+      </c>
+      <c r="U48" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2705,8 +2926,14 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +2985,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2811,8 +3044,14 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2864,8 +3103,14 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,61 +3162,73 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F54" s="3">
         <v>2900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>2600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>2800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>2900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>2100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>3300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>3500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>4100</v>
-      </c>
-      <c r="L54" s="3">
-        <v>3800</v>
-      </c>
-      <c r="M54" s="3">
-        <v>3500</v>
       </c>
       <c r="N54" s="3">
         <v>3800</v>
       </c>
       <c r="O54" s="3">
+        <v>3500</v>
+      </c>
+      <c r="P54" s="3">
+        <v>3800</v>
+      </c>
+      <c r="Q54" s="3">
         <v>3900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>4400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>4800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>4700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2991,8 +3248,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3012,40 +3271,42 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>200</v>
+      </c>
+      <c r="E57" s="3">
         <v>100</v>
-      </c>
-      <c r="E57" s="3">
-        <v>0</v>
       </c>
       <c r="F57" s="3">
         <v>100</v>
       </c>
       <c r="G57" s="3">
+        <v>0</v>
+      </c>
+      <c r="H57" s="3">
+        <v>100</v>
+      </c>
+      <c r="I57" s="3">
         <v>400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>300</v>
-      </c>
-      <c r="I57" s="3">
-        <v>200</v>
-      </c>
-      <c r="J57" s="3">
-        <v>200</v>
       </c>
       <c r="K57" s="3">
         <v>200</v>
       </c>
       <c r="L57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N57" s="3">
         <v>100</v>
@@ -3060,36 +3321,42 @@
         <v>100</v>
       </c>
       <c r="R57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>200</v>
+      </c>
+      <c r="U57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
         <v>0</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+      <c r="E58" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -3118,49 +3385,55 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>700</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F59" s="3">
         <v>1400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>1500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>2000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>2400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>1900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>1200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>200</v>
-      </c>
-      <c r="O59" s="3">
-        <v>300</v>
-      </c>
-      <c r="P59" s="3">
-        <v>300</v>
       </c>
       <c r="Q59" s="3">
         <v>300</v>
@@ -3169,71 +3442,83 @@
         <v>300</v>
       </c>
       <c r="S59" s="3">
+        <v>300</v>
+      </c>
+      <c r="T59" s="3">
+        <v>300</v>
+      </c>
+      <c r="U59" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>900</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F60" s="3">
         <v>1500</v>
-      </c>
-      <c r="E60" s="3">
-        <v>700</v>
-      </c>
-      <c r="F60" s="3">
-        <v>600</v>
       </c>
       <c r="G60" s="3">
         <v>700</v>
       </c>
       <c r="H60" s="3">
+        <v>600</v>
+      </c>
+      <c r="I60" s="3">
+        <v>700</v>
+      </c>
+      <c r="J60" s="3">
         <v>900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>2200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>2600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>2000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>300</v>
-      </c>
-      <c r="O60" s="3">
-        <v>400</v>
-      </c>
-      <c r="P60" s="3">
-        <v>400</v>
       </c>
       <c r="Q60" s="3">
         <v>400</v>
       </c>
       <c r="R60" s="3">
+        <v>400</v>
+      </c>
+      <c r="S60" s="3">
+        <v>400</v>
+      </c>
+      <c r="T60" s="3">
         <v>500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -3277,8 +3562,14 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3286,16 +3577,16 @@
         <v>400</v>
       </c>
       <c r="E62" s="3">
+        <v>400</v>
+      </c>
+      <c r="F62" s="3">
+        <v>400</v>
+      </c>
+      <c r="G62" s="3">
         <v>500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>500</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>19</v>
@@ -3309,11 +3600,11 @@
       <c r="L62" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
-      </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="M62" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
@@ -3330,8 +3621,14 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,8 +3680,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3436,8 +3739,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3489,61 +3798,73 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F66" s="3">
         <v>2000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>2200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>2600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>2000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>300</v>
-      </c>
-      <c r="O66" s="3">
-        <v>400</v>
-      </c>
-      <c r="P66" s="3">
-        <v>400</v>
       </c>
       <c r="Q66" s="3">
         <v>400</v>
       </c>
       <c r="R66" s="3">
+        <v>400</v>
+      </c>
+      <c r="S66" s="3">
+        <v>400</v>
+      </c>
+      <c r="T66" s="3">
         <v>500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3563,8 +3884,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +3939,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3669,8 +3998,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3722,8 +4057,14 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3775,61 +4116,73 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F72" s="3">
         <v>-3500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-3000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-2600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-2200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-3200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-2900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-3000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-2800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-2500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-2100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-300</v>
       </c>
-      <c r="Q72" s="3">
-        <v>0</v>
-      </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
+        <v>0</v>
+      </c>
+      <c r="T72" s="3">
         <v>-100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +4234,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3934,8 +4293,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3987,61 +4352,73 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="E76" s="3">
         <v>1400</v>
       </c>
       <c r="F76" s="3">
+        <v>900</v>
+      </c>
+      <c r="G76" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H76" s="3">
         <v>1800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>2200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>1200</v>
-      </c>
-      <c r="I76" s="3">
-        <v>1500</v>
-      </c>
-      <c r="J76" s="3">
-        <v>1300</v>
       </c>
       <c r="K76" s="3">
         <v>1500</v>
       </c>
       <c r="L76" s="3">
+        <v>1300</v>
+      </c>
+      <c r="M76" s="3">
+        <v>1500</v>
+      </c>
+      <c r="N76" s="3">
         <v>1800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>2200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>3500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>3500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>4000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>4400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>4200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4093,119 +4470,137 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44191</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44100</v>
+      </c>
+      <c r="F80" s="2">
         <v>44009</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43918</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43827</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43736</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43645</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43554</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43463</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43372</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43099</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42917</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42826</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="E81" s="3">
-        <v>-400</v>
+        <v>400</v>
       </c>
       <c r="F81" s="3">
         <v>-500</v>
       </c>
       <c r="G81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I81" s="3">
         <v>1000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4225,8 +4620,10 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4278,8 +4675,14 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4331,8 +4734,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4384,8 +4793,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4437,8 +4852,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4490,8 +4911,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4543,43 +4970,49 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E89" s="3">
+        <v>400</v>
+      </c>
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-1000</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-100</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-300</v>
-      </c>
-      <c r="N89" s="3">
-        <v>200</v>
       </c>
       <c r="O89" s="3">
         <v>-300</v>
@@ -4588,16 +5021,22 @@
         <v>200</v>
       </c>
       <c r="Q89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R89" s="3">
+        <v>200</v>
+      </c>
+      <c r="S89" s="3">
         <v>-500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-1200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4617,8 +5056,10 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4631,35 +5072,35 @@
       <c r="F91" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
+      <c r="G91" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>19</v>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3" t="s">
+      <c r="K91" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N91" s="3" t="s">
+      <c r="L91" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
@@ -4670,8 +5111,14 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4723,8 +5170,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4776,25 +5229,31 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>19</v>
+      <c r="E94" s="3">
+        <v>0</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
+      <c r="G94" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="I94" s="3">
         <v>0</v>
@@ -4806,13 +5265,13 @@
         <v>0</v>
       </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>100</v>
-      </c>
-      <c r="M94" s="3">
-        <v>100</v>
-      </c>
-      <c r="N94" s="3">
-        <v>200</v>
       </c>
       <c r="O94" s="3">
         <v>100</v>
@@ -4821,16 +5280,22 @@
         <v>200</v>
       </c>
       <c r="Q94" s="3">
+        <v>100</v>
+      </c>
+      <c r="R94" s="3">
         <v>200</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
       <c r="S94" s="3">
+        <v>200</v>
+      </c>
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4850,8 +5315,10 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4903,8 +5370,14 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4956,8 +5429,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5009,8 +5488,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5062,31 +5547,37 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>0</v>
+      <c r="D100" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
@@ -5115,8 +5606,14 @@
       <c r="S100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5168,43 +5665,49 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E102" s="3">
+        <v>600</v>
+      </c>
+      <c r="F102" s="3">
         <v>400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-1000</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>500</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
-      <c r="M102" s="3">
-        <v>-200</v>
-      </c>
       <c r="N102" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="O102" s="3">
         <v>-200</v>
@@ -5213,12 +5716,18 @@
         <v>400</v>
       </c>
       <c r="Q102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R102" s="3">
+        <v>400</v>
+      </c>
+      <c r="S102" s="3">
         <v>-300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-1200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TCCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TCCO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
   <si>
     <t>TCCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,134 +665,138 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44282</v>
+      </c>
+      <c r="E7" s="2">
         <v>44191</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44009</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43918</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43827</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43736</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43645</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43554</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43463</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43372</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43099</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42917</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42826</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>600</v>
+      </c>
+      <c r="E8" s="3">
         <v>200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>600</v>
-      </c>
-      <c r="G8" s="3">
-        <v>700</v>
       </c>
       <c r="H8" s="3">
         <v>700</v>
       </c>
       <c r="I8" s="3">
+        <v>700</v>
+      </c>
+      <c r="J8" s="3">
         <v>2700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1900</v>
-      </c>
-      <c r="L8" s="3">
-        <v>1100</v>
       </c>
       <c r="M8" s="3">
         <v>1100</v>
       </c>
       <c r="N8" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O8" s="3">
         <v>900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>800</v>
-      </c>
-      <c r="P8" s="3">
-        <v>1100</v>
       </c>
       <c r="Q8" s="3">
         <v>1100</v>
@@ -801,75 +805,81 @@
         <v>1100</v>
       </c>
       <c r="S8" s="3">
+        <v>1100</v>
+      </c>
+      <c r="T8" s="3">
         <v>1400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
         <v>700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>200</v>
-      </c>
-      <c r="G9" s="3">
-        <v>400</v>
       </c>
       <c r="H9" s="3">
         <v>400</v>
       </c>
       <c r="I9" s="3">
+        <v>400</v>
+      </c>
+      <c r="J9" s="3">
         <v>1000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>500</v>
-      </c>
-      <c r="S9" s="3">
-        <v>200</v>
       </c>
       <c r="T9" s="3">
         <v>200</v>
       </c>
       <c r="U9" s="3">
+        <v>200</v>
+      </c>
+      <c r="V9" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -877,31 +887,31 @@
         <v>200</v>
       </c>
       <c r="E10" s="3">
+        <v>200</v>
+      </c>
+      <c r="F10" s="3">
         <v>1400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>400</v>
-      </c>
-      <c r="G10" s="3">
-        <v>300</v>
       </c>
       <c r="H10" s="3">
         <v>300</v>
       </c>
       <c r="I10" s="3">
+        <v>300</v>
+      </c>
+      <c r="J10" s="3">
         <v>1700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>400</v>
-      </c>
-      <c r="M10" s="3">
-        <v>200</v>
       </c>
       <c r="N10" s="3">
         <v>200</v>
@@ -910,25 +920,28 @@
         <v>200</v>
       </c>
       <c r="P10" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q10" s="3">
         <v>600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,37 +963,38 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E12" s="3">
         <v>400</v>
       </c>
       <c r="F12" s="3">
+        <v>400</v>
+      </c>
+      <c r="G12" s="3">
         <v>300</v>
-      </c>
-      <c r="G12" s="3">
-        <v>200</v>
       </c>
       <c r="H12" s="3">
         <v>200</v>
       </c>
       <c r="I12" s="3">
+        <v>200</v>
+      </c>
+      <c r="J12" s="3">
         <v>100</v>
       </c>
-      <c r="J12" s="3">
-        <v>0</v>
-      </c>
       <c r="K12" s="3">
         <v>0</v>
       </c>
       <c r="L12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M12" s="3">
         <v>100</v>
@@ -989,7 +1003,7 @@
         <v>100</v>
       </c>
       <c r="O12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P12" s="3">
         <v>200</v>
@@ -998,19 +1012,22 @@
         <v>200</v>
       </c>
       <c r="R12" s="3">
+        <v>200</v>
+      </c>
+      <c r="S12" s="3">
         <v>400</v>
-      </c>
-      <c r="S12" s="3">
-        <v>500</v>
       </c>
       <c r="T12" s="3">
         <v>500</v>
       </c>
       <c r="U12" s="3">
+        <v>500</v>
+      </c>
+      <c r="V12" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1068,8 +1085,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1147,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1186,8 +1209,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,19 +1232,20 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>900</v>
+      </c>
+      <c r="E17" s="3">
         <v>1000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1700</v>
-      </c>
-      <c r="F17" s="3">
-        <v>1100</v>
       </c>
       <c r="G17" s="3">
         <v>1100</v>
@@ -1227,16 +1254,16 @@
         <v>1100</v>
       </c>
       <c r="I17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J17" s="3">
         <v>1700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1800</v>
-      </c>
-      <c r="L17" s="3">
-        <v>1400</v>
       </c>
       <c r="M17" s="3">
         <v>1400</v>
@@ -1245,19 +1272,19 @@
         <v>1400</v>
       </c>
       <c r="O17" s="3">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="P17" s="3">
         <v>1200</v>
       </c>
       <c r="Q17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="R17" s="3">
         <v>1600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1400</v>
-      </c>
-      <c r="S17" s="3">
-        <v>1300</v>
       </c>
       <c r="T17" s="3">
         <v>1300</v>
@@ -1265,67 +1292,73 @@
       <c r="U17" s="3">
         <v>1300</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-500</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-400</v>
       </c>
       <c r="H18" s="3">
         <v>-400</v>
       </c>
       <c r="I18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J18" s="3">
         <v>1000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>100</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-300</v>
       </c>
       <c r="M18" s="3">
         <v>-300</v>
       </c>
       <c r="N18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O18" s="3">
         <v>-500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1347,17 +1380,18 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>400</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
@@ -1406,8 +1440,11 @@
       <c r="U20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1415,66 +1452,69 @@
         <v>-300</v>
       </c>
       <c r="E21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F21" s="3">
         <v>400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>200</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-200</v>
       </c>
       <c r="M21" s="3">
         <v>-200</v>
       </c>
       <c r="N21" s="3">
-        <v>-400</v>
+        <v>-200</v>
       </c>
       <c r="O21" s="3">
         <v>-400</v>
       </c>
       <c r="P21" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="Q21" s="3">
+        <v>0</v>
+      </c>
+      <c r="R21" s="3">
         <v>-500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
         <v>0</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>19</v>
+      <c r="E22" s="3">
+        <v>0</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>19</v>
@@ -1491,8 +1531,8 @@
       <c r="J22" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1524,8 +1564,11 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
@@ -1533,58 +1576,61 @@
         <v>-300</v>
       </c>
       <c r="E23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F23" s="3">
         <v>400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-300</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-400</v>
       </c>
       <c r="O23" s="3">
         <v>-400</v>
       </c>
       <c r="P23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1624,26 +1670,29 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-      <c r="P24" s="3" t="s">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
       <c r="R24" s="3">
         <v>0</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>19</v>
+      <c r="S24" s="3">
+        <v>0</v>
       </c>
       <c r="T24" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,8 +1750,11 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1710,58 +1762,61 @@
         <v>-300</v>
       </c>
       <c r="E26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F26" s="3">
         <v>400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-300</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-400</v>
       </c>
       <c r="O26" s="3">
         <v>-400</v>
       </c>
       <c r="P26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1769,58 +1824,61 @@
         <v>-300</v>
       </c>
       <c r="E27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F27" s="3">
         <v>400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-300</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-400</v>
       </c>
       <c r="O27" s="3">
         <v>-400</v>
       </c>
       <c r="P27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1936,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1937,8 +1998,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2060,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,17 +2122,20 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>-400</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
@@ -2114,8 +2184,11 @@
       <c r="U32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2123,58 +2196,61 @@
         <v>-300</v>
       </c>
       <c r="E33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F33" s="3">
         <v>400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-300</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-400</v>
       </c>
       <c r="O33" s="3">
         <v>-400</v>
       </c>
       <c r="P33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,8 +2308,11 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2241,122 +2320,128 @@
         <v>-300</v>
       </c>
       <c r="E35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F35" s="3">
         <v>400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-300</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-400</v>
       </c>
       <c r="O35" s="3">
         <v>-400</v>
       </c>
       <c r="P35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44282</v>
+      </c>
+      <c r="E38" s="2">
         <v>44191</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44009</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43918</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43827</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43736</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43645</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43554</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43463</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43372</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43099</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42917</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42826</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2463,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,67 +2487,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>600</v>
+      </c>
+      <c r="E41" s="3">
         <v>700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2499,101 +2589,107 @@
         <v>0</v>
       </c>
       <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
         <v>100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>200</v>
-      </c>
-      <c r="Q42" s="3">
-        <v>400</v>
       </c>
       <c r="R42" s="3">
         <v>400</v>
       </c>
       <c r="S42" s="3">
+        <v>400</v>
+      </c>
+      <c r="T42" s="3">
         <v>600</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>500</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E43" s="3">
         <v>100</v>
       </c>
       <c r="F43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
         <v>200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>100</v>
       </c>
-      <c r="J43" s="3">
-        <v>0</v>
-      </c>
       <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
         <v>300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>200</v>
-      </c>
-      <c r="M43" s="3">
-        <v>600</v>
       </c>
       <c r="N43" s="3">
         <v>600</v>
       </c>
       <c r="O43" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="P43" s="3">
         <v>300</v>
       </c>
       <c r="Q43" s="3">
+        <v>300</v>
+      </c>
+      <c r="R43" s="3">
         <v>700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E44" s="3">
         <v>1000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1100</v>
-      </c>
-      <c r="G44" s="3">
-        <v>1000</v>
       </c>
       <c r="H44" s="3">
         <v>1000</v>
@@ -2602,31 +2698,31 @@
         <v>1000</v>
       </c>
       <c r="J44" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K44" s="3">
         <v>1100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1000</v>
-      </c>
-      <c r="L44" s="3">
-        <v>1400</v>
       </c>
       <c r="M44" s="3">
         <v>1400</v>
       </c>
       <c r="N44" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="O44" s="3">
         <v>1500</v>
       </c>
       <c r="P44" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="Q44" s="3">
         <v>1400</v>
       </c>
       <c r="R44" s="3">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="S44" s="3">
         <v>1800</v>
@@ -2635,21 +2731,24 @@
         <v>1800</v>
       </c>
       <c r="U44" s="3">
+        <v>1800</v>
+      </c>
+      <c r="V44" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>200</v>
+      </c>
+      <c r="E45" s="3">
         <v>100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>200</v>
-      </c>
-      <c r="F45" s="3">
-        <v>100</v>
       </c>
       <c r="G45" s="3">
         <v>100</v>
@@ -2673,19 +2772,19 @@
         <v>100</v>
       </c>
       <c r="N45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O45" s="3">
         <v>200</v>
       </c>
       <c r="P45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q45" s="3">
         <v>100</v>
       </c>
       <c r="R45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S45" s="3">
         <v>200</v>
@@ -2696,67 +2795,73 @@
       <c r="U45" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>4400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2796,12 +2901,12 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-      <c r="P47" s="3" t="s">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Q47" s="3">
-        <v>0</v>
-      </c>
       <c r="R47" s="3">
         <v>0</v>
       </c>
@@ -2809,13 +2914,16 @@
         <v>0</v>
       </c>
       <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
         <v>200</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2823,19 +2931,19 @@
         <v>500</v>
       </c>
       <c r="E48" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="F48" s="3">
         <v>600</v>
       </c>
       <c r="G48" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="H48" s="3">
         <v>700</v>
       </c>
       <c r="I48" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="J48" s="3">
         <v>0</v>
@@ -2850,16 +2958,16 @@
         <v>0</v>
       </c>
       <c r="N48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O48" s="3">
         <v>100</v>
       </c>
       <c r="P48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R48" s="3">
         <v>100</v>
@@ -2871,10 +2979,13 @@
         <v>100</v>
       </c>
       <c r="U48" s="3">
+        <v>100</v>
+      </c>
+      <c r="V48" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2932,8 +3043,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3105,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,8 +3167,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3109,8 +3229,11 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,67 +3291,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E54" s="3">
         <v>2400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>4700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3379,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,8 +3403,9 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3282,25 +3413,25 @@
         <v>200</v>
       </c>
       <c r="E57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F57" s="3">
         <v>100</v>
       </c>
       <c r="G57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H57" s="3">
+        <v>0</v>
+      </c>
+      <c r="I57" s="3">
         <v>100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>300</v>
-      </c>
-      <c r="K57" s="3">
-        <v>200</v>
       </c>
       <c r="L57" s="3">
         <v>200</v>
@@ -3309,7 +3440,7 @@
         <v>200</v>
       </c>
       <c r="N57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O57" s="3">
         <v>100</v>
@@ -3327,21 +3458,24 @@
         <v>100</v>
       </c>
       <c r="T57" s="3">
+        <v>100</v>
+      </c>
+      <c r="U57" s="3">
         <v>200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3" t="s">
+      <c r="D58" s="3" t="s">
         <v>19</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>19</v>
@@ -3358,8 +3492,8 @@
       <c r="J58" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
@@ -3391,52 +3525,55 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E59" s="3">
         <v>700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>200</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>300</v>
       </c>
       <c r="R59" s="3">
         <v>300</v>
@@ -3448,54 +3585,57 @@
         <v>300</v>
       </c>
       <c r="U59" s="3">
+        <v>300</v>
+      </c>
+      <c r="V59" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E60" s="3">
         <v>900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>300</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>400</v>
       </c>
       <c r="R60" s="3">
         <v>400</v>
@@ -3504,25 +3644,28 @@
         <v>400</v>
       </c>
       <c r="T60" s="3">
+        <v>400</v>
+      </c>
+      <c r="U60" s="3">
         <v>500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>200</v>
+      </c>
+      <c r="E61" s="3">
         <v>100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>200</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -3568,13 +3711,16 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E62" s="3">
         <v>400</v>
@@ -3583,13 +3729,13 @@
         <v>400</v>
       </c>
       <c r="G62" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="H62" s="3">
         <v>500</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>19</v>
+      <c r="I62" s="3">
+        <v>500</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>19</v>
@@ -3606,8 +3752,8 @@
       <c r="N62" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
+      <c r="O62" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="P62" s="3">
         <v>0</v>
@@ -3627,8 +3773,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3835,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3897,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,52 +3959,55 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E66" s="3">
         <v>1400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>300</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>400</v>
       </c>
       <c r="R66" s="3">
         <v>400</v>
@@ -3858,13 +4016,16 @@
         <v>400</v>
       </c>
       <c r="T66" s="3">
+        <v>400</v>
+      </c>
+      <c r="U66" s="3">
         <v>500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4047,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4107,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4169,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4231,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,67 +4293,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-3400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-3100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-3500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-3000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-2600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-2200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-3200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-2900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-3000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-2800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-2500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-2100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-300</v>
       </c>
-      <c r="S72" s="3">
-        <v>0</v>
-      </c>
       <c r="T72" s="3">
+        <v>0</v>
+      </c>
+      <c r="U72" s="3">
         <v>-100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4417,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4479,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,67 +4541,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>700</v>
+      </c>
+      <c r="E76" s="3">
         <v>1000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2200</v>
-      </c>
-      <c r="P76" s="3">
-        <v>3500</v>
       </c>
       <c r="Q76" s="3">
         <v>3500</v>
       </c>
       <c r="R76" s="3">
+        <v>3500</v>
+      </c>
+      <c r="S76" s="3">
         <v>4000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>4400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>4200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,72 +4665,78 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44282</v>
+      </c>
+      <c r="E80" s="2">
         <v>44191</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44009</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43918</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43827</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43736</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43645</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43554</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43463</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43372</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43099</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42917</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42826</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4549,58 +4744,61 @@
         <v>-300</v>
       </c>
       <c r="E81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F81" s="3">
         <v>400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-300</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-400</v>
       </c>
       <c r="O81" s="3">
         <v>-400</v>
       </c>
       <c r="P81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,8 +4820,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4681,8 +4880,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4942,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5004,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5066,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5128,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5190,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>400</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-100</v>
       </c>
       <c r="G89" s="3">
         <v>-100</v>
       </c>
       <c r="H89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I89" s="3">
         <v>-800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1000</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
       <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
         <v>-200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-1200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,8 +5278,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5078,11 +5299,11 @@
       <c r="H91" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3" t="s">
+      <c r="I91" s="3" t="s">
         <v>19</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>19</v>
@@ -5090,20 +5311,20 @@
       <c r="L91" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>19</v>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
@@ -5117,8 +5338,11 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5400,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,19 +5462,22 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3" t="s">
+      <c r="E94" s="3" t="s">
         <v>19</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>19</v>
@@ -5255,8 +5485,8 @@
       <c r="H94" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
+      <c r="I94" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="J94" s="3">
         <v>0</v>
@@ -5271,31 +5501,34 @@
         <v>0</v>
       </c>
       <c r="N94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O94" s="3">
         <v>100</v>
       </c>
       <c r="P94" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q94" s="3">
         <v>200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>100</v>
-      </c>
-      <c r="R94" s="3">
-        <v>200</v>
       </c>
       <c r="S94" s="3">
         <v>200</v>
       </c>
       <c r="T94" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5550,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5610,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5672,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5734,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,19 +5796,22 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E100" s="3">
+      <c r="E100" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F100" s="3">
         <v>200</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>19</v>
@@ -5579,8 +5825,8 @@
       <c r="J100" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
+      <c r="K100" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="L100" s="3">
         <v>0</v>
@@ -5612,8 +5858,11 @@
       <c r="U100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5671,63 +5920,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1000</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>500</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TCCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TCCO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
   <si>
     <t>TCCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,145 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44374</v>
+      </c>
+      <c r="E7" s="2">
         <v>44282</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44191</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44009</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43918</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43827</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43736</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43645</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43554</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43463</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43372</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43099</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42917</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42826</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>400</v>
+      </c>
+      <c r="E8" s="3">
         <v>600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>600</v>
-      </c>
-      <c r="H8" s="3">
-        <v>700</v>
       </c>
       <c r="I8" s="3">
         <v>700</v>
       </c>
       <c r="J8" s="3">
+        <v>700</v>
+      </c>
+      <c r="K8" s="3">
         <v>2700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1900</v>
-      </c>
-      <c r="M8" s="3">
-        <v>1100</v>
       </c>
       <c r="N8" s="3">
         <v>1100</v>
       </c>
       <c r="O8" s="3">
+        <v>1100</v>
+      </c>
+      <c r="P8" s="3">
         <v>900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>800</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>1100</v>
       </c>
       <c r="R8" s="3">
         <v>1100</v>
@@ -808,113 +812,119 @@
         <v>1100</v>
       </c>
       <c r="T8" s="3">
+        <v>1100</v>
+      </c>
+      <c r="U8" s="3">
         <v>1400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>300</v>
+      </c>
+      <c r="E9" s="3">
         <v>400</v>
       </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
       <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
         <v>700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>200</v>
-      </c>
-      <c r="H9" s="3">
-        <v>400</v>
       </c>
       <c r="I9" s="3">
         <v>400</v>
       </c>
       <c r="J9" s="3">
+        <v>400</v>
+      </c>
+      <c r="K9" s="3">
         <v>1000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>500</v>
-      </c>
-      <c r="T9" s="3">
-        <v>200</v>
       </c>
       <c r="U9" s="3">
         <v>200</v>
       </c>
       <c r="V9" s="3">
+        <v>200</v>
+      </c>
+      <c r="W9" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E10" s="3">
         <v>200</v>
       </c>
       <c r="F10" s="3">
+        <v>200</v>
+      </c>
+      <c r="G10" s="3">
         <v>1400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>400</v>
-      </c>
-      <c r="H10" s="3">
-        <v>300</v>
       </c>
       <c r="I10" s="3">
         <v>300</v>
       </c>
       <c r="J10" s="3">
+        <v>300</v>
+      </c>
+      <c r="K10" s="3">
         <v>1700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>400</v>
-      </c>
-      <c r="N10" s="3">
-        <v>200</v>
       </c>
       <c r="O10" s="3">
         <v>200</v>
@@ -923,25 +933,28 @@
         <v>200</v>
       </c>
       <c r="Q10" s="3">
+        <v>200</v>
+      </c>
+      <c r="R10" s="3">
         <v>600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -964,40 +977,41 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>100</v>
+      </c>
+      <c r="E12" s="3">
         <v>200</v>
-      </c>
-      <c r="E12" s="3">
-        <v>400</v>
       </c>
       <c r="F12" s="3">
         <v>400</v>
       </c>
       <c r="G12" s="3">
+        <v>400</v>
+      </c>
+      <c r="H12" s="3">
         <v>300</v>
-      </c>
-      <c r="H12" s="3">
-        <v>200</v>
       </c>
       <c r="I12" s="3">
         <v>200</v>
       </c>
       <c r="J12" s="3">
+        <v>200</v>
+      </c>
+      <c r="K12" s="3">
         <v>100</v>
       </c>
-      <c r="K12" s="3">
-        <v>0</v>
-      </c>
       <c r="L12" s="3">
         <v>0</v>
       </c>
       <c r="M12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N12" s="3">
         <v>100</v>
@@ -1006,7 +1020,7 @@
         <v>100</v>
       </c>
       <c r="P12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q12" s="3">
         <v>200</v>
@@ -1015,19 +1029,22 @@
         <v>200</v>
       </c>
       <c r="S12" s="3">
+        <v>200</v>
+      </c>
+      <c r="T12" s="3">
         <v>400</v>
-      </c>
-      <c r="T12" s="3">
-        <v>500</v>
       </c>
       <c r="U12" s="3">
         <v>500</v>
       </c>
       <c r="V12" s="3">
+        <v>500</v>
+      </c>
+      <c r="W12" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1088,8 +1105,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1150,8 +1170,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1212,8 +1235,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,8 +1259,9 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
@@ -1242,13 +1269,13 @@
         <v>900</v>
       </c>
       <c r="E17" s="3">
+        <v>900</v>
+      </c>
+      <c r="F17" s="3">
         <v>1000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1700</v>
-      </c>
-      <c r="G17" s="3">
-        <v>1100</v>
       </c>
       <c r="H17" s="3">
         <v>1100</v>
@@ -1257,16 +1284,16 @@
         <v>1100</v>
       </c>
       <c r="J17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K17" s="3">
         <v>1700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1800</v>
-      </c>
-      <c r="M17" s="3">
-        <v>1400</v>
       </c>
       <c r="N17" s="3">
         <v>1400</v>
@@ -1275,19 +1302,19 @@
         <v>1400</v>
       </c>
       <c r="P17" s="3">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="Q17" s="3">
         <v>1200</v>
       </c>
       <c r="R17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="S17" s="3">
         <v>1600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1400</v>
-      </c>
-      <c r="T17" s="3">
-        <v>1300</v>
       </c>
       <c r="U17" s="3">
         <v>1300</v>
@@ -1295,70 +1322,76 @@
       <c r="V17" s="3">
         <v>1300</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-500</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-400</v>
       </c>
       <c r="I18" s="3">
         <v>-400</v>
       </c>
       <c r="J18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K18" s="3">
         <v>1000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>100</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-300</v>
       </c>
       <c r="N18" s="3">
         <v>-300</v>
       </c>
       <c r="O18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P18" s="3">
         <v>-500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1381,8 +1414,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1390,11 +1424,11 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>400</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1443,70 +1477,76 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>-300</v>
+        <v>-500</v>
       </c>
       <c r="E21" s="3">
         <v>-300</v>
       </c>
       <c r="F21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G21" s="3">
         <v>400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>200</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-200</v>
       </c>
       <c r="N21" s="3">
         <v>-200</v>
       </c>
       <c r="O21" s="3">
-        <v>-400</v>
+        <v>-200</v>
       </c>
       <c r="P21" s="3">
         <v>-400</v>
       </c>
       <c r="Q21" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="R21" s="3">
+        <v>0</v>
+      </c>
+      <c r="S21" s="3">
         <v>-500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1516,8 +1556,8 @@
       <c r="E22" s="3">
         <v>0</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>19</v>
+      <c r="F22" s="3">
+        <v>0</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>19</v>
@@ -1534,8 +1574,8 @@
       <c r="K22" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="L22" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1567,70 +1607,76 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>-300</v>
+        <v>-500</v>
       </c>
       <c r="E23" s="3">
         <v>-300</v>
       </c>
       <c r="F23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G23" s="3">
         <v>400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-300</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-400</v>
       </c>
       <c r="P23" s="3">
         <v>-400</v>
       </c>
       <c r="Q23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R23" s="3">
         <v>-100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1673,26 +1719,29 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-      <c r="Q24" s="3" t="s">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
       <c r="S24" s="3">
         <v>0</v>
       </c>
-      <c r="T24" s="3" t="s">
-        <v>19</v>
+      <c r="T24" s="3">
+        <v>0</v>
       </c>
       <c r="U24" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="V24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,132 +1802,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-300</v>
+        <v>-500</v>
       </c>
       <c r="E26" s="3">
         <v>-300</v>
       </c>
       <c r="F26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G26" s="3">
         <v>400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-300</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-400</v>
       </c>
       <c r="P26" s="3">
         <v>-400</v>
       </c>
       <c r="Q26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R26" s="3">
         <v>-100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-300</v>
+        <v>-500</v>
       </c>
       <c r="E27" s="3">
         <v>-300</v>
       </c>
       <c r="F27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G27" s="3">
         <v>400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-300</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-400</v>
       </c>
       <c r="P27" s="3">
         <v>-400</v>
       </c>
       <c r="Q27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R27" s="3">
         <v>-100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,8 +1997,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2001,8 +2062,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2127,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,8 +2192,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2134,11 +2204,11 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-400</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -2187,70 +2257,76 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-300</v>
+        <v>-500</v>
       </c>
       <c r="E33" s="3">
         <v>-300</v>
       </c>
       <c r="F33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G33" s="3">
         <v>400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-300</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-400</v>
       </c>
       <c r="P33" s="3">
         <v>-400</v>
       </c>
       <c r="Q33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R33" s="3">
         <v>-100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,137 +2387,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-300</v>
+        <v>-500</v>
       </c>
       <c r="E35" s="3">
         <v>-300</v>
       </c>
       <c r="F35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G35" s="3">
         <v>400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-300</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-400</v>
       </c>
       <c r="P35" s="3">
         <v>-400</v>
       </c>
       <c r="Q35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R35" s="3">
         <v>-100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44374</v>
+      </c>
+      <c r="E38" s="2">
         <v>44282</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44191</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44009</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43918</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43827</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43736</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43645</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43554</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43463</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43372</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43099</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42917</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42826</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2549,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,70 +2574,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>200</v>
+      </c>
+      <c r="E41" s="3">
         <v>600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2592,28 +2682,31 @@
         <v>0</v>
       </c>
       <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
         <v>100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>200</v>
-      </c>
-      <c r="R42" s="3">
-        <v>400</v>
       </c>
       <c r="S42" s="3">
         <v>400</v>
       </c>
       <c r="T42" s="3">
+        <v>400</v>
+      </c>
+      <c r="U42" s="3">
         <v>600</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>500</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2621,78 +2714,81 @@
         <v>200</v>
       </c>
       <c r="E43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F43" s="3">
         <v>100</v>
       </c>
       <c r="G43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
         <v>200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>100</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
       <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
         <v>300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>200</v>
-      </c>
-      <c r="N43" s="3">
-        <v>600</v>
       </c>
       <c r="O43" s="3">
         <v>600</v>
       </c>
       <c r="P43" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="Q43" s="3">
         <v>300</v>
       </c>
       <c r="R43" s="3">
+        <v>300</v>
+      </c>
+      <c r="S43" s="3">
         <v>700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E44" s="3">
         <v>1100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1100</v>
-      </c>
-      <c r="H44" s="3">
-        <v>1000</v>
       </c>
       <c r="I44" s="3">
         <v>1000</v>
@@ -2701,31 +2797,31 @@
         <v>1000</v>
       </c>
       <c r="K44" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L44" s="3">
         <v>1100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1000</v>
-      </c>
-      <c r="M44" s="3">
-        <v>1400</v>
       </c>
       <c r="N44" s="3">
         <v>1400</v>
       </c>
       <c r="O44" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="P44" s="3">
         <v>1500</v>
       </c>
       <c r="Q44" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="R44" s="3">
         <v>1400</v>
       </c>
       <c r="S44" s="3">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="T44" s="3">
         <v>1800</v>
@@ -2734,10 +2830,13 @@
         <v>1800</v>
       </c>
       <c r="V44" s="3">
+        <v>1800</v>
+      </c>
+      <c r="W44" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2745,13 +2844,13 @@
         <v>200</v>
       </c>
       <c r="E45" s="3">
+        <v>200</v>
+      </c>
+      <c r="F45" s="3">
         <v>100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>200</v>
-      </c>
-      <c r="G45" s="3">
-        <v>100</v>
       </c>
       <c r="H45" s="3">
         <v>100</v>
@@ -2775,19 +2874,19 @@
         <v>100</v>
       </c>
       <c r="O45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P45" s="3">
         <v>200</v>
       </c>
       <c r="Q45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R45" s="3">
         <v>100</v>
       </c>
       <c r="S45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T45" s="3">
         <v>200</v>
@@ -2798,70 +2897,76 @@
       <c r="V45" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E46" s="3">
         <v>2000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>4700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>4400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2904,12 +3009,12 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-      <c r="Q47" s="3" t="s">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="R47" s="3">
-        <v>0</v>
-      </c>
       <c r="S47" s="3">
         <v>0</v>
       </c>
@@ -2917,13 +3022,16 @@
         <v>0</v>
       </c>
       <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
         <v>200</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2934,19 +3042,19 @@
         <v>500</v>
       </c>
       <c r="F48" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G48" s="3">
         <v>600</v>
       </c>
       <c r="H48" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="I48" s="3">
         <v>700</v>
       </c>
       <c r="J48" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
@@ -2961,16 +3069,16 @@
         <v>0</v>
       </c>
       <c r="O48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P48" s="3">
         <v>100</v>
       </c>
       <c r="Q48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S48" s="3">
         <v>100</v>
@@ -2982,10 +3090,13 @@
         <v>100</v>
       </c>
       <c r="V48" s="3">
+        <v>100</v>
+      </c>
+      <c r="W48" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3046,8 +3157,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3222,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,8 +3287,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3232,8 +3352,11 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,70 +3417,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E54" s="3">
         <v>2500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>4800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>4700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3509,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,37 +3534,38 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E57" s="3">
         <v>200</v>
       </c>
       <c r="F57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G57" s="3">
         <v>100</v>
       </c>
       <c r="H57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I57" s="3">
+        <v>0</v>
+      </c>
+      <c r="J57" s="3">
         <v>100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>300</v>
-      </c>
-      <c r="L57" s="3">
-        <v>200</v>
       </c>
       <c r="M57" s="3">
         <v>200</v>
@@ -3443,7 +3574,7 @@
         <v>200</v>
       </c>
       <c r="O57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P57" s="3">
         <v>100</v>
@@ -3461,24 +3592,27 @@
         <v>100</v>
       </c>
       <c r="U57" s="3">
+        <v>100</v>
+      </c>
+      <c r="V57" s="3">
         <v>200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="D58" s="3">
+        <v>500</v>
+      </c>
+      <c r="E58" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>19</v>
+      <c r="F58" s="3">
+        <v>0</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>19</v>
@@ -3495,8 +3629,8 @@
       <c r="K58" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="L58" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
@@ -3528,8 +3662,11 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3537,46 +3674,46 @@
         <v>1100</v>
       </c>
       <c r="E59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F59" s="3">
         <v>700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>200</v>
-      </c>
-      <c r="R59" s="3">
-        <v>300</v>
       </c>
       <c r="S59" s="3">
         <v>300</v>
@@ -3588,57 +3725,60 @@
         <v>300</v>
       </c>
       <c r="V59" s="3">
+        <v>300</v>
+      </c>
+      <c r="W59" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E60" s="3">
         <v>1300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>300</v>
-      </c>
-      <c r="R60" s="3">
-        <v>400</v>
       </c>
       <c r="S60" s="3">
         <v>400</v>
@@ -3647,13 +3787,16 @@
         <v>400</v>
       </c>
       <c r="U60" s="3">
+        <v>400</v>
+      </c>
+      <c r="V60" s="3">
         <v>500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3661,14 +3804,14 @@
         <v>200</v>
       </c>
       <c r="E61" s="3">
+        <v>200</v>
+      </c>
+      <c r="F61" s="3">
         <v>100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>200</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -3714,8 +3857,11 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3723,7 +3869,7 @@
         <v>300</v>
       </c>
       <c r="E62" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F62" s="3">
         <v>400</v>
@@ -3732,13 +3878,13 @@
         <v>400</v>
       </c>
       <c r="H62" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="I62" s="3">
         <v>500</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>19</v>
+      <c r="J62" s="3">
+        <v>500</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>19</v>
@@ -3755,8 +3901,8 @@
       <c r="O62" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="P62" s="3">
-        <v>0</v>
+      <c r="P62" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="Q62" s="3">
         <v>0</v>
@@ -3776,8 +3922,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +3987,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4052,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,55 +4117,58 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E66" s="3">
         <v>1800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>300</v>
-      </c>
-      <c r="R66" s="3">
-        <v>400</v>
       </c>
       <c r="S66" s="3">
         <v>400</v>
@@ -4019,13 +4177,16 @@
         <v>400</v>
       </c>
       <c r="U66" s="3">
+        <v>400</v>
+      </c>
+      <c r="V66" s="3">
         <v>500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4209,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4272,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4337,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4234,8 +4402,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,70 +4467,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-3700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-3400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-3100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-3500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-3000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-2600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-2200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-3200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-2900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-3000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-2800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-2500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-300</v>
       </c>
-      <c r="T72" s="3">
-        <v>0</v>
-      </c>
       <c r="U72" s="3">
+        <v>0</v>
+      </c>
+      <c r="V72" s="3">
         <v>-100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4597,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4662,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,70 +4727,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>200</v>
+      </c>
+      <c r="E76" s="3">
         <v>700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2200</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>3500</v>
       </c>
       <c r="R76" s="3">
         <v>3500</v>
       </c>
       <c r="S76" s="3">
+        <v>3500</v>
+      </c>
+      <c r="T76" s="3">
         <v>4000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>4400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>4200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,137 +4857,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44374</v>
+      </c>
+      <c r="E80" s="2">
         <v>44282</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44191</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44009</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43918</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43827</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43736</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43645</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43554</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43463</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43372</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43099</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42917</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42826</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-300</v>
+        <v>-500</v>
       </c>
       <c r="E81" s="3">
         <v>-300</v>
       </c>
       <c r="F81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G81" s="3">
         <v>400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-300</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-400</v>
       </c>
       <c r="P81" s="3">
         <v>-400</v>
       </c>
       <c r="Q81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R81" s="3">
         <v>-100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,8 +5019,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4883,8 +5082,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5147,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5212,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5277,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5342,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,70 +5407,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>400</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-100</v>
       </c>
       <c r="H89" s="3">
         <v>-100</v>
       </c>
       <c r="I89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J89" s="3">
         <v>-800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1000</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
       <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>-200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-1200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,8 +5499,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5302,11 +5523,11 @@
       <c r="I91" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3" t="s">
+      <c r="J91" s="3" t="s">
         <v>19</v>
+      </c>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>19</v>
@@ -5314,20 +5535,20 @@
       <c r="M91" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>19</v>
+      <c r="P91" s="3">
+        <v>0</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="R91" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
@@ -5341,8 +5562,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5627,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,8 +5692,11 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5476,11 +5706,11 @@
       <c r="E94" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3" t="s">
+      <c r="F94" s="3" t="s">
         <v>19</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>19</v>
@@ -5488,8 +5718,8 @@
       <c r="I94" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
+      <c r="J94" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -5504,31 +5734,34 @@
         <v>0</v>
       </c>
       <c r="O94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P94" s="3">
         <v>100</v>
       </c>
       <c r="Q94" s="3">
+        <v>100</v>
+      </c>
+      <c r="R94" s="3">
         <v>200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>100</v>
-      </c>
-      <c r="S94" s="3">
-        <v>200</v>
       </c>
       <c r="T94" s="3">
         <v>200</v>
       </c>
       <c r="U94" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,8 +5784,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5613,8 +5847,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +5912,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +5977,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,22 +6042,25 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>19</v>
+      <c r="D100" s="3">
+        <v>500</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F100" s="3">
+      <c r="F100" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G100" s="3">
         <v>200</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>19</v>
@@ -5828,8 +6074,8 @@
       <c r="K100" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
+      <c r="L100" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="M100" s="3">
         <v>0</v>
@@ -5861,8 +6107,11 @@
       <c r="V100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5923,66 +6172,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1000</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>500</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TCCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TCCO_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,101 +665,108 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44555</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44464</v>
+      </c>
+      <c r="F7" s="2">
         <v>44374</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44282</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44191</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44009</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43918</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43827</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43736</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43645</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43554</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43463</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43372</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43099</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42917</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42826</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -767,194 +774,212 @@
         <v>400</v>
       </c>
       <c r="E8" s="3">
+        <v>700</v>
+      </c>
+      <c r="F8" s="3">
+        <v>400</v>
+      </c>
+      <c r="G8" s="3">
         <v>600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>2100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>2700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>1900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>1100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>1100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>800</v>
-      </c>
-      <c r="R8" s="3">
-        <v>1100</v>
-      </c>
-      <c r="S8" s="3">
-        <v>1100</v>
       </c>
       <c r="T8" s="3">
         <v>1100</v>
       </c>
       <c r="U8" s="3">
+        <v>1100</v>
+      </c>
+      <c r="V8" s="3">
+        <v>1100</v>
+      </c>
+      <c r="W8" s="3">
         <v>1400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>400</v>
+      </c>
+      <c r="E9" s="3">
+        <v>600</v>
+      </c>
+      <c r="F9" s="3">
         <v>300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>400</v>
       </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
+        <v>100</v>
+      </c>
+      <c r="I9" s="3">
         <v>700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>1000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>1100</v>
-      </c>
-      <c r="N9" s="3">
-        <v>700</v>
-      </c>
-      <c r="O9" s="3">
-        <v>900</v>
       </c>
       <c r="P9" s="3">
         <v>700</v>
       </c>
       <c r="Q9" s="3">
+        <v>900</v>
+      </c>
+      <c r="R9" s="3">
+        <v>700</v>
+      </c>
+      <c r="S9" s="3">
         <v>600</v>
-      </c>
-      <c r="R9" s="3">
-        <v>500</v>
-      </c>
-      <c r="S9" s="3">
-        <v>1000</v>
       </c>
       <c r="T9" s="3">
         <v>500</v>
       </c>
       <c r="U9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="V9" s="3">
+        <v>500</v>
+      </c>
+      <c r="W9" s="3">
         <v>200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E10" s="3">
+        <v>100</v>
+      </c>
+      <c r="F10" s="3">
+        <v>100</v>
+      </c>
+      <c r="G10" s="3">
         <v>200</v>
       </c>
-      <c r="F10" s="3">
-        <v>200</v>
-      </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
+        <v>100</v>
+      </c>
+      <c r="I10" s="3">
         <v>1400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>1700</v>
-      </c>
-      <c r="L10" s="3">
-        <v>400</v>
-      </c>
-      <c r="M10" s="3">
-        <v>800</v>
       </c>
       <c r="N10" s="3">
         <v>400</v>
       </c>
       <c r="O10" s="3">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="P10" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="Q10" s="3">
         <v>200</v>
       </c>
       <c r="R10" s="3">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="S10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T10" s="3">
         <v>600</v>
       </c>
       <c r="U10" s="3">
+        <v>100</v>
+      </c>
+      <c r="V10" s="3">
+        <v>600</v>
+      </c>
+      <c r="W10" s="3">
         <v>1200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -978,8 +1003,10 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -987,64 +1014,70 @@
         <v>100</v>
       </c>
       <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
+        <v>100</v>
+      </c>
+      <c r="G12" s="3">
         <v>200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>200</v>
       </c>
-      <c r="K12" s="3">
-        <v>100</v>
-      </c>
-      <c r="L12" s="3">
-        <v>0</v>
-      </c>
       <c r="M12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P12" s="3">
         <v>100</v>
       </c>
       <c r="Q12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S12" s="3">
         <v>200</v>
       </c>
       <c r="T12" s="3">
+        <v>200</v>
+      </c>
+      <c r="U12" s="3">
+        <v>200</v>
+      </c>
+      <c r="V12" s="3">
         <v>400</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>500</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>500</v>
       </c>
-      <c r="W12" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1108,8 +1141,14 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1117,22 +1156,22 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
+        <v>-500</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>-500</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1173,8 +1212,14 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1238,8 +1283,14 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1260,138 +1311,152 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>600</v>
+      </c>
+      <c r="F17" s="3">
         <v>900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1700</v>
-      </c>
-      <c r="H17" s="3">
-        <v>1100</v>
-      </c>
-      <c r="I17" s="3">
-        <v>1100</v>
       </c>
       <c r="J17" s="3">
         <v>1100</v>
       </c>
       <c r="K17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M17" s="3">
         <v>1700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1800</v>
-      </c>
-      <c r="N17" s="3">
-        <v>1400</v>
-      </c>
-      <c r="O17" s="3">
-        <v>1400</v>
       </c>
       <c r="P17" s="3">
         <v>1400</v>
       </c>
       <c r="Q17" s="3">
+        <v>1400</v>
+      </c>
+      <c r="R17" s="3">
+        <v>1400</v>
+      </c>
+      <c r="S17" s="3">
         <v>1200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>1200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>1600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>1400</v>
-      </c>
-      <c r="U17" s="3">
-        <v>1300</v>
-      </c>
-      <c r="V17" s="3">
-        <v>1300</v>
       </c>
       <c r="W17" s="3">
         <v>1300</v>
       </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E18" s="3">
+        <v>100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-400</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-400</v>
-      </c>
-      <c r="K18" s="3">
-        <v>1000</v>
       </c>
       <c r="L18" s="3">
         <v>-400</v>
       </c>
       <c r="M18" s="3">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="N18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O18" s="3">
+        <v>100</v>
+      </c>
+      <c r="P18" s="3">
         <v>-300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-300</v>
       </c>
-      <c r="U18" s="3">
-        <v>100</v>
-      </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
+        <v>100</v>
+      </c>
+      <c r="X18" s="3">
         <v>-700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1415,8 +1480,10 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1427,14 +1494,14 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>400</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1480,73 +1547,85 @@
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E21" s="3">
+        <v>100</v>
+      </c>
+      <c r="F21" s="3">
         <v>-500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>400</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-500</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-400</v>
       </c>
       <c r="J21" s="3">
         <v>-500</v>
       </c>
       <c r="K21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M21" s="3">
         <v>1000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-400</v>
       </c>
-      <c r="R21" s="3">
-        <v>0</v>
-      </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
+        <v>0</v>
+      </c>
+      <c r="U21" s="3">
         <v>-500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1559,14 +1638,14 @@
       <c r="F22" s="3">
         <v>0</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>19</v>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>19</v>
@@ -1577,11 +1656,11 @@
       <c r="L22" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1610,73 +1689,85 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>400</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-500</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-400</v>
       </c>
       <c r="J23" s="3">
         <v>-500</v>
       </c>
       <c r="K23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M23" s="3">
         <v>1000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-300</v>
       </c>
-      <c r="U23" s="3">
-        <v>100</v>
-      </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
+        <v>100</v>
+      </c>
+      <c r="X23" s="3">
         <v>-700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1722,26 +1813,32 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-      <c r="R24" s="3" t="s">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
-      <c r="T24" s="3">
-        <v>0</v>
-      </c>
-      <c r="U24" s="3" t="s">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="V24" s="3" t="s">
+      <c r="X24" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="W24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1805,138 +1902,156 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E26" s="3">
+        <v>100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>400</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-500</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-400</v>
       </c>
       <c r="J26" s="3">
         <v>-500</v>
       </c>
       <c r="K26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M26" s="3">
         <v>1000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-300</v>
       </c>
-      <c r="U26" s="3">
-        <v>100</v>
-      </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
+        <v>100</v>
+      </c>
+      <c r="X26" s="3">
         <v>-700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E27" s="3">
+        <v>100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>400</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-500</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-400</v>
       </c>
       <c r="J27" s="3">
         <v>-500</v>
       </c>
       <c r="K27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M27" s="3">
         <v>1000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-300</v>
       </c>
-      <c r="U27" s="3">
-        <v>100</v>
-      </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
+        <v>100</v>
+      </c>
+      <c r="X27" s="3">
         <v>-700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2000,8 +2115,14 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2065,8 +2186,14 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2130,8 +2257,14 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2195,8 +2328,14 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2207,14 +2346,14 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-400</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -2260,73 +2399,85 @@
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E33" s="3">
+        <v>100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>400</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-500</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-400</v>
       </c>
       <c r="J33" s="3">
         <v>-500</v>
       </c>
       <c r="K33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M33" s="3">
         <v>1000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-300</v>
       </c>
-      <c r="U33" s="3">
-        <v>100</v>
-      </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
+        <v>100</v>
+      </c>
+      <c r="X33" s="3">
         <v>-700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2390,143 +2541,161 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E35" s="3">
+        <v>100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>400</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-500</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-400</v>
       </c>
       <c r="J35" s="3">
         <v>-500</v>
       </c>
       <c r="K35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M35" s="3">
         <v>1000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-300</v>
       </c>
-      <c r="U35" s="3">
-        <v>100</v>
-      </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
+        <v>100</v>
+      </c>
+      <c r="X35" s="3">
         <v>-700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44555</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44464</v>
+      </c>
+      <c r="F38" s="2">
         <v>44374</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44282</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44191</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44009</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43918</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43827</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43736</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43645</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43554</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43463</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43372</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43099</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42917</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42826</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2550,8 +2719,10 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2575,73 +2746,81 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>300</v>
+      </c>
+      <c r="F41" s="3">
         <v>200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>1500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>1000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>1800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>1700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>2000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>1500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>1400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>1700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>1300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>1500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>1100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>1400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2685,169 +2864,187 @@
         <v>0</v>
       </c>
       <c r="Q42" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>100</v>
+      </c>
+      <c r="T42" s="3">
         <v>200</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>400</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>400</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>600</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>500</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>100</v>
+      </c>
+      <c r="E43" s="3">
+        <v>300</v>
+      </c>
+      <c r="F43" s="3">
         <v>200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>200</v>
       </c>
-      <c r="F43" s="3">
-        <v>100</v>
-      </c>
-      <c r="G43" s="3">
-        <v>100</v>
-      </c>
       <c r="H43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I43" s="3">
+        <v>100</v>
+      </c>
+      <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3">
         <v>200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>300</v>
       </c>
-      <c r="K43" s="3">
-        <v>100</v>
-      </c>
-      <c r="L43" s="3">
-        <v>0</v>
-      </c>
       <c r="M43" s="3">
+        <v>100</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
         <v>300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>500</v>
       </c>
-      <c r="W43" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F44" s="3">
         <v>1300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>1100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>1000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>1100</v>
-      </c>
-      <c r="I44" s="3">
-        <v>1000</v>
-      </c>
-      <c r="J44" s="3">
-        <v>1000</v>
       </c>
       <c r="K44" s="3">
         <v>1000</v>
       </c>
       <c r="L44" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="M44" s="3">
         <v>1000</v>
       </c>
       <c r="N44" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O44" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P44" s="3">
         <v>1400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>1400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>1500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>1500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>1400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>1400</v>
-      </c>
-      <c r="T44" s="3">
-        <v>1800</v>
-      </c>
-      <c r="U44" s="3">
-        <v>1800</v>
       </c>
       <c r="V44" s="3">
         <v>1800</v>
       </c>
       <c r="W44" s="3">
+        <v>1800</v>
+      </c>
+      <c r="X44" s="3">
+        <v>1800</v>
+      </c>
+      <c r="Y44" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
         <v>200</v>
       </c>
       <c r="F45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G45" s="3">
         <v>200</v>
@@ -2856,7 +3053,7 @@
         <v>100</v>
       </c>
       <c r="I45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J45" s="3">
         <v>100</v>
@@ -2877,22 +3074,22 @@
         <v>100</v>
       </c>
       <c r="P45" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>100</v>
+      </c>
+      <c r="R45" s="3">
         <v>200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>200</v>
       </c>
-      <c r="R45" s="3">
-        <v>100</v>
-      </c>
-      <c r="S45" s="3">
-        <v>100</v>
-      </c>
       <c r="T45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V45" s="3">
         <v>200</v>
@@ -2900,73 +3097,85 @@
       <c r="W45" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y45" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E46" s="3">
         <v>1900</v>
-      </c>
-      <c r="E46" s="3">
-        <v>2000</v>
       </c>
       <c r="F46" s="3">
         <v>1900</v>
       </c>
       <c r="G46" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H46" s="3">
+        <v>1900</v>
+      </c>
+      <c r="I46" s="3">
         <v>2700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>2300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>2000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>2100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>2900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>2000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>3200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>3400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>4100</v>
-      </c>
-      <c r="P46" s="3">
-        <v>3700</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>3500</v>
       </c>
       <c r="R46" s="3">
         <v>3700</v>
       </c>
       <c r="S46" s="3">
+        <v>3500</v>
+      </c>
+      <c r="T46" s="3">
+        <v>3700</v>
+      </c>
+      <c r="U46" s="3">
         <v>3900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>4300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>4700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>4400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3012,56 +3221,62 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-      <c r="R47" s="3" t="s">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+      <c r="T47" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="S47" s="3">
-        <v>0</v>
-      </c>
-      <c r="T47" s="3">
-        <v>0</v>
-      </c>
       <c r="U47" s="3">
         <v>0</v>
       </c>
       <c r="V47" s="3">
+        <v>0</v>
+      </c>
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+      <c r="X47" s="3">
         <v>200</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F48" s="3">
         <v>500</v>
       </c>
       <c r="G48" s="3">
+        <v>500</v>
+      </c>
+      <c r="H48" s="3">
+        <v>500</v>
+      </c>
+      <c r="I48" s="3">
         <v>600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>700</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
-      </c>
-      <c r="L48" s="3">
-        <v>0</v>
-      </c>
       <c r="M48" s="3">
         <v>0</v>
       </c>
@@ -3072,19 +3287,19 @@
         <v>0</v>
       </c>
       <c r="P48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S48" s="3">
         <v>100</v>
       </c>
       <c r="T48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U48" s="3">
         <v>100</v>
@@ -3093,10 +3308,16 @@
         <v>100</v>
       </c>
       <c r="W48" s="3">
+        <v>100</v>
+      </c>
+      <c r="X48" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y48" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3160,8 +3381,14 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3225,8 +3452,14 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3290,8 +3523,14 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3355,8 +3594,14 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3420,73 +3665,85 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E54" s="3">
         <v>2300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
+        <v>2300</v>
+      </c>
+      <c r="G54" s="3">
         <v>2500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>2400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>3300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>2900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>2600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>2800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>2900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>2100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>3300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>3500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>4100</v>
-      </c>
-      <c r="P54" s="3">
-        <v>3800</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>3500</v>
       </c>
       <c r="R54" s="3">
         <v>3800</v>
       </c>
       <c r="S54" s="3">
+        <v>3500</v>
+      </c>
+      <c r="T54" s="3">
+        <v>3800</v>
+      </c>
+      <c r="U54" s="3">
         <v>3900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>4400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>4800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>4700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3510,8 +3767,10 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3535,52 +3794,54 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E57" s="3">
+        <v>100</v>
+      </c>
+      <c r="F57" s="3">
+        <v>100</v>
+      </c>
+      <c r="G57" s="3">
         <v>200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>200</v>
       </c>
-      <c r="G57" s="3">
-        <v>100</v>
-      </c>
-      <c r="H57" s="3">
-        <v>100</v>
-      </c>
       <c r="I57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J57" s="3">
         <v>100</v>
       </c>
       <c r="K57" s="3">
+        <v>0</v>
+      </c>
+      <c r="L57" s="3">
+        <v>100</v>
+      </c>
+      <c r="M57" s="3">
         <v>400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>300</v>
-      </c>
-      <c r="M57" s="3">
-        <v>200</v>
-      </c>
-      <c r="N57" s="3">
-        <v>200</v>
       </c>
       <c r="O57" s="3">
         <v>200</v>
       </c>
       <c r="P57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R57" s="3">
         <v>100</v>
@@ -3595,30 +3856,36 @@
         <v>100</v>
       </c>
       <c r="V57" s="3">
+        <v>100</v>
+      </c>
+      <c r="W57" s="3">
+        <v>100</v>
+      </c>
+      <c r="X57" s="3">
         <v>200</v>
       </c>
-      <c r="W57" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E58" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F58" s="3">
         <v>500</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>19</v>
+      <c r="H58" s="3">
+        <v>0</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>19</v>
@@ -3632,11 +3899,11 @@
       <c r="L58" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
-      <c r="N58" s="3">
-        <v>0</v>
+      <c r="M58" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
@@ -3665,61 +3932,67 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>400</v>
+      </c>
+      <c r="E59" s="3">
+        <v>700</v>
+      </c>
+      <c r="F59" s="3">
         <v>1100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>1100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>1400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>1500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>2000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>2400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>1900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>1200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>200</v>
-      </c>
-      <c r="S59" s="3">
-        <v>300</v>
-      </c>
-      <c r="T59" s="3">
-        <v>300</v>
       </c>
       <c r="U59" s="3">
         <v>300</v>
@@ -3728,95 +4001,107 @@
         <v>300</v>
       </c>
       <c r="W59" s="3">
+        <v>300</v>
+      </c>
+      <c r="X59" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y59" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E60" s="3">
         <v>1600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G60" s="3">
         <v>1300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1500</v>
-      </c>
-      <c r="I60" s="3">
-        <v>700</v>
-      </c>
-      <c r="J60" s="3">
-        <v>600</v>
       </c>
       <c r="K60" s="3">
         <v>700</v>
       </c>
       <c r="L60" s="3">
+        <v>600</v>
+      </c>
+      <c r="M60" s="3">
+        <v>700</v>
+      </c>
+      <c r="N60" s="3">
         <v>900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>2200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>2600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>2000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>1300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>300</v>
-      </c>
-      <c r="S60" s="3">
-        <v>400</v>
-      </c>
-      <c r="T60" s="3">
-        <v>400</v>
       </c>
       <c r="U60" s="3">
         <v>400</v>
       </c>
       <c r="V60" s="3">
+        <v>400</v>
+      </c>
+      <c r="W60" s="3">
+        <v>400</v>
+      </c>
+      <c r="X60" s="3">
         <v>500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E61" s="3">
         <v>200</v>
       </c>
       <c r="F61" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G61" s="3">
         <v>200</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -3860,37 +4145,43 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>200</v>
+      </c>
+      <c r="E62" s="3">
+        <v>200</v>
+      </c>
+      <c r="F62" s="3">
         <v>300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>300</v>
-      </c>
-      <c r="F62" s="3">
-        <v>400</v>
-      </c>
-      <c r="G62" s="3">
-        <v>400</v>
       </c>
       <c r="H62" s="3">
         <v>400</v>
       </c>
       <c r="I62" s="3">
+        <v>400</v>
+      </c>
+      <c r="J62" s="3">
+        <v>400</v>
+      </c>
+      <c r="K62" s="3">
         <v>500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>500</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>19</v>
@@ -3904,11 +4195,11 @@
       <c r="P62" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
-      </c>
-      <c r="R62" s="3">
-        <v>0</v>
+      <c r="Q62" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="S62" s="3">
         <v>0</v>
@@ -3925,8 +4216,14 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3990,8 +4287,14 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4055,8 +4358,14 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4120,8 +4429,14 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4129,64 +4444,70 @@
         <v>2100</v>
       </c>
       <c r="E66" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F66" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G66" s="3">
         <v>1800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>2000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>2200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>2600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>2000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>300</v>
-      </c>
-      <c r="S66" s="3">
-        <v>400</v>
-      </c>
-      <c r="T66" s="3">
-        <v>400</v>
       </c>
       <c r="U66" s="3">
         <v>400</v>
       </c>
       <c r="V66" s="3">
+        <v>400</v>
+      </c>
+      <c r="W66" s="3">
+        <v>400</v>
+      </c>
+      <c r="X66" s="3">
         <v>500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4210,8 +4531,10 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4275,8 +4598,14 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4340,8 +4669,14 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4405,8 +4740,14 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4470,73 +4811,85 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-4200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="G72" s="3">
         <v>-3700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-3400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-3100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-3500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-3000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-2600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-2200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-3200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-2900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-3000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-2800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-2100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-300</v>
       </c>
-      <c r="U72" s="3">
-        <v>0</v>
-      </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
+        <v>0</v>
+      </c>
+      <c r="X72" s="3">
         <v>-100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4600,8 +4953,14 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4665,8 +5024,14 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4730,73 +5095,85 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>300</v>
+      </c>
+      <c r="F76" s="3">
         <v>200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>1000</v>
-      </c>
-      <c r="G76" s="3">
-        <v>1400</v>
-      </c>
-      <c r="H76" s="3">
-        <v>900</v>
       </c>
       <c r="I76" s="3">
         <v>1400</v>
       </c>
       <c r="J76" s="3">
+        <v>900</v>
+      </c>
+      <c r="K76" s="3">
+        <v>1400</v>
+      </c>
+      <c r="L76" s="3">
         <v>1800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>2200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>1200</v>
-      </c>
-      <c r="M76" s="3">
-        <v>1500</v>
-      </c>
-      <c r="N76" s="3">
-        <v>1300</v>
       </c>
       <c r="O76" s="3">
         <v>1500</v>
       </c>
       <c r="P76" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Q76" s="3">
+        <v>1500</v>
+      </c>
+      <c r="R76" s="3">
         <v>1800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>2200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>3500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>3500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>4000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>4400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>4200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4860,143 +5237,161 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44555</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44464</v>
+      </c>
+      <c r="F80" s="2">
         <v>44374</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44282</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44191</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44009</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43918</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43827</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43736</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43645</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43554</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43463</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43372</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43099</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42917</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42826</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E81" s="3">
+        <v>100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>400</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-500</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-400</v>
       </c>
       <c r="J81" s="3">
         <v>-500</v>
       </c>
       <c r="K81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M81" s="3">
         <v>1000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-300</v>
       </c>
-      <c r="U81" s="3">
-        <v>100</v>
-      </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
+        <v>100</v>
+      </c>
+      <c r="X81" s="3">
         <v>-700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5020,8 +5415,10 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5085,8 +5482,14 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5150,8 +5553,14 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5215,8 +5624,14 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5280,8 +5695,14 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5345,8 +5766,14 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5410,55 +5837,61 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-800</v>
+        <v>-400</v>
       </c>
       <c r="E89" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="F89" s="3">
         <v>-800</v>
       </c>
       <c r="G89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="I89" s="3">
         <v>400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-1000</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
         <v>-200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-100</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>-300</v>
-      </c>
-      <c r="R89" s="3">
-        <v>200</v>
       </c>
       <c r="S89" s="3">
         <v>-300</v>
@@ -5467,16 +5900,22 @@
         <v>200</v>
       </c>
       <c r="U89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V89" s="3">
+        <v>200</v>
+      </c>
+      <c r="W89" s="3">
         <v>-500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-1200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5500,61 +5939,63 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K91" s="3">
-        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>19</v>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q91" s="3" t="s">
+      <c r="O91" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="R91" s="3" t="s">
+      <c r="P91" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
-      <c r="T91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T91" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="U91" s="3">
         <v>0</v>
@@ -5565,8 +6006,14 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5630,8 +6077,14 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5695,8 +6148,14 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5709,23 +6168,23 @@
       <c r="F94" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
+      <c r="G94" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>19</v>
+      <c r="I94" s="3">
+        <v>0</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
@@ -5737,13 +6196,13 @@
         <v>0</v>
       </c>
       <c r="P94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R94" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S94" s="3">
         <v>100</v>
@@ -5752,16 +6211,22 @@
         <v>200</v>
       </c>
       <c r="U94" s="3">
+        <v>100</v>
+      </c>
+      <c r="V94" s="3">
         <v>200</v>
       </c>
-      <c r="V94" s="3">
-        <v>0</v>
-      </c>
       <c r="W94" s="3">
+        <v>200</v>
+      </c>
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5785,8 +6250,10 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5850,8 +6317,14 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5915,8 +6388,14 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5980,8 +6459,14 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6045,28 +6530,34 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>200</v>
+      </c>
+      <c r="E100" s="3">
+        <v>600</v>
+      </c>
+      <c r="F100" s="3">
         <v>500</v>
       </c>
-      <c r="E100" s="3" t="s">
+      <c r="G100" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G100" s="3">
-        <v>200</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>19</v>
+      <c r="I100" s="3">
+        <v>200</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>19</v>
@@ -6077,11 +6568,11 @@
       <c r="L100" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3">
-        <v>0</v>
+      <c r="M100" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="O100" s="3">
         <v>0</v>
@@ -6110,8 +6601,14 @@
       <c r="W100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6175,55 +6672,61 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E102" s="3">
+        <v>100</v>
+      </c>
+      <c r="F102" s="3">
         <v>-300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-1000</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>500</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q102" s="3">
-        <v>-200</v>
-      </c>
       <c r="R102" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="S102" s="3">
         <v>-200</v>
@@ -6232,12 +6735,18 @@
         <v>400</v>
       </c>
       <c r="U102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V102" s="3">
+        <v>400</v>
+      </c>
+      <c r="W102" s="3">
         <v>-300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-1200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TCCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TCCO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
   <si>
     <t>TCCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,161 +665,165 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44646</v>
+      </c>
+      <c r="E7" s="2">
         <v>44555</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44464</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44374</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44282</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44191</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44100</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44009</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43918</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43827</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43736</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43645</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43554</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43463</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43372</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43099</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42917</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42826</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>600</v>
+      </c>
+      <c r="E8" s="3">
         <v>400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>600</v>
-      </c>
-      <c r="K8" s="3">
-        <v>700</v>
       </c>
       <c r="L8" s="3">
         <v>700</v>
       </c>
       <c r="M8" s="3">
+        <v>700</v>
+      </c>
+      <c r="N8" s="3">
         <v>2700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1900</v>
-      </c>
-      <c r="P8" s="3">
-        <v>1100</v>
       </c>
       <c r="Q8" s="3">
         <v>1100</v>
       </c>
       <c r="R8" s="3">
+        <v>1100</v>
+      </c>
+      <c r="S8" s="3">
         <v>900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>800</v>
-      </c>
-      <c r="T8" s="3">
-        <v>1100</v>
       </c>
       <c r="U8" s="3">
         <v>1100</v>
@@ -828,131 +832,137 @@
         <v>1100</v>
       </c>
       <c r="W8" s="3">
+        <v>1100</v>
+      </c>
+      <c r="X8" s="3">
         <v>1400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>500</v>
+      </c>
+      <c r="E9" s="3">
         <v>400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>400</v>
       </c>
-      <c r="H9" s="3">
-        <v>100</v>
-      </c>
       <c r="I9" s="3">
+        <v>100</v>
+      </c>
+      <c r="J9" s="3">
         <v>700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>200</v>
-      </c>
-      <c r="K9" s="3">
-        <v>400</v>
       </c>
       <c r="L9" s="3">
         <v>400</v>
       </c>
       <c r="M9" s="3">
+        <v>400</v>
+      </c>
+      <c r="N9" s="3">
         <v>1000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>500</v>
-      </c>
-      <c r="W9" s="3">
-        <v>200</v>
       </c>
       <c r="X9" s="3">
         <v>200</v>
       </c>
       <c r="Y9" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z9" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F10" s="3">
         <v>100</v>
       </c>
       <c r="G10" s="3">
+        <v>100</v>
+      </c>
+      <c r="H10" s="3">
         <v>200</v>
       </c>
-      <c r="H10" s="3">
-        <v>100</v>
-      </c>
       <c r="I10" s="3">
+        <v>100</v>
+      </c>
+      <c r="J10" s="3">
         <v>1400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>400</v>
-      </c>
-      <c r="K10" s="3">
-        <v>300</v>
       </c>
       <c r="L10" s="3">
         <v>300</v>
       </c>
       <c r="M10" s="3">
+        <v>300</v>
+      </c>
+      <c r="N10" s="3">
         <v>1700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>400</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>200</v>
       </c>
       <c r="R10" s="3">
         <v>200</v>
@@ -961,25 +971,28 @@
         <v>200</v>
       </c>
       <c r="T10" s="3">
+        <v>200</v>
+      </c>
+      <c r="U10" s="3">
         <v>600</v>
       </c>
-      <c r="U10" s="3">
-        <v>100</v>
-      </c>
       <c r="V10" s="3">
+        <v>100</v>
+      </c>
+      <c r="W10" s="3">
         <v>600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>400</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1005,8 +1018,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1014,40 +1028,40 @@
         <v>100</v>
       </c>
       <c r="E12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G12" s="3">
+        <v>100</v>
+      </c>
+      <c r="H12" s="3">
         <v>200</v>
-      </c>
-      <c r="H12" s="3">
-        <v>400</v>
       </c>
       <c r="I12" s="3">
         <v>400</v>
       </c>
       <c r="J12" s="3">
+        <v>400</v>
+      </c>
+      <c r="K12" s="3">
         <v>300</v>
-      </c>
-      <c r="K12" s="3">
-        <v>200</v>
       </c>
       <c r="L12" s="3">
         <v>200</v>
       </c>
       <c r="M12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O12" s="3">
         <v>0</v>
       </c>
       <c r="P12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="3">
         <v>100</v>
@@ -1056,7 +1070,7 @@
         <v>100</v>
       </c>
       <c r="S12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T12" s="3">
         <v>200</v>
@@ -1065,19 +1079,22 @@
         <v>200</v>
       </c>
       <c r="V12" s="3">
+        <v>200</v>
+      </c>
+      <c r="W12" s="3">
         <v>400</v>
-      </c>
-      <c r="W12" s="3">
-        <v>500</v>
       </c>
       <c r="X12" s="3">
         <v>500</v>
       </c>
       <c r="Y12" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+        <v>500</v>
+      </c>
+      <c r="Z12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1147,34 +1164,37 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>-500</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" s="3">
         <v>-500</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1218,8 +1238,11 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1289,8 +1312,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,31 +1339,32 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="3">
         <v>1000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>600</v>
-      </c>
-      <c r="F17" s="3">
-        <v>900</v>
       </c>
       <c r="G17" s="3">
         <v>900</v>
       </c>
       <c r="H17" s="3">
+        <v>900</v>
+      </c>
+      <c r="I17" s="3">
         <v>1000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1700</v>
-      </c>
-      <c r="J17" s="3">
-        <v>1100</v>
       </c>
       <c r="K17" s="3">
         <v>1100</v>
@@ -1346,16 +1373,16 @@
         <v>1100</v>
       </c>
       <c r="M17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N17" s="3">
         <v>1700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1800</v>
-      </c>
-      <c r="P17" s="3">
-        <v>1400</v>
       </c>
       <c r="Q17" s="3">
         <v>1400</v>
@@ -1364,19 +1391,19 @@
         <v>1400</v>
       </c>
       <c r="S17" s="3">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="T17" s="3">
         <v>1200</v>
       </c>
       <c r="U17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="V17" s="3">
         <v>1600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1400</v>
-      </c>
-      <c r="W17" s="3">
-        <v>1300</v>
       </c>
       <c r="X17" s="3">
         <v>1300</v>
@@ -1384,79 +1411,85 @@
       <c r="Y17" s="3">
         <v>1300</v>
       </c>
-    </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z17" s="3">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="3">
         <v>-600</v>
       </c>
-      <c r="E18" s="3">
-        <v>100</v>
-      </c>
       <c r="F18" s="3">
+        <v>100</v>
+      </c>
+      <c r="G18" s="3">
         <v>-500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-500</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-400</v>
       </c>
       <c r="L18" s="3">
         <v>-400</v>
       </c>
       <c r="M18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N18" s="3">
         <v>1000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-400</v>
       </c>
-      <c r="O18" s="3">
-        <v>100</v>
-      </c>
       <c r="P18" s="3">
-        <v>-300</v>
+        <v>100</v>
       </c>
       <c r="Q18" s="3">
         <v>-300</v>
       </c>
       <c r="R18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S18" s="3">
         <v>-500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-300</v>
       </c>
-      <c r="W18" s="3">
-        <v>100</v>
-      </c>
       <c r="X18" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y18" s="3">
         <v>-700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1482,13 +1515,14 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1500,11 +1534,11 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>400</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -1553,79 +1587,85 @@
       <c r="Y20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="3">
         <v>-600</v>
       </c>
-      <c r="E21" s="3">
-        <v>100</v>
-      </c>
       <c r="F21" s="3">
+        <v>100</v>
+      </c>
+      <c r="G21" s="3">
         <v>-500</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-300</v>
       </c>
       <c r="H21" s="3">
         <v>-300</v>
       </c>
       <c r="I21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J21" s="3">
         <v>400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>200</v>
-      </c>
-      <c r="P21" s="3">
-        <v>-200</v>
       </c>
       <c r="Q21" s="3">
         <v>-200</v>
       </c>
       <c r="R21" s="3">
-        <v>-400</v>
+        <v>-200</v>
       </c>
       <c r="S21" s="3">
         <v>-400</v>
       </c>
       <c r="T21" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="U21" s="3">
+        <v>0</v>
+      </c>
+      <c r="V21" s="3">
         <v>-500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-700</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1647,8 +1687,8 @@
       <c r="I22" s="3">
         <v>0</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>19</v>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>19</v>
@@ -1662,8 +1702,8 @@
       <c r="N22" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="O22" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -1695,79 +1735,85 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="3">
         <v>-600</v>
       </c>
-      <c r="E23" s="3">
-        <v>100</v>
-      </c>
       <c r="F23" s="3">
+        <v>100</v>
+      </c>
+      <c r="G23" s="3">
         <v>-500</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-300</v>
       </c>
       <c r="H23" s="3">
         <v>-300</v>
       </c>
       <c r="I23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J23" s="3">
         <v>400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-300</v>
-      </c>
-      <c r="R23" s="3">
-        <v>-400</v>
       </c>
       <c r="S23" s="3">
         <v>-400</v>
       </c>
       <c r="T23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="U23" s="3">
         <v>-100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-300</v>
       </c>
-      <c r="W23" s="3">
-        <v>100</v>
-      </c>
       <c r="X23" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y23" s="3">
         <v>-700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1819,26 +1865,29 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-      <c r="T24" s="3" t="s">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U24" s="3">
-        <v>0</v>
-      </c>
       <c r="V24" s="3">
         <v>0</v>
       </c>
-      <c r="W24" s="3" t="s">
-        <v>19</v>
+      <c r="W24" s="3">
+        <v>0</v>
       </c>
       <c r="X24" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Y24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1908,150 +1957,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="3">
         <v>-600</v>
       </c>
-      <c r="E26" s="3">
-        <v>100</v>
-      </c>
       <c r="F26" s="3">
+        <v>100</v>
+      </c>
+      <c r="G26" s="3">
         <v>-500</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-300</v>
       </c>
       <c r="H26" s="3">
         <v>-300</v>
       </c>
       <c r="I26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J26" s="3">
         <v>400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-300</v>
-      </c>
-      <c r="R26" s="3">
-        <v>-400</v>
       </c>
       <c r="S26" s="3">
         <v>-400</v>
       </c>
       <c r="T26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="U26" s="3">
         <v>-100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-300</v>
       </c>
-      <c r="W26" s="3">
-        <v>100</v>
-      </c>
       <c r="X26" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y26" s="3">
         <v>-700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="3">
         <v>-600</v>
       </c>
-      <c r="E27" s="3">
-        <v>100</v>
-      </c>
       <c r="F27" s="3">
+        <v>100</v>
+      </c>
+      <c r="G27" s="3">
         <v>-500</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-300</v>
       </c>
       <c r="H27" s="3">
         <v>-300</v>
       </c>
       <c r="I27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J27" s="3">
         <v>400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-300</v>
-      </c>
-      <c r="R27" s="3">
-        <v>-400</v>
       </c>
       <c r="S27" s="3">
         <v>-400</v>
       </c>
       <c r="T27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="U27" s="3">
         <v>-100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-300</v>
       </c>
-      <c r="W27" s="3">
-        <v>100</v>
-      </c>
       <c r="X27" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y27" s="3">
         <v>-700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2121,8 +2179,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2192,8 +2253,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2327,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,13 +2401,16 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2352,11 +2422,11 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-400</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
@@ -2405,79 +2475,85 @@
       <c r="Y32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" s="3">
         <v>-600</v>
       </c>
-      <c r="E33" s="3">
-        <v>100</v>
-      </c>
       <c r="F33" s="3">
+        <v>100</v>
+      </c>
+      <c r="G33" s="3">
         <v>-500</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-300</v>
       </c>
       <c r="H33" s="3">
         <v>-300</v>
       </c>
       <c r="I33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J33" s="3">
         <v>400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-300</v>
-      </c>
-      <c r="R33" s="3">
-        <v>-400</v>
       </c>
       <c r="S33" s="3">
         <v>-400</v>
       </c>
       <c r="T33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="U33" s="3">
         <v>-100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-300</v>
       </c>
-      <c r="W33" s="3">
-        <v>100</v>
-      </c>
       <c r="X33" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y33" s="3">
         <v>-700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,155 +2623,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35" s="3">
         <v>-600</v>
       </c>
-      <c r="E35" s="3">
-        <v>100</v>
-      </c>
       <c r="F35" s="3">
+        <v>100</v>
+      </c>
+      <c r="G35" s="3">
         <v>-500</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-300</v>
       </c>
       <c r="H35" s="3">
         <v>-300</v>
       </c>
       <c r="I35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J35" s="3">
         <v>400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-300</v>
-      </c>
-      <c r="R35" s="3">
-        <v>-400</v>
       </c>
       <c r="S35" s="3">
         <v>-400</v>
       </c>
       <c r="T35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="U35" s="3">
         <v>-100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-300</v>
       </c>
-      <c r="W35" s="3">
-        <v>100</v>
-      </c>
       <c r="X35" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y35" s="3">
         <v>-700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44646</v>
+      </c>
+      <c r="E38" s="2">
         <v>44555</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44464</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44374</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44282</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44191</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44100</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44009</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43918</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43827</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43736</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43645</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43554</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43463</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43372</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43099</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42917</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42826</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2806,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,79 +2834,83 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E41" s="3">
+        <v>100</v>
+      </c>
+      <c r="F41" s="3">
         <v>300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2870,99 +2960,105 @@
         <v>0</v>
       </c>
       <c r="S42" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T42" s="3">
+        <v>100</v>
+      </c>
+      <c r="U42" s="3">
         <v>200</v>
-      </c>
-      <c r="U42" s="3">
-        <v>400</v>
       </c>
       <c r="V42" s="3">
         <v>400</v>
       </c>
       <c r="W42" s="3">
+        <v>400</v>
+      </c>
+      <c r="X42" s="3">
         <v>600</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>500</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E43" s="3">
+        <v>100</v>
+      </c>
+      <c r="F43" s="3">
         <v>300</v>
-      </c>
-      <c r="F43" s="3">
-        <v>200</v>
       </c>
       <c r="G43" s="3">
         <v>200</v>
       </c>
       <c r="H43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I43" s="3">
         <v>100</v>
       </c>
       <c r="J43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
         <v>200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>300</v>
       </c>
-      <c r="M43" s="3">
-        <v>100</v>
-      </c>
       <c r="N43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
         <v>300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>200</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>600</v>
       </c>
       <c r="R43" s="3">
         <v>600</v>
       </c>
       <c r="S43" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="T43" s="3">
         <v>300</v>
       </c>
       <c r="U43" s="3">
+        <v>300</v>
+      </c>
+      <c r="V43" s="3">
         <v>700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>900</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>500</v>
       </c>
-      <c r="Y43" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2970,25 +3066,25 @@
         <v>1100</v>
       </c>
       <c r="E44" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F44" s="3">
         <v>1200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1100</v>
-      </c>
-      <c r="K44" s="3">
-        <v>1000</v>
       </c>
       <c r="L44" s="3">
         <v>1000</v>
@@ -2997,31 +3093,31 @@
         <v>1000</v>
       </c>
       <c r="N44" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O44" s="3">
         <v>1100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1000</v>
-      </c>
-      <c r="P44" s="3">
-        <v>1400</v>
       </c>
       <c r="Q44" s="3">
         <v>1400</v>
       </c>
       <c r="R44" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="S44" s="3">
         <v>1500</v>
       </c>
       <c r="T44" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="U44" s="3">
         <v>1400</v>
       </c>
       <c r="V44" s="3">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="W44" s="3">
         <v>1800</v>
@@ -3030,18 +3126,21 @@
         <v>1800</v>
       </c>
       <c r="Y44" s="3">
+        <v>1800</v>
+      </c>
+      <c r="Z44" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F45" s="3">
         <v>200</v>
@@ -3050,14 +3149,14 @@
         <v>200</v>
       </c>
       <c r="H45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I45" s="3">
+        <v>100</v>
+      </c>
+      <c r="J45" s="3">
         <v>200</v>
       </c>
-      <c r="J45" s="3">
-        <v>100</v>
-      </c>
       <c r="K45" s="3">
         <v>100</v>
       </c>
@@ -3080,19 +3179,19 @@
         <v>100</v>
       </c>
       <c r="R45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S45" s="3">
         <v>200</v>
       </c>
       <c r="T45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U45" s="3">
         <v>100</v>
       </c>
       <c r="V45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W45" s="3">
         <v>200</v>
@@ -3103,79 +3202,85 @@
       <c r="Y45" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E46" s="3">
         <v>1500</v>
-      </c>
-      <c r="E46" s="3">
-        <v>1900</v>
       </c>
       <c r="F46" s="3">
         <v>1900</v>
       </c>
       <c r="G46" s="3">
+        <v>1900</v>
+      </c>
+      <c r="H46" s="3">
         <v>2000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>3900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>4300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>4700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>4400</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3227,12 +3332,12 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-      <c r="T47" s="3" t="s">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U47" s="3">
-        <v>0</v>
-      </c>
       <c r="V47" s="3">
         <v>0</v>
       </c>
@@ -3240,24 +3345,27 @@
         <v>0</v>
       </c>
       <c r="X47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="3">
         <v>200</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E48" s="3">
         <v>400</v>
       </c>
       <c r="F48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G48" s="3">
         <v>500</v>
@@ -3266,19 +3374,19 @@
         <v>500</v>
       </c>
       <c r="I48" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="J48" s="3">
         <v>600</v>
       </c>
       <c r="K48" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L48" s="3">
         <v>700</v>
       </c>
       <c r="M48" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="N48" s="3">
         <v>0</v>
@@ -3293,16 +3401,16 @@
         <v>0</v>
       </c>
       <c r="R48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S48" s="3">
         <v>100</v>
       </c>
       <c r="T48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V48" s="3">
         <v>100</v>
@@ -3314,10 +3422,13 @@
         <v>100</v>
       </c>
       <c r="Y48" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z48" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3387,8 +3498,11 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3572,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,8 +3646,11 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3600,8 +3720,11 @@
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,79 +3794,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E54" s="3">
         <v>1800</v>
-      </c>
-      <c r="E54" s="3">
-        <v>2300</v>
       </c>
       <c r="F54" s="3">
         <v>2300</v>
       </c>
       <c r="G54" s="3">
+        <v>2300</v>
+      </c>
+      <c r="H54" s="3">
         <v>2500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>3800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>3900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>4400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>4800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>4700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +3898,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,46 +3926,47 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>100</v>
+      </c>
+      <c r="E57" s="3">
         <v>200</v>
       </c>
-      <c r="E57" s="3">
-        <v>100</v>
-      </c>
       <c r="F57" s="3">
         <v>100</v>
       </c>
       <c r="G57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H57" s="3">
         <v>200</v>
       </c>
       <c r="I57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J57" s="3">
         <v>100</v>
       </c>
       <c r="K57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M57" s="3">
+        <v>100</v>
+      </c>
+      <c r="N57" s="3">
         <v>400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>300</v>
-      </c>
-      <c r="O57" s="3">
-        <v>200</v>
       </c>
       <c r="P57" s="3">
         <v>200</v>
@@ -3844,7 +3975,7 @@
         <v>200</v>
       </c>
       <c r="R57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S57" s="3">
         <v>100</v>
@@ -3862,33 +3993,36 @@
         <v>100</v>
       </c>
       <c r="X57" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y57" s="3">
         <v>200</v>
       </c>
-      <c r="Y57" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E58" s="3">
         <v>1200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>500</v>
       </c>
-      <c r="G58" s="3" t="s">
+      <c r="H58" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>19</v>
+      <c r="I58" s="3">
+        <v>0</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>19</v>
@@ -3905,8 +4039,8 @@
       <c r="N58" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
+      <c r="O58" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
@@ -3938,8 +4072,11 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3947,55 +4084,55 @@
         <v>400</v>
       </c>
       <c r="E59" s="3">
+        <v>400</v>
+      </c>
+      <c r="F59" s="3">
         <v>700</v>
-      </c>
-      <c r="F59" s="3">
-        <v>1100</v>
       </c>
       <c r="G59" s="3">
         <v>1100</v>
       </c>
       <c r="H59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I59" s="3">
         <v>700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>200</v>
-      </c>
-      <c r="U59" s="3">
-        <v>300</v>
       </c>
       <c r="V59" s="3">
         <v>300</v>
@@ -4007,66 +4144,69 @@
         <v>300</v>
       </c>
       <c r="Y59" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z59" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E60" s="3">
         <v>1700</v>
-      </c>
-      <c r="E60" s="3">
-        <v>1600</v>
       </c>
       <c r="F60" s="3">
         <v>1600</v>
       </c>
       <c r="G60" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H60" s="3">
         <v>1300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>300</v>
-      </c>
-      <c r="U60" s="3">
-        <v>400</v>
       </c>
       <c r="V60" s="3">
         <v>400</v>
@@ -4075,13 +4215,16 @@
         <v>400</v>
       </c>
       <c r="X60" s="3">
+        <v>400</v>
+      </c>
+      <c r="Y60" s="3">
         <v>500</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4089,7 +4232,7 @@
         <v>100</v>
       </c>
       <c r="E61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F61" s="3">
         <v>200</v>
@@ -4098,14 +4241,14 @@
         <v>200</v>
       </c>
       <c r="H61" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I61" s="3">
+        <v>100</v>
+      </c>
+      <c r="J61" s="3">
         <v>200</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -4151,8 +4294,11 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4163,13 +4309,13 @@
         <v>200</v>
       </c>
       <c r="F62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G62" s="3">
         <v>300</v>
       </c>
       <c r="H62" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="I62" s="3">
         <v>400</v>
@@ -4178,13 +4324,13 @@
         <v>400</v>
       </c>
       <c r="K62" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L62" s="3">
         <v>500</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>19</v>
+      <c r="M62" s="3">
+        <v>500</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>19</v>
@@ -4201,8 +4347,8 @@
       <c r="R62" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="S62" s="3">
-        <v>0</v>
+      <c r="S62" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="T62" s="3">
         <v>0</v>
@@ -4222,8 +4368,11 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4442,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4364,8 +4516,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,64 +4590,67 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E66" s="3">
         <v>2100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>300</v>
-      </c>
-      <c r="U66" s="3">
-        <v>400</v>
       </c>
       <c r="V66" s="3">
         <v>400</v>
@@ -4501,13 +4659,16 @@
         <v>400</v>
       </c>
       <c r="X66" s="3">
+        <v>400</v>
+      </c>
+      <c r="Y66" s="3">
         <v>500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4694,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4766,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,8 +4840,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4746,8 +4914,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,79 +4988,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-4800</v>
-      </c>
-      <c r="E72" s="3">
-        <v>-4200</v>
       </c>
       <c r="F72" s="3">
         <v>-4200</v>
       </c>
       <c r="G72" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="H72" s="3">
         <v>-3700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-3400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-3100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-3500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-3000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-2600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-2200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-3200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-2900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-2800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-2500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-2100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-300</v>
       </c>
-      <c r="W72" s="3">
-        <v>0</v>
-      </c>
       <c r="X72" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y72" s="3">
         <v>-100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5136,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5210,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,79 +5284,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E76" s="3">
         <v>-300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2200</v>
-      </c>
-      <c r="T76" s="3">
-        <v>3500</v>
       </c>
       <c r="U76" s="3">
         <v>3500</v>
       </c>
       <c r="V76" s="3">
+        <v>3500</v>
+      </c>
+      <c r="W76" s="3">
         <v>4000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>4400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>4200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,155 +5432,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44646</v>
+      </c>
+      <c r="E80" s="2">
         <v>44555</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44464</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44374</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44282</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44191</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44100</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44009</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43918</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43827</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43736</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43645</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43554</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43463</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43372</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43099</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42917</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42826</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E81" s="3">
         <v>-600</v>
       </c>
-      <c r="E81" s="3">
-        <v>100</v>
-      </c>
       <c r="F81" s="3">
+        <v>100</v>
+      </c>
+      <c r="G81" s="3">
         <v>-500</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-300</v>
       </c>
       <c r="H81" s="3">
         <v>-300</v>
       </c>
       <c r="I81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J81" s="3">
         <v>400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-300</v>
-      </c>
-      <c r="R81" s="3">
-        <v>-400</v>
       </c>
       <c r="S81" s="3">
         <v>-400</v>
       </c>
       <c r="T81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="U81" s="3">
         <v>-100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-300</v>
       </c>
-      <c r="W81" s="3">
-        <v>100</v>
-      </c>
       <c r="X81" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y81" s="3">
         <v>-700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,8 +5615,9 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5488,8 +5687,11 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5761,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +5835,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +5909,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +5983,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,79 +6057,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>400</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-100</v>
       </c>
       <c r="K89" s="3">
         <v>-100</v>
       </c>
       <c r="L89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M89" s="3">
         <v>-800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1000</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
       <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-1200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,8 +6161,9 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5967,17 +6188,17 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>19</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3" t="s">
+      <c r="M91" s="3" t="s">
         <v>19</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>19</v>
@@ -5985,20 +6206,20 @@
       <c r="P91" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>19</v>
+      <c r="S91" s="3">
+        <v>0</v>
       </c>
       <c r="T91" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
+      <c r="U91" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="V91" s="3">
         <v>0</v>
@@ -6012,8 +6233,11 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6307,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,8 +6381,11 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6174,11 +6404,11 @@
       <c r="H94" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3" t="s">
+      <c r="I94" s="3" t="s">
         <v>19</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>19</v>
@@ -6186,8 +6416,8 @@
       <c r="L94" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
+      <c r="M94" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
@@ -6202,31 +6432,34 @@
         <v>0</v>
       </c>
       <c r="R94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S94" s="3">
         <v>100</v>
       </c>
       <c r="T94" s="3">
+        <v>100</v>
+      </c>
+      <c r="U94" s="3">
         <v>200</v>
       </c>
-      <c r="U94" s="3">
-        <v>100</v>
-      </c>
       <c r="V94" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W94" s="3">
         <v>200</v>
       </c>
       <c r="X94" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,8 +6485,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6323,8 +6557,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6631,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6705,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,31 +6779,34 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>800</v>
+      </c>
+      <c r="E100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>500</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I100" s="3">
+      <c r="I100" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J100" s="3">
         <v>200</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>19</v>
@@ -6574,8 +6820,8 @@
       <c r="N100" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
+      <c r="O100" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="P100" s="3">
         <v>0</v>
@@ -6607,8 +6853,11 @@
       <c r="Y100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6678,75 +6927,81 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>-200</v>
       </c>
-      <c r="E102" s="3">
-        <v>100</v>
-      </c>
       <c r="F102" s="3">
+        <v>100</v>
+      </c>
+      <c r="G102" s="3">
         <v>-300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1000</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>500</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>-200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-1200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TCCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TCCO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
   <si>
     <t>TCCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,168 +665,172 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44737</v>
+      </c>
+      <c r="E7" s="2">
         <v>44646</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44555</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44464</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44374</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44282</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44191</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44100</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44009</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43918</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43827</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43736</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43645</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43554</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43463</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43372</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43099</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42917</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42826</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>100</v>
+      </c>
+      <c r="E8" s="3">
         <v>600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>600</v>
-      </c>
-      <c r="L8" s="3">
-        <v>700</v>
       </c>
       <c r="M8" s="3">
         <v>700</v>
       </c>
       <c r="N8" s="3">
+        <v>700</v>
+      </c>
+      <c r="O8" s="3">
         <v>2700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1900</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>1100</v>
       </c>
       <c r="R8" s="3">
         <v>1100</v>
       </c>
       <c r="S8" s="3">
+        <v>1100</v>
+      </c>
+      <c r="T8" s="3">
         <v>900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>800</v>
-      </c>
-      <c r="U8" s="3">
-        <v>1100</v>
       </c>
       <c r="V8" s="3">
         <v>1100</v>
@@ -835,137 +839,143 @@
         <v>1100</v>
       </c>
       <c r="X8" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Y8" s="3">
         <v>1400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>600</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>200</v>
+      </c>
+      <c r="E9" s="3">
         <v>500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>400</v>
       </c>
-      <c r="I9" s="3">
-        <v>100</v>
-      </c>
       <c r="J9" s="3">
+        <v>100</v>
+      </c>
+      <c r="K9" s="3">
         <v>700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>200</v>
-      </c>
-      <c r="L9" s="3">
-        <v>400</v>
       </c>
       <c r="M9" s="3">
         <v>400</v>
       </c>
       <c r="N9" s="3">
+        <v>400</v>
+      </c>
+      <c r="O9" s="3">
         <v>1000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>500</v>
-      </c>
-      <c r="X9" s="3">
-        <v>200</v>
       </c>
       <c r="Y9" s="3">
         <v>200</v>
       </c>
       <c r="Z9" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA9" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G10" s="3">
         <v>100</v>
       </c>
       <c r="H10" s="3">
+        <v>100</v>
+      </c>
+      <c r="I10" s="3">
         <v>200</v>
       </c>
-      <c r="I10" s="3">
-        <v>100</v>
-      </c>
       <c r="J10" s="3">
+        <v>100</v>
+      </c>
+      <c r="K10" s="3">
         <v>1400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>400</v>
-      </c>
-      <c r="L10" s="3">
-        <v>300</v>
       </c>
       <c r="M10" s="3">
         <v>300</v>
       </c>
       <c r="N10" s="3">
+        <v>300</v>
+      </c>
+      <c r="O10" s="3">
         <v>1700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>400</v>
-      </c>
-      <c r="R10" s="3">
-        <v>200</v>
       </c>
       <c r="S10" s="3">
         <v>200</v>
@@ -974,25 +984,28 @@
         <v>200</v>
       </c>
       <c r="U10" s="3">
+        <v>200</v>
+      </c>
+      <c r="V10" s="3">
         <v>600</v>
       </c>
-      <c r="V10" s="3">
-        <v>100</v>
-      </c>
       <c r="W10" s="3">
+        <v>100</v>
+      </c>
+      <c r="X10" s="3">
         <v>600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1200</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>400</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1019,52 +1032,53 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E12" s="3">
         <v>100</v>
       </c>
       <c r="F12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H12" s="3">
+        <v>100</v>
+      </c>
+      <c r="I12" s="3">
         <v>200</v>
-      </c>
-      <c r="I12" s="3">
-        <v>400</v>
       </c>
       <c r="J12" s="3">
         <v>400</v>
       </c>
       <c r="K12" s="3">
+        <v>400</v>
+      </c>
+      <c r="L12" s="3">
         <v>300</v>
-      </c>
-      <c r="L12" s="3">
-        <v>200</v>
       </c>
       <c r="M12" s="3">
         <v>200</v>
       </c>
       <c r="N12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P12" s="3">
         <v>0</v>
       </c>
       <c r="Q12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R12" s="3">
         <v>100</v>
@@ -1073,7 +1087,7 @@
         <v>100</v>
       </c>
       <c r="T12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U12" s="3">
         <v>200</v>
@@ -1082,19 +1096,22 @@
         <v>200</v>
       </c>
       <c r="W12" s="3">
+        <v>200</v>
+      </c>
+      <c r="X12" s="3">
         <v>400</v>
-      </c>
-      <c r="X12" s="3">
-        <v>500</v>
       </c>
       <c r="Y12" s="3">
         <v>500</v>
       </c>
       <c r="Z12" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+        <v>500</v>
+      </c>
+      <c r="AA12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1167,37 +1184,40 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>-500</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" s="3">
         <v>-500</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1241,8 +1261,11 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1315,8 +1338,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1340,34 +1366,35 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>19</v>
+      <c r="D17" s="3">
+        <v>1000</v>
       </c>
       <c r="E17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F17" s="3">
         <v>1000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>600</v>
-      </c>
-      <c r="G17" s="3">
-        <v>900</v>
       </c>
       <c r="H17" s="3">
         <v>900</v>
       </c>
       <c r="I17" s="3">
+        <v>900</v>
+      </c>
+      <c r="J17" s="3">
         <v>1000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1700</v>
-      </c>
-      <c r="K17" s="3">
-        <v>1100</v>
       </c>
       <c r="L17" s="3">
         <v>1100</v>
@@ -1376,16 +1403,16 @@
         <v>1100</v>
       </c>
       <c r="N17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O17" s="3">
         <v>1700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1800</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>1400</v>
       </c>
       <c r="R17" s="3">
         <v>1400</v>
@@ -1394,19 +1421,19 @@
         <v>1400</v>
       </c>
       <c r="T17" s="3">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="U17" s="3">
         <v>1200</v>
       </c>
       <c r="V17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="W17" s="3">
         <v>1600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1400</v>
-      </c>
-      <c r="X17" s="3">
-        <v>1300</v>
       </c>
       <c r="Y17" s="3">
         <v>1300</v>
@@ -1414,82 +1441,88 @@
       <c r="Z17" s="3">
         <v>1300</v>
       </c>
-    </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA17" s="3">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>19</v>
+      <c r="D18" s="3">
+        <v>-900</v>
       </c>
       <c r="E18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F18" s="3">
         <v>-600</v>
       </c>
-      <c r="F18" s="3">
-        <v>100</v>
-      </c>
       <c r="G18" s="3">
+        <v>100</v>
+      </c>
+      <c r="H18" s="3">
         <v>-500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-500</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-400</v>
       </c>
       <c r="M18" s="3">
         <v>-400</v>
       </c>
       <c r="N18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O18" s="3">
         <v>1000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-400</v>
       </c>
-      <c r="P18" s="3">
-        <v>100</v>
-      </c>
       <c r="Q18" s="3">
-        <v>-300</v>
+        <v>100</v>
       </c>
       <c r="R18" s="3">
         <v>-300</v>
       </c>
       <c r="S18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T18" s="3">
         <v>-500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-300</v>
       </c>
-      <c r="X18" s="3">
-        <v>100</v>
-      </c>
       <c r="Y18" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z18" s="3">
         <v>-700</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1516,13 +1549,14 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>19</v>
+      <c r="D20" s="3">
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1537,11 +1571,11 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>400</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -1590,82 +1624,88 @@
       <c r="Z20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>19</v>
+      <c r="D21" s="3">
+        <v>-800</v>
       </c>
       <c r="E21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F21" s="3">
         <v>-600</v>
       </c>
-      <c r="F21" s="3">
-        <v>100</v>
-      </c>
       <c r="G21" s="3">
+        <v>100</v>
+      </c>
+      <c r="H21" s="3">
         <v>-500</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-300</v>
       </c>
       <c r="I21" s="3">
         <v>-300</v>
       </c>
       <c r="J21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K21" s="3">
         <v>400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>200</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>-200</v>
       </c>
       <c r="R21" s="3">
         <v>-200</v>
       </c>
       <c r="S21" s="3">
-        <v>-400</v>
+        <v>-200</v>
       </c>
       <c r="T21" s="3">
         <v>-400</v>
       </c>
       <c r="U21" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="V21" s="3">
+        <v>0</v>
+      </c>
+      <c r="W21" s="3">
         <v>-500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-700</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1690,8 +1730,8 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>19</v>
+      <c r="K22" s="3">
+        <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>19</v>
@@ -1705,8 +1745,8 @@
       <c r="O22" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
+      <c r="P22" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
@@ -1738,82 +1778,88 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>19</v>
+      <c r="D23" s="3">
+        <v>-800</v>
       </c>
       <c r="E23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F23" s="3">
         <v>-600</v>
       </c>
-      <c r="F23" s="3">
-        <v>100</v>
-      </c>
       <c r="G23" s="3">
+        <v>100</v>
+      </c>
+      <c r="H23" s="3">
         <v>-500</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-300</v>
       </c>
       <c r="I23" s="3">
         <v>-300</v>
       </c>
       <c r="J23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K23" s="3">
         <v>400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-300</v>
-      </c>
-      <c r="S23" s="3">
-        <v>-400</v>
       </c>
       <c r="T23" s="3">
         <v>-400</v>
       </c>
       <c r="U23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="V23" s="3">
         <v>-100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-300</v>
       </c>
-      <c r="X23" s="3">
-        <v>100</v>
-      </c>
       <c r="Y23" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z23" s="3">
         <v>-700</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1868,26 +1914,29 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-      <c r="U24" s="3" t="s">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="V24" s="3">
-        <v>0</v>
-      </c>
       <c r="W24" s="3">
         <v>0</v>
       </c>
-      <c r="X24" s="3" t="s">
-        <v>19</v>
+      <c r="X24" s="3">
+        <v>0</v>
       </c>
       <c r="Y24" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Z24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1960,156 +2009,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>19</v>
+      <c r="D26" s="3">
+        <v>-800</v>
       </c>
       <c r="E26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F26" s="3">
         <v>-600</v>
       </c>
-      <c r="F26" s="3">
-        <v>100</v>
-      </c>
       <c r="G26" s="3">
+        <v>100</v>
+      </c>
+      <c r="H26" s="3">
         <v>-500</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-300</v>
       </c>
       <c r="I26" s="3">
         <v>-300</v>
       </c>
       <c r="J26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K26" s="3">
         <v>400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-300</v>
-      </c>
-      <c r="S26" s="3">
-        <v>-400</v>
       </c>
       <c r="T26" s="3">
         <v>-400</v>
       </c>
       <c r="U26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="V26" s="3">
         <v>-100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-300</v>
       </c>
-      <c r="X26" s="3">
-        <v>100</v>
-      </c>
       <c r="Y26" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z26" s="3">
         <v>-700</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>19</v>
+      <c r="D27" s="3">
+        <v>-800</v>
       </c>
       <c r="E27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F27" s="3">
         <v>-600</v>
       </c>
-      <c r="F27" s="3">
-        <v>100</v>
-      </c>
       <c r="G27" s="3">
+        <v>100</v>
+      </c>
+      <c r="H27" s="3">
         <v>-500</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-300</v>
       </c>
       <c r="I27" s="3">
         <v>-300</v>
       </c>
       <c r="J27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K27" s="3">
         <v>400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-300</v>
-      </c>
-      <c r="S27" s="3">
-        <v>-400</v>
       </c>
       <c r="T27" s="3">
         <v>-400</v>
       </c>
       <c r="U27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="V27" s="3">
         <v>-100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-300</v>
       </c>
-      <c r="X27" s="3">
-        <v>100</v>
-      </c>
       <c r="Y27" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z27" s="3">
         <v>-700</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2182,8 +2240,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2256,8 +2317,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2330,8 +2394,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2404,13 +2471,16 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>19</v>
+      <c r="D32" s="3">
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2425,11 +2495,11 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-400</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
@@ -2478,82 +2548,88 @@
       <c r="Z32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>19</v>
+      <c r="D33" s="3">
+        <v>-800</v>
       </c>
       <c r="E33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F33" s="3">
         <v>-600</v>
       </c>
-      <c r="F33" s="3">
-        <v>100</v>
-      </c>
       <c r="G33" s="3">
+        <v>100</v>
+      </c>
+      <c r="H33" s="3">
         <v>-500</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-300</v>
       </c>
       <c r="I33" s="3">
         <v>-300</v>
       </c>
       <c r="J33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K33" s="3">
         <v>400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-300</v>
-      </c>
-      <c r="S33" s="3">
-        <v>-400</v>
       </c>
       <c r="T33" s="3">
         <v>-400</v>
       </c>
       <c r="U33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="V33" s="3">
         <v>-100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-300</v>
       </c>
-      <c r="X33" s="3">
-        <v>100</v>
-      </c>
       <c r="Y33" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z33" s="3">
         <v>-700</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2626,161 +2702,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>19</v>
+      <c r="D35" s="3">
+        <v>-800</v>
       </c>
       <c r="E35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F35" s="3">
         <v>-600</v>
       </c>
-      <c r="F35" s="3">
-        <v>100</v>
-      </c>
       <c r="G35" s="3">
+        <v>100</v>
+      </c>
+      <c r="H35" s="3">
         <v>-500</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-300</v>
       </c>
       <c r="I35" s="3">
         <v>-300</v>
       </c>
       <c r="J35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K35" s="3">
         <v>400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-300</v>
-      </c>
-      <c r="S35" s="3">
-        <v>-400</v>
       </c>
       <c r="T35" s="3">
         <v>-400</v>
       </c>
       <c r="U35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="V35" s="3">
         <v>-100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-300</v>
       </c>
-      <c r="X35" s="3">
-        <v>100</v>
-      </c>
       <c r="Y35" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z35" s="3">
         <v>-700</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44737</v>
+      </c>
+      <c r="E38" s="2">
         <v>44646</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44555</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44464</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44374</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44282</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44191</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44100</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44009</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43918</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43827</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43736</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43645</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43554</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43463</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43372</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43099</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42917</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42826</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2807,8 +2892,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2835,8 +2921,9 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2844,73 +2931,76 @@
         <v>0</v>
       </c>
       <c r="E41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F41" s="3">
+        <v>100</v>
+      </c>
+      <c r="G41" s="3">
         <v>300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1400</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2963,102 +3053,108 @@
         <v>0</v>
       </c>
       <c r="T42" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U42" s="3">
+        <v>100</v>
+      </c>
+      <c r="V42" s="3">
         <v>200</v>
-      </c>
-      <c r="V42" s="3">
-        <v>400</v>
       </c>
       <c r="W42" s="3">
         <v>400</v>
       </c>
       <c r="X42" s="3">
+        <v>400</v>
+      </c>
+      <c r="Y42" s="3">
         <v>600</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>500</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
         <v>400</v>
       </c>
-      <c r="E43" s="3">
-        <v>100</v>
-      </c>
       <c r="F43" s="3">
+        <v>100</v>
+      </c>
+      <c r="G43" s="3">
         <v>300</v>
-      </c>
-      <c r="G43" s="3">
-        <v>200</v>
       </c>
       <c r="H43" s="3">
         <v>200</v>
       </c>
       <c r="I43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J43" s="3">
         <v>100</v>
       </c>
       <c r="K43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
         <v>200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>300</v>
       </c>
-      <c r="N43" s="3">
-        <v>100</v>
-      </c>
       <c r="O43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
         <v>300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>200</v>
-      </c>
-      <c r="R43" s="3">
-        <v>600</v>
       </c>
       <c r="S43" s="3">
         <v>600</v>
       </c>
       <c r="T43" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="U43" s="3">
         <v>300</v>
       </c>
       <c r="V43" s="3">
+        <v>300</v>
+      </c>
+      <c r="W43" s="3">
         <v>700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>400</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>900</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>500</v>
       </c>
-      <c r="Z43" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3069,25 +3165,25 @@
         <v>1100</v>
       </c>
       <c r="F44" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G44" s="3">
         <v>1200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1100</v>
-      </c>
-      <c r="L44" s="3">
-        <v>1000</v>
       </c>
       <c r="M44" s="3">
         <v>1000</v>
@@ -3096,31 +3192,31 @@
         <v>1000</v>
       </c>
       <c r="O44" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P44" s="3">
         <v>1100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1000</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>1400</v>
       </c>
       <c r="R44" s="3">
         <v>1400</v>
       </c>
       <c r="S44" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="T44" s="3">
         <v>1500</v>
       </c>
       <c r="U44" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="V44" s="3">
         <v>1400</v>
       </c>
       <c r="W44" s="3">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="X44" s="3">
         <v>1800</v>
@@ -3129,10 +3225,13 @@
         <v>1800</v>
       </c>
       <c r="Z44" s="3">
+        <v>1800</v>
+      </c>
+      <c r="AA44" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3140,10 +3239,10 @@
         <v>200</v>
       </c>
       <c r="E45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G45" s="3">
         <v>200</v>
@@ -3152,14 +3251,14 @@
         <v>200</v>
       </c>
       <c r="I45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J45" s="3">
+        <v>100</v>
+      </c>
+      <c r="K45" s="3">
         <v>200</v>
       </c>
-      <c r="K45" s="3">
-        <v>100</v>
-      </c>
       <c r="L45" s="3">
         <v>100</v>
       </c>
@@ -3182,19 +3281,19 @@
         <v>100</v>
       </c>
       <c r="S45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T45" s="3">
         <v>200</v>
       </c>
       <c r="U45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V45" s="3">
         <v>100</v>
       </c>
       <c r="W45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="X45" s="3">
         <v>200</v>
@@ -3205,82 +3304,88 @@
       <c r="Z45" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E46" s="3">
         <v>1700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1500</v>
-      </c>
-      <c r="F46" s="3">
-        <v>1900</v>
       </c>
       <c r="G46" s="3">
         <v>1900</v>
       </c>
       <c r="H46" s="3">
+        <v>1900</v>
+      </c>
+      <c r="I46" s="3">
         <v>2000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>3700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>3900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>4300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>4700</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>4400</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3335,12 +3440,12 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-      <c r="U47" s="3" t="s">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="V47" s="3">
-        <v>0</v>
-      </c>
       <c r="W47" s="3">
         <v>0</v>
       </c>
@@ -3348,13 +3453,16 @@
         <v>0</v>
       </c>
       <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="3">
         <v>200</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3362,13 +3470,13 @@
         <v>300</v>
       </c>
       <c r="E48" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F48" s="3">
         <v>400</v>
       </c>
       <c r="G48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="H48" s="3">
         <v>500</v>
@@ -3377,19 +3485,19 @@
         <v>500</v>
       </c>
       <c r="J48" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K48" s="3">
         <v>600</v>
       </c>
       <c r="L48" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M48" s="3">
         <v>700</v>
       </c>
       <c r="N48" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="O48" s="3">
         <v>0</v>
@@ -3404,16 +3512,16 @@
         <v>0</v>
       </c>
       <c r="S48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T48" s="3">
         <v>100</v>
       </c>
       <c r="U48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W48" s="3">
         <v>100</v>
@@ -3425,10 +3533,13 @@
         <v>100</v>
       </c>
       <c r="Z48" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA48" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3501,8 +3612,11 @@
       <c r="Z49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3575,8 +3689,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3649,8 +3766,11 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3723,8 +3843,11 @@
       <c r="Z52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3797,82 +3920,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E54" s="3">
         <v>2000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1800</v>
-      </c>
-      <c r="F54" s="3">
-        <v>2300</v>
       </c>
       <c r="G54" s="3">
         <v>2300</v>
       </c>
       <c r="H54" s="3">
+        <v>2300</v>
+      </c>
+      <c r="I54" s="3">
         <v>2500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>3500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>3800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>3900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>4400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>4800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>4700</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3899,8 +4028,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3927,8 +4057,9 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3936,40 +4067,40 @@
         <v>100</v>
       </c>
       <c r="E57" s="3">
+        <v>100</v>
+      </c>
+      <c r="F57" s="3">
         <v>200</v>
       </c>
-      <c r="F57" s="3">
-        <v>100</v>
-      </c>
       <c r="G57" s="3">
         <v>100</v>
       </c>
       <c r="H57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I57" s="3">
         <v>200</v>
       </c>
       <c r="J57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K57" s="3">
         <v>100</v>
       </c>
       <c r="L57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N57" s="3">
+        <v>100</v>
+      </c>
+      <c r="O57" s="3">
         <v>400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>300</v>
-      </c>
-      <c r="P57" s="3">
-        <v>200</v>
       </c>
       <c r="Q57" s="3">
         <v>200</v>
@@ -3978,7 +4109,7 @@
         <v>200</v>
       </c>
       <c r="S57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T57" s="3">
         <v>100</v>
@@ -3996,36 +4127,39 @@
         <v>100</v>
       </c>
       <c r="Y57" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z57" s="3">
         <v>200</v>
       </c>
-      <c r="Z57" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E58" s="3">
         <v>1900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>500</v>
       </c>
-      <c r="H58" s="3" t="s">
+      <c r="I58" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>19</v>
+      <c r="J58" s="3">
+        <v>0</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>19</v>
@@ -4042,8 +4176,8 @@
       <c r="O58" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
+      <c r="P58" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
@@ -4075,67 +4209,70 @@
       <c r="Z58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E59" s="3">
         <v>400</v>
       </c>
       <c r="F59" s="3">
+        <v>400</v>
+      </c>
+      <c r="G59" s="3">
         <v>700</v>
-      </c>
-      <c r="G59" s="3">
-        <v>1100</v>
       </c>
       <c r="H59" s="3">
         <v>1100</v>
       </c>
       <c r="I59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J59" s="3">
         <v>700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>200</v>
-      </c>
-      <c r="V59" s="3">
-        <v>300</v>
       </c>
       <c r="W59" s="3">
         <v>300</v>
@@ -4147,69 +4284,72 @@
         <v>300</v>
       </c>
       <c r="Z59" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA59" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E60" s="3">
         <v>2500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1700</v>
-      </c>
-      <c r="F60" s="3">
-        <v>1600</v>
       </c>
       <c r="G60" s="3">
         <v>1600</v>
       </c>
       <c r="H60" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I60" s="3">
         <v>1300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>300</v>
-      </c>
-      <c r="V60" s="3">
-        <v>400</v>
       </c>
       <c r="W60" s="3">
         <v>400</v>
@@ -4218,13 +4358,16 @@
         <v>400</v>
       </c>
       <c r="Y60" s="3">
+        <v>400</v>
+      </c>
+      <c r="Z60" s="3">
         <v>500</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4235,7 +4378,7 @@
         <v>100</v>
       </c>
       <c r="F61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G61" s="3">
         <v>200</v>
@@ -4244,14 +4387,14 @@
         <v>200</v>
       </c>
       <c r="I61" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J61" s="3">
+        <v>100</v>
+      </c>
+      <c r="K61" s="3">
         <v>200</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -4297,13 +4440,16 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E62" s="3">
         <v>200</v>
@@ -4312,13 +4458,13 @@
         <v>200</v>
       </c>
       <c r="G62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H62" s="3">
         <v>300</v>
       </c>
       <c r="I62" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="J62" s="3">
         <v>400</v>
@@ -4327,13 +4473,13 @@
         <v>400</v>
       </c>
       <c r="L62" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M62" s="3">
         <v>500</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>19</v>
+      <c r="N62" s="3">
+        <v>500</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>19</v>
@@ -4350,8 +4496,8 @@
       <c r="S62" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="T62" s="3">
-        <v>0</v>
+      <c r="T62" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="U62" s="3">
         <v>0</v>
@@ -4371,8 +4517,11 @@
       <c r="Z62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4445,8 +4594,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4519,8 +4671,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4593,67 +4748,70 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E66" s="3">
         <v>2800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>300</v>
-      </c>
-      <c r="V66" s="3">
-        <v>400</v>
       </c>
       <c r="W66" s="3">
         <v>400</v>
@@ -4662,13 +4820,16 @@
         <v>400</v>
       </c>
       <c r="Y66" s="3">
+        <v>400</v>
+      </c>
+      <c r="Z66" s="3">
         <v>500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4695,8 +4856,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4769,8 +4931,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4843,8 +5008,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4917,8 +5085,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4991,82 +5162,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-5300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-4800</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-4200</v>
       </c>
       <c r="G72" s="3">
         <v>-4200</v>
       </c>
       <c r="H72" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="I72" s="3">
         <v>-3700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-3400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-3100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-3500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-3000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-2600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-2200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-3200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-3000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-2800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-2500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-2100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-300</v>
       </c>
-      <c r="X72" s="3">
-        <v>0</v>
-      </c>
       <c r="Y72" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z72" s="3">
         <v>-100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5139,8 +5316,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5213,8 +5393,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5287,82 +5470,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E76" s="3">
         <v>-800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2200</v>
-      </c>
-      <c r="U76" s="3">
-        <v>3500</v>
       </c>
       <c r="V76" s="3">
         <v>3500</v>
       </c>
       <c r="W76" s="3">
+        <v>3500</v>
+      </c>
+      <c r="X76" s="3">
         <v>4000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>4400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>4200</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5435,161 +5624,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44737</v>
+      </c>
+      <c r="E80" s="2">
         <v>44646</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44555</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44464</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44374</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44282</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44191</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44100</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44009</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43918</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43827</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43736</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43645</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43554</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43463</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43372</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43099</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42917</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42826</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>19</v>
+      <c r="D81" s="3">
+        <v>-800</v>
       </c>
       <c r="E81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F81" s="3">
         <v>-600</v>
       </c>
-      <c r="F81" s="3">
-        <v>100</v>
-      </c>
       <c r="G81" s="3">
+        <v>100</v>
+      </c>
+      <c r="H81" s="3">
         <v>-500</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-300</v>
       </c>
       <c r="I81" s="3">
         <v>-300</v>
       </c>
       <c r="J81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K81" s="3">
         <v>400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-300</v>
-      </c>
-      <c r="S81" s="3">
-        <v>-400</v>
       </c>
       <c r="T81" s="3">
         <v>-400</v>
       </c>
       <c r="U81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="V81" s="3">
         <v>-100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-300</v>
       </c>
-      <c r="X81" s="3">
-        <v>100</v>
-      </c>
       <c r="Y81" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z81" s="3">
         <v>-700</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5616,8 +5814,9 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5690,8 +5889,11 @@
       <c r="Z83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5764,8 +5966,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5838,8 +6043,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5912,8 +6120,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5986,8 +6197,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6060,82 +6274,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>400</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-100</v>
       </c>
       <c r="L89" s="3">
         <v>-100</v>
       </c>
       <c r="M89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N89" s="3">
         <v>-800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1000</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
       <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
         <v>-200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-500</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-1200</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6162,8 +6382,9 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6191,17 +6412,17 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>19</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
-      <c r="O91" s="3" t="s">
+      <c r="N91" s="3" t="s">
         <v>19</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>19</v>
@@ -6209,20 +6430,20 @@
       <c r="Q91" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="R91" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>19</v>
+      <c r="T91" s="3">
+        <v>0</v>
       </c>
       <c r="U91" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
+      <c r="V91" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="W91" s="3">
         <v>0</v>
@@ -6236,8 +6457,11 @@
       <c r="Z91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6310,8 +6534,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6384,8 +6611,11 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6407,11 +6637,11 @@
       <c r="I94" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3" t="s">
+      <c r="J94" s="3" t="s">
         <v>19</v>
+      </c>
+      <c r="K94" s="3">
+        <v>0</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>19</v>
@@ -6419,8 +6649,8 @@
       <c r="M94" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
+      <c r="N94" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
@@ -6435,31 +6665,34 @@
         <v>0</v>
       </c>
       <c r="S94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T94" s="3">
         <v>100</v>
       </c>
       <c r="U94" s="3">
+        <v>100</v>
+      </c>
+      <c r="V94" s="3">
         <v>200</v>
       </c>
-      <c r="V94" s="3">
-        <v>100</v>
-      </c>
       <c r="W94" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="X94" s="3">
         <v>200</v>
       </c>
       <c r="Y94" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6486,8 +6719,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6560,8 +6794,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6634,8 +6871,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6708,8 +6948,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6782,34 +7025,37 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>500</v>
+      </c>
+      <c r="E100" s="3">
         <v>800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>500</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J100" s="3">
+      <c r="J100" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K100" s="3">
         <v>200</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>19</v>
@@ -6823,8 +7069,8 @@
       <c r="O100" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
+      <c r="P100" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="Q100" s="3">
         <v>0</v>
@@ -6856,8 +7102,11 @@
       <c r="Z100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6930,8 +7179,11 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6939,69 +7191,72 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-200</v>
       </c>
-      <c r="F102" s="3">
-        <v>100</v>
-      </c>
       <c r="G102" s="3">
+        <v>100</v>
+      </c>
+      <c r="H102" s="3">
         <v>-300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1000</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>500</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>-200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-1200</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TCCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TCCO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
   <si>
     <t>TCCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,116 +665,123 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44919</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44828</v>
+      </c>
+      <c r="F7" s="2">
         <v>44737</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44464</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44374</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44282</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44191</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44009</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43918</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43827</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43736</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43645</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43554</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43463</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43372</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43099</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42917</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42826</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -782,230 +789,248 @@
         <v>100</v>
       </c>
       <c r="E8" s="3">
+        <v>200</v>
+      </c>
+      <c r="F8" s="3">
+        <v>100</v>
+      </c>
+      <c r="G8" s="3">
         <v>600</v>
-      </c>
-      <c r="F8" s="3">
-        <v>400</v>
-      </c>
-      <c r="G8" s="3">
-        <v>700</v>
       </c>
       <c r="H8" s="3">
         <v>400</v>
       </c>
       <c r="I8" s="3">
+        <v>700</v>
+      </c>
+      <c r="J8" s="3">
+        <v>400</v>
+      </c>
+      <c r="K8" s="3">
         <v>600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>2100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>2700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>1200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>1900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>1100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>1100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>800</v>
-      </c>
-      <c r="V8" s="3">
-        <v>1100</v>
-      </c>
-      <c r="W8" s="3">
-        <v>1100</v>
       </c>
       <c r="X8" s="3">
         <v>1100</v>
       </c>
       <c r="Y8" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AA8" s="3">
         <v>1400</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>600</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>100</v>
+      </c>
+      <c r="E9" s="3">
+        <v>300</v>
+      </c>
+      <c r="F9" s="3">
         <v>200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>400</v>
       </c>
-      <c r="J9" s="3">
-        <v>100</v>
-      </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
+        <v>100</v>
+      </c>
+      <c r="M9" s="3">
         <v>700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>1000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>1100</v>
-      </c>
-      <c r="R9" s="3">
-        <v>700</v>
-      </c>
-      <c r="S9" s="3">
-        <v>900</v>
       </c>
       <c r="T9" s="3">
         <v>700</v>
       </c>
       <c r="U9" s="3">
+        <v>900</v>
+      </c>
+      <c r="V9" s="3">
+        <v>700</v>
+      </c>
+      <c r="W9" s="3">
         <v>600</v>
-      </c>
-      <c r="V9" s="3">
-        <v>500</v>
-      </c>
-      <c r="W9" s="3">
-        <v>1000</v>
       </c>
       <c r="X9" s="3">
         <v>500</v>
       </c>
       <c r="Y9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>500</v>
+      </c>
+      <c r="AA9" s="3">
         <v>200</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>200</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
         <v>-100</v>
       </c>
-      <c r="E10" s="3">
-        <v>100</v>
-      </c>
       <c r="F10" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G10" s="3">
         <v>100</v>
       </c>
       <c r="H10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I10" s="3">
+        <v>100</v>
+      </c>
+      <c r="J10" s="3">
+        <v>100</v>
+      </c>
+      <c r="K10" s="3">
         <v>200</v>
       </c>
-      <c r="J10" s="3">
-        <v>100</v>
-      </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
+        <v>100</v>
+      </c>
+      <c r="M10" s="3">
         <v>1400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>1700</v>
-      </c>
-      <c r="P10" s="3">
-        <v>400</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>800</v>
       </c>
       <c r="R10" s="3">
         <v>400</v>
       </c>
       <c r="S10" s="3">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="T10" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="U10" s="3">
         <v>200</v>
       </c>
       <c r="V10" s="3">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="W10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="X10" s="3">
         <v>600</v>
       </c>
       <c r="Y10" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z10" s="3">
+        <v>600</v>
+      </c>
+      <c r="AA10" s="3">
         <v>1200</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>400</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1033,8 +1058,10 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1042,76 +1069,82 @@
         <v>300</v>
       </c>
       <c r="E12" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F12" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="G12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H12" s="3">
         <v>100</v>
       </c>
       <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3">
+        <v>100</v>
+      </c>
+      <c r="K12" s="3">
         <v>200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>200</v>
       </c>
-      <c r="O12" s="3">
-        <v>100</v>
-      </c>
-      <c r="P12" s="3">
-        <v>0</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T12" s="3">
         <v>100</v>
       </c>
       <c r="U12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W12" s="3">
         <v>200</v>
       </c>
       <c r="X12" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y12" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z12" s="3">
         <v>400</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="AA12" s="3">
         <v>500</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AB12" s="3">
         <v>500</v>
       </c>
-      <c r="AA12" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1187,43 +1220,49 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>-500</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J14" s="3">
-        <v>-500</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="L14" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1264,8 +1303,14 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1341,8 +1386,14 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1367,162 +1418,176 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="E17" s="3">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="F17" s="3">
         <v>1000</v>
       </c>
       <c r="G17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I17" s="3">
         <v>600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1700</v>
-      </c>
-      <c r="L17" s="3">
-        <v>1100</v>
-      </c>
-      <c r="M17" s="3">
-        <v>1100</v>
       </c>
       <c r="N17" s="3">
         <v>1100</v>
       </c>
       <c r="O17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="P17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Q17" s="3">
         <v>1700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>1800</v>
-      </c>
-      <c r="R17" s="3">
-        <v>1400</v>
-      </c>
-      <c r="S17" s="3">
-        <v>1400</v>
       </c>
       <c r="T17" s="3">
         <v>1400</v>
       </c>
       <c r="U17" s="3">
+        <v>1400</v>
+      </c>
+      <c r="V17" s="3">
+        <v>1400</v>
+      </c>
+      <c r="W17" s="3">
         <v>1200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>1200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>1600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>1400</v>
-      </c>
-      <c r="Y17" s="3">
-        <v>1300</v>
-      </c>
-      <c r="Z17" s="3">
-        <v>1300</v>
       </c>
       <c r="AA17" s="3">
         <v>1300</v>
       </c>
-    </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB17" s="3">
+        <v>1300</v>
+      </c>
+      <c r="AC17" s="3">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-600</v>
       </c>
-      <c r="G18" s="3">
-        <v>100</v>
-      </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
+        <v>100</v>
+      </c>
+      <c r="J18" s="3">
         <v>-500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-400</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-400</v>
-      </c>
-      <c r="O18" s="3">
-        <v>1000</v>
       </c>
       <c r="P18" s="3">
         <v>-400</v>
       </c>
       <c r="Q18" s="3">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="R18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S18" s="3">
+        <v>100</v>
+      </c>
+      <c r="T18" s="3">
         <v>-300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-300</v>
       </c>
-      <c r="Y18" s="3">
-        <v>100</v>
-      </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB18" s="3">
         <v>-700</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1550,8 +1615,10 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1574,14 +1641,14 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>400</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
@@ -1627,8 +1694,14 @@
       <c r="AA20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1636,81 +1709,87 @@
         <v>-800</v>
       </c>
       <c r="E21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="G21" s="3">
         <v>-500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-600</v>
       </c>
-      <c r="G21" s="3">
-        <v>100</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
+        <v>100</v>
+      </c>
+      <c r="J21" s="3">
         <v>-500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>400</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-500</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-400</v>
       </c>
       <c r="N21" s="3">
         <v>-500</v>
       </c>
       <c r="O21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Q21" s="3">
         <v>1000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-400</v>
       </c>
-      <c r="V21" s="3">
-        <v>0</v>
-      </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="3">
         <v>-500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>-300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>200</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>-700</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -1733,11 +1812,11 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>19</v>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>19</v>
@@ -1748,11 +1827,11 @@
       <c r="P22" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
-      <c r="R22" s="3">
-        <v>0</v>
+      <c r="Q22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
@@ -1781,8 +1860,14 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
@@ -1790,76 +1875,82 @@
         <v>-800</v>
       </c>
       <c r="E23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="G23" s="3">
         <v>-500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-600</v>
       </c>
-      <c r="G23" s="3">
-        <v>100</v>
-      </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
+        <v>100</v>
+      </c>
+      <c r="J23" s="3">
         <v>-500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>400</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-500</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-400</v>
       </c>
       <c r="N23" s="3">
         <v>-500</v>
       </c>
       <c r="O23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Q23" s="3">
         <v>1000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-300</v>
       </c>
-      <c r="Y23" s="3">
-        <v>100</v>
-      </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB23" s="3">
         <v>-700</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1917,26 +2008,32 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-      <c r="V24" s="3" t="s">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="W24" s="3">
-        <v>0</v>
-      </c>
-      <c r="X24" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="3" t="s">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Z24" s="3" t="s">
+      <c r="AB24" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="AA24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2012,8 +2109,14 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -2021,76 +2124,82 @@
         <v>-800</v>
       </c>
       <c r="E26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="G26" s="3">
         <v>-500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-600</v>
       </c>
-      <c r="G26" s="3">
-        <v>100</v>
-      </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
+        <v>100</v>
+      </c>
+      <c r="J26" s="3">
         <v>-500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>400</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-500</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-400</v>
       </c>
       <c r="N26" s="3">
         <v>-500</v>
       </c>
       <c r="O26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Q26" s="3">
         <v>1000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-300</v>
       </c>
-      <c r="Y26" s="3">
-        <v>100</v>
-      </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB26" s="3">
         <v>-700</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2098,76 +2207,82 @@
         <v>-800</v>
       </c>
       <c r="E27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="G27" s="3">
         <v>-500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-600</v>
       </c>
-      <c r="G27" s="3">
-        <v>100</v>
-      </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
+        <v>100</v>
+      </c>
+      <c r="J27" s="3">
         <v>-500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>400</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-500</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-400</v>
       </c>
       <c r="N27" s="3">
         <v>-500</v>
       </c>
       <c r="O27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Q27" s="3">
         <v>1000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-300</v>
       </c>
-      <c r="Y27" s="3">
-        <v>100</v>
-      </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB27" s="3">
         <v>-700</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2243,8 +2358,14 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2320,8 +2441,14 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2397,8 +2524,14 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2474,8 +2607,14 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2498,14 +2637,14 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-400</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
@@ -2551,8 +2690,14 @@
       <c r="AA32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2560,76 +2705,82 @@
         <v>-800</v>
       </c>
       <c r="E33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="G33" s="3">
         <v>-500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-600</v>
       </c>
-      <c r="G33" s="3">
-        <v>100</v>
-      </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
+        <v>100</v>
+      </c>
+      <c r="J33" s="3">
         <v>-500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>400</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-500</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-400</v>
       </c>
       <c r="N33" s="3">
         <v>-500</v>
       </c>
       <c r="O33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Q33" s="3">
         <v>1000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-300</v>
       </c>
-      <c r="Y33" s="3">
-        <v>100</v>
-      </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB33" s="3">
         <v>-700</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2705,8 +2856,14 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2714,158 +2871,170 @@
         <v>-800</v>
       </c>
       <c r="E35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="G35" s="3">
         <v>-500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-600</v>
       </c>
-      <c r="G35" s="3">
-        <v>100</v>
-      </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
+        <v>100</v>
+      </c>
+      <c r="J35" s="3">
         <v>-500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>400</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-500</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-400</v>
       </c>
       <c r="N35" s="3">
         <v>-500</v>
       </c>
       <c r="O35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Q35" s="3">
         <v>1000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-300</v>
       </c>
-      <c r="Y35" s="3">
-        <v>100</v>
-      </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB35" s="3">
         <v>-700</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44919</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44828</v>
+      </c>
+      <c r="F38" s="2">
         <v>44737</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44464</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44374</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44282</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44191</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44009</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43918</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43827</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43736</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43645</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43554</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43463</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43372</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43099</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42917</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42826</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2893,8 +3062,10 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2922,85 +3093,93 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
       </c>
       <c r="F41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
+        <v>100</v>
+      </c>
+      <c r="I41" s="3">
         <v>300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>1600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>1800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>1700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>2000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>1500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>1400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>1700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>1300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>1500</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>1100</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>1400</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3056,182 +3235,200 @@
         <v>0</v>
       </c>
       <c r="U42" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V42" s="3">
+        <v>0</v>
+      </c>
+      <c r="W42" s="3">
+        <v>100</v>
+      </c>
+      <c r="X42" s="3">
         <v>200</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>400</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Z42" s="3">
         <v>400</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="AA42" s="3">
         <v>600</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AB42" s="3">
         <v>500</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AC42" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E43" s="3">
+        <v>500</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
         <v>400</v>
       </c>
-      <c r="F43" s="3">
-        <v>100</v>
-      </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
+        <v>100</v>
+      </c>
+      <c r="I43" s="3">
         <v>300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>200</v>
       </c>
-      <c r="J43" s="3">
-        <v>100</v>
-      </c>
-      <c r="K43" s="3">
-        <v>100</v>
-      </c>
       <c r="L43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M43" s="3">
+        <v>100</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
         <v>200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>300</v>
       </c>
-      <c r="O43" s="3">
-        <v>100</v>
-      </c>
-      <c r="P43" s="3">
-        <v>0</v>
-      </c>
       <c r="Q43" s="3">
+        <v>100</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
         <v>300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>700</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>400</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>900</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>500</v>
       </c>
-      <c r="AA43" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="E44" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="F44" s="3">
         <v>1100</v>
       </c>
       <c r="G44" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H44" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I44" s="3">
         <v>1200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>1300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>1100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>1000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>1100</v>
-      </c>
-      <c r="M44" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N44" s="3">
-        <v>1000</v>
       </c>
       <c r="O44" s="3">
         <v>1000</v>
       </c>
       <c r="P44" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="Q44" s="3">
         <v>1000</v>
       </c>
       <c r="R44" s="3">
+        <v>1100</v>
+      </c>
+      <c r="S44" s="3">
+        <v>1000</v>
+      </c>
+      <c r="T44" s="3">
         <v>1400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>1400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>1500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>1500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>1400</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>1400</v>
-      </c>
-      <c r="X44" s="3">
-        <v>1800</v>
-      </c>
-      <c r="Y44" s="3">
-        <v>1800</v>
       </c>
       <c r="Z44" s="3">
         <v>1800</v>
       </c>
       <c r="AA44" s="3">
+        <v>1800</v>
+      </c>
+      <c r="AB44" s="3">
+        <v>1800</v>
+      </c>
+      <c r="AC44" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3242,19 +3439,19 @@
         <v>200</v>
       </c>
       <c r="F45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G45" s="3">
         <v>200</v>
       </c>
       <c r="H45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I45" s="3">
         <v>200</v>
       </c>
       <c r="J45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K45" s="3">
         <v>200</v>
@@ -3263,7 +3460,7 @@
         <v>100</v>
       </c>
       <c r="M45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N45" s="3">
         <v>100</v>
@@ -3284,22 +3481,22 @@
         <v>100</v>
       </c>
       <c r="T45" s="3">
+        <v>100</v>
+      </c>
+      <c r="U45" s="3">
+        <v>100</v>
+      </c>
+      <c r="V45" s="3">
         <v>200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>200</v>
       </c>
-      <c r="V45" s="3">
-        <v>100</v>
-      </c>
-      <c r="W45" s="3">
-        <v>100</v>
-      </c>
       <c r="X45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Y45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Z45" s="3">
         <v>200</v>
@@ -3307,85 +3504,97 @@
       <c r="AA45" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>200</v>
+      </c>
+      <c r="AC45" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="E46" s="3">
         <v>1700</v>
       </c>
       <c r="F46" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G46" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H46" s="3">
         <v>1500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1900</v>
-      </c>
-      <c r="H46" s="3">
-        <v>1900</v>
-      </c>
-      <c r="I46" s="3">
-        <v>2000</v>
       </c>
       <c r="J46" s="3">
         <v>1900</v>
       </c>
       <c r="K46" s="3">
+        <v>2000</v>
+      </c>
+      <c r="L46" s="3">
+        <v>1900</v>
+      </c>
+      <c r="M46" s="3">
         <v>2700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>2300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>2000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>2100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>2900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>2000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>3200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>3400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>4100</v>
-      </c>
-      <c r="T46" s="3">
-        <v>3700</v>
-      </c>
-      <c r="U46" s="3">
-        <v>3500</v>
       </c>
       <c r="V46" s="3">
         <v>3700</v>
       </c>
       <c r="W46" s="3">
+        <v>3500</v>
+      </c>
+      <c r="X46" s="3">
+        <v>3700</v>
+      </c>
+      <c r="Y46" s="3">
         <v>3900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>4300</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>4700</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>4400</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3443,68 +3652,74 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-      <c r="V47" s="3" t="s">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+      <c r="X47" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="W47" s="3">
-        <v>0</v>
-      </c>
-      <c r="X47" s="3">
-        <v>0</v>
-      </c>
       <c r="Y47" s="3">
         <v>0</v>
       </c>
       <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB47" s="3">
         <v>200</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AC47" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E48" s="3">
         <v>300</v>
       </c>
       <c r="F48" s="3">
+        <v>300</v>
+      </c>
+      <c r="G48" s="3">
+        <v>300</v>
+      </c>
+      <c r="H48" s="3">
         <v>400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>400</v>
-      </c>
-      <c r="H48" s="3">
-        <v>500</v>
-      </c>
-      <c r="I48" s="3">
-        <v>500</v>
       </c>
       <c r="J48" s="3">
         <v>500</v>
       </c>
       <c r="K48" s="3">
+        <v>500</v>
+      </c>
+      <c r="L48" s="3">
+        <v>500</v>
+      </c>
+      <c r="M48" s="3">
         <v>600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>700</v>
       </c>
-      <c r="O48" s="3">
-        <v>0</v>
-      </c>
-      <c r="P48" s="3">
-        <v>0</v>
-      </c>
       <c r="Q48" s="3">
         <v>0</v>
       </c>
@@ -3515,19 +3730,19 @@
         <v>0</v>
       </c>
       <c r="T48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W48" s="3">
         <v>100</v>
       </c>
       <c r="X48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y48" s="3">
         <v>100</v>
@@ -3536,10 +3751,16 @@
         <v>100</v>
       </c>
       <c r="AA48" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB48" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC48" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3615,8 +3836,14 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3692,8 +3919,14 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3769,8 +4002,14 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3846,8 +4085,14 @@
       <c r="AA52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3923,85 +4168,97 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="E54" s="3">
         <v>2000</v>
       </c>
       <c r="F54" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G54" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H54" s="3">
         <v>1800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>2300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>2300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>2500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>2400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>3300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>2900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>2600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>2800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>2900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>2100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>3300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>3500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>4100</v>
-      </c>
-      <c r="T54" s="3">
-        <v>3800</v>
-      </c>
-      <c r="U54" s="3">
-        <v>3500</v>
       </c>
       <c r="V54" s="3">
         <v>3800</v>
       </c>
       <c r="W54" s="3">
+        <v>3500</v>
+      </c>
+      <c r="X54" s="3">
+        <v>3800</v>
+      </c>
+      <c r="Y54" s="3">
         <v>3900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>4400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>4800</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>4700</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4029,8 +4286,10 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4058,64 +4317,66 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F57" s="3">
+        <v>100</v>
+      </c>
+      <c r="G57" s="3">
+        <v>100</v>
+      </c>
+      <c r="H57" s="3">
         <v>200</v>
       </c>
-      <c r="G57" s="3">
-        <v>100</v>
-      </c>
-      <c r="H57" s="3">
-        <v>100</v>
-      </c>
       <c r="I57" s="3">
+        <v>100</v>
+      </c>
+      <c r="J57" s="3">
+        <v>100</v>
+      </c>
+      <c r="K57" s="3">
         <v>200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>200</v>
       </c>
-      <c r="K57" s="3">
-        <v>100</v>
-      </c>
-      <c r="L57" s="3">
-        <v>100</v>
-      </c>
       <c r="M57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N57" s="3">
         <v>100</v>
       </c>
       <c r="O57" s="3">
+        <v>0</v>
+      </c>
+      <c r="P57" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q57" s="3">
         <v>400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>300</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>200</v>
-      </c>
-      <c r="R57" s="3">
-        <v>200</v>
       </c>
       <c r="S57" s="3">
         <v>200</v>
       </c>
       <c r="T57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V57" s="3">
         <v>100</v>
@@ -4130,42 +4391,48 @@
         <v>100</v>
       </c>
       <c r="Z57" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA57" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB57" s="3">
         <v>200</v>
       </c>
-      <c r="AA57" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E58" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F58" s="3">
         <v>2400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>1900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>1200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>2000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>500</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>19</v>
+      <c r="L58" s="3">
+        <v>0</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>19</v>
@@ -4179,11 +4446,11 @@
       <c r="P58" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
-      </c>
-      <c r="R58" s="3">
-        <v>0</v>
+      <c r="Q58" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="S58" s="3">
         <v>0</v>
@@ -4212,8 +4479,14 @@
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4221,64 +4494,64 @@
         <v>500</v>
       </c>
       <c r="E59" s="3">
+        <v>500</v>
+      </c>
+      <c r="F59" s="3">
+        <v>500</v>
+      </c>
+      <c r="G59" s="3">
         <v>400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>1100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>1100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>1400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>1500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>2000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>2400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>1900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>1200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>200</v>
-      </c>
-      <c r="W59" s="3">
-        <v>300</v>
-      </c>
-      <c r="X59" s="3">
-        <v>300</v>
       </c>
       <c r="Y59" s="3">
         <v>300</v>
@@ -4287,87 +4560,99 @@
         <v>300</v>
       </c>
       <c r="AA59" s="3">
+        <v>300</v>
+      </c>
+      <c r="AB59" s="3">
+        <v>300</v>
+      </c>
+      <c r="AC59" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F60" s="3">
         <v>3000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>2500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1500</v>
-      </c>
-      <c r="M60" s="3">
-        <v>700</v>
-      </c>
-      <c r="N60" s="3">
-        <v>600</v>
       </c>
       <c r="O60" s="3">
         <v>700</v>
       </c>
       <c r="P60" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>700</v>
+      </c>
+      <c r="R60" s="3">
         <v>900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>1800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>2200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>2600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>2000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>1300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>300</v>
-      </c>
-      <c r="W60" s="3">
-        <v>400</v>
-      </c>
-      <c r="X60" s="3">
-        <v>400</v>
       </c>
       <c r="Y60" s="3">
         <v>400</v>
       </c>
       <c r="Z60" s="3">
+        <v>400</v>
+      </c>
+      <c r="AA60" s="3">
+        <v>400</v>
+      </c>
+      <c r="AB60" s="3">
         <v>500</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4381,25 +4666,25 @@
         <v>100</v>
       </c>
       <c r="G61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I61" s="3">
         <v>200</v>
       </c>
       <c r="J61" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K61" s="3">
         <v>200</v>
       </c>
       <c r="L61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N61" s="3">
         <v>0</v>
@@ -4443,49 +4728,55 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G62" s="3">
         <v>200</v>
       </c>
       <c r="H62" s="3">
+        <v>200</v>
+      </c>
+      <c r="I62" s="3">
+        <v>200</v>
+      </c>
+      <c r="J62" s="3">
         <v>300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>300</v>
-      </c>
-      <c r="J62" s="3">
-        <v>400</v>
-      </c>
-      <c r="K62" s="3">
-        <v>400</v>
       </c>
       <c r="L62" s="3">
         <v>400</v>
       </c>
       <c r="M62" s="3">
+        <v>400</v>
+      </c>
+      <c r="N62" s="3">
+        <v>400</v>
+      </c>
+      <c r="O62" s="3">
         <v>500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>500</v>
-      </c>
-      <c r="O62" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="P62" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="Q62" s="3" t="s">
         <v>19</v>
@@ -4499,11 +4790,11 @@
       <c r="T62" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U62" s="3">
-        <v>0</v>
-      </c>
-      <c r="V62" s="3">
-        <v>0</v>
+      <c r="U62" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="V62" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="W62" s="3">
         <v>0</v>
@@ -4520,8 +4811,14 @@
       <c r="AA62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4597,8 +4894,14 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4674,8 +4977,14 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4751,85 +5060,97 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F66" s="3">
         <v>3200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>2800</v>
-      </c>
-      <c r="F66" s="3">
-        <v>2100</v>
-      </c>
-      <c r="G66" s="3">
-        <v>2000</v>
       </c>
       <c r="H66" s="3">
         <v>2100</v>
       </c>
       <c r="I66" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J66" s="3">
+        <v>2100</v>
+      </c>
+      <c r="K66" s="3">
         <v>1800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>2000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>2200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>2600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>2000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>1300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>300</v>
-      </c>
-      <c r="W66" s="3">
-        <v>400</v>
-      </c>
-      <c r="X66" s="3">
-        <v>400</v>
       </c>
       <c r="Y66" s="3">
         <v>400</v>
       </c>
       <c r="Z66" s="3">
+        <v>400</v>
+      </c>
+      <c r="AA66" s="3">
+        <v>400</v>
+      </c>
+      <c r="AB66" s="3">
         <v>500</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4857,8 +5178,10 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4934,8 +5257,14 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5011,8 +5340,14 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5088,8 +5423,14 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5165,85 +5506,97 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="F72" s="3">
         <v>-6100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-5300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-4800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-4200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-4200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-3700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-3400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-3100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-3500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-3000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-2600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-2200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-2900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-3000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-2800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-2500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-2100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-300</v>
       </c>
-      <c r="Y72" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB72" s="3">
         <v>-100</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5319,8 +5672,14 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5396,8 +5755,14 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5473,85 +5838,97 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F76" s="3">
         <v>-1600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1000</v>
-      </c>
-      <c r="K76" s="3">
-        <v>1400</v>
-      </c>
-      <c r="L76" s="3">
-        <v>900</v>
       </c>
       <c r="M76" s="3">
         <v>1400</v>
       </c>
       <c r="N76" s="3">
+        <v>900</v>
+      </c>
+      <c r="O76" s="3">
+        <v>1400</v>
+      </c>
+      <c r="P76" s="3">
         <v>1800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>2200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>1200</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>1500</v>
-      </c>
-      <c r="R76" s="3">
-        <v>1300</v>
       </c>
       <c r="S76" s="3">
         <v>1500</v>
       </c>
       <c r="T76" s="3">
+        <v>1300</v>
+      </c>
+      <c r="U76" s="3">
+        <v>1500</v>
+      </c>
+      <c r="V76" s="3">
         <v>1800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>2200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>3500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>3500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>4000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>4400</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>4200</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5627,90 +6004,102 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44919</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44828</v>
+      </c>
+      <c r="F80" s="2">
         <v>44737</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44464</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44374</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44282</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44191</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44009</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43918</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43827</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43736</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43645</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43554</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43463</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43372</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43099</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42917</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42826</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -5718,76 +6107,82 @@
         <v>-800</v>
       </c>
       <c r="E81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="G81" s="3">
         <v>-500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-600</v>
       </c>
-      <c r="G81" s="3">
-        <v>100</v>
-      </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
+        <v>100</v>
+      </c>
+      <c r="J81" s="3">
         <v>-500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>400</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-500</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-400</v>
       </c>
       <c r="N81" s="3">
         <v>-500</v>
       </c>
       <c r="O81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Q81" s="3">
         <v>1000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-300</v>
       </c>
-      <c r="Y81" s="3">
-        <v>100</v>
-      </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB81" s="3">
         <v>-700</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5815,8 +6210,10 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5892,8 +6289,14 @@
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5969,8 +6372,14 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6046,8 +6455,14 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6123,8 +6538,14 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6200,8 +6621,14 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6277,67 +6704,73 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-400</v>
+        <v>-700</v>
       </c>
       <c r="E89" s="3">
-        <v>-800</v>
+        <v>-700</v>
       </c>
       <c r="F89" s="3">
         <v>-400</v>
       </c>
       <c r="G89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I89" s="3">
         <v>-500</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-800</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-600</v>
       </c>
       <c r="J89" s="3">
         <v>-800</v>
       </c>
       <c r="K89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="L89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="M89" s="3">
         <v>400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
         <v>-200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-100</v>
-      </c>
-      <c r="U89" s="3">
-        <v>-300</v>
-      </c>
-      <c r="V89" s="3">
-        <v>200</v>
       </c>
       <c r="W89" s="3">
         <v>-300</v>
@@ -6346,16 +6779,22 @@
         <v>200</v>
       </c>
       <c r="Y89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Z89" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA89" s="3">
         <v>-500</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>-1200</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6383,8 +6822,10 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6415,41 +6856,41 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="O91" s="3">
-        <v>0</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>19</v>
+      <c r="Q91" s="3">
+        <v>0</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
-      <c r="U91" s="3" t="s">
+      <c r="S91" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="V91" s="3" t="s">
+      <c r="T91" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="W91" s="3">
-        <v>0</v>
-      </c>
-      <c r="X91" s="3">
-        <v>0</v>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="X91" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="Y91" s="3">
         <v>0</v>
@@ -6460,8 +6901,14 @@
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6537,8 +6984,14 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6614,49 +7067,55 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>19</v>
+      <c r="M94" s="3">
+        <v>0</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-      <c r="P94" s="3">
-        <v>0</v>
+      <c r="O94" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="Q94" s="3">
         <v>0</v>
@@ -6668,13 +7127,13 @@
         <v>0</v>
       </c>
       <c r="T94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V94" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W94" s="3">
         <v>100</v>
@@ -6683,16 +7142,22 @@
         <v>200</v>
       </c>
       <c r="Y94" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z94" s="3">
         <v>200</v>
       </c>
-      <c r="Z94" s="3">
-        <v>0</v>
-      </c>
       <c r="AA94" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC94" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6720,8 +7185,10 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6797,8 +7264,14 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6874,8 +7347,14 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6951,8 +7430,14 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7028,40 +7513,46 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>700</v>
+      </c>
+      <c r="E100" s="3">
+        <v>700</v>
+      </c>
+      <c r="F100" s="3">
         <v>500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>500</v>
       </c>
-      <c r="I100" s="3" t="s">
+      <c r="K100" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K100" s="3">
-        <v>200</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>19</v>
+      <c r="M100" s="3">
+        <v>200</v>
       </c>
       <c r="N100" s="3" t="s">
         <v>19</v>
@@ -7072,11 +7563,11 @@
       <c r="P100" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
-      <c r="R100" s="3">
-        <v>0</v>
+      <c r="Q100" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R100" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="S100" s="3">
         <v>0</v>
@@ -7105,8 +7596,14 @@
       <c r="AA100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7182,67 +7679,73 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
       </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
-        <v>100</v>
-      </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
+        <v>100</v>
+      </c>
+      <c r="J102" s="3">
         <v>-300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>-200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>500</v>
       </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
-      <c r="U102" s="3">
-        <v>-200</v>
-      </c>
       <c r="V102" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="W102" s="3">
         <v>-200</v>
@@ -7251,12 +7754,18 @@
         <v>400</v>
       </c>
       <c r="Y102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Z102" s="3">
+        <v>400</v>
+      </c>
+      <c r="AA102" s="3">
         <v>-300</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>-1200</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TCCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TCCO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
   <si>
     <t>TCCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,188 +665,192 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45010</v>
+      </c>
+      <c r="E7" s="2">
         <v>44919</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44828</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44737</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44464</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44374</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44282</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44191</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44009</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43918</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43827</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43736</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43645</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43554</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43463</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43372</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43099</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42917</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42826</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
-        <v>100</v>
+      <c r="D8" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="E8" s="3">
+        <v>100</v>
+      </c>
+      <c r="F8" s="3">
         <v>200</v>
       </c>
-      <c r="F8" s="3">
-        <v>100</v>
-      </c>
       <c r="G8" s="3">
+        <v>100</v>
+      </c>
+      <c r="H8" s="3">
         <v>600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>600</v>
-      </c>
-      <c r="O8" s="3">
-        <v>700</v>
       </c>
       <c r="P8" s="3">
         <v>700</v>
       </c>
       <c r="Q8" s="3">
+        <v>700</v>
+      </c>
+      <c r="R8" s="3">
         <v>2700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1900</v>
-      </c>
-      <c r="T8" s="3">
-        <v>1100</v>
       </c>
       <c r="U8" s="3">
         <v>1100</v>
       </c>
       <c r="V8" s="3">
+        <v>1100</v>
+      </c>
+      <c r="W8" s="3">
         <v>900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>800</v>
-      </c>
-      <c r="X8" s="3">
-        <v>1100</v>
       </c>
       <c r="Y8" s="3">
         <v>1100</v>
@@ -855,16 +859,19 @@
         <v>1100</v>
       </c>
       <c r="AA8" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AB8" s="3">
         <v>1400</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>600</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -872,138 +879,141 @@
         <v>100</v>
       </c>
       <c r="E9" s="3">
+        <v>100</v>
+      </c>
+      <c r="F9" s="3">
         <v>300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>400</v>
       </c>
-      <c r="L9" s="3">
-        <v>100</v>
-      </c>
       <c r="M9" s="3">
+        <v>100</v>
+      </c>
+      <c r="N9" s="3">
         <v>700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>200</v>
-      </c>
-      <c r="O9" s="3">
-        <v>400</v>
       </c>
       <c r="P9" s="3">
         <v>400</v>
       </c>
       <c r="Q9" s="3">
+        <v>400</v>
+      </c>
+      <c r="R9" s="3">
         <v>1000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>500</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>500</v>
-      </c>
-      <c r="AA9" s="3">
-        <v>200</v>
       </c>
       <c r="AB9" s="3">
         <v>200</v>
       </c>
       <c r="AC9" s="3">
+        <v>200</v>
+      </c>
+      <c r="AD9" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3">
-        <v>0</v>
+      <c r="D10" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="E10" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F10" s="3">
         <v>-100</v>
       </c>
       <c r="G10" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="H10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J10" s="3">
         <v>100</v>
       </c>
       <c r="K10" s="3">
+        <v>100</v>
+      </c>
+      <c r="L10" s="3">
         <v>200</v>
       </c>
-      <c r="L10" s="3">
-        <v>100</v>
-      </c>
       <c r="M10" s="3">
+        <v>100</v>
+      </c>
+      <c r="N10" s="3">
         <v>1400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>400</v>
-      </c>
-      <c r="O10" s="3">
-        <v>300</v>
       </c>
       <c r="P10" s="3">
         <v>300</v>
       </c>
       <c r="Q10" s="3">
+        <v>300</v>
+      </c>
+      <c r="R10" s="3">
         <v>1700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>400</v>
-      </c>
-      <c r="U10" s="3">
-        <v>200</v>
       </c>
       <c r="V10" s="3">
         <v>200</v>
@@ -1012,25 +1022,28 @@
         <v>200</v>
       </c>
       <c r="X10" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y10" s="3">
         <v>600</v>
       </c>
-      <c r="Y10" s="3">
-        <v>100</v>
-      </c>
       <c r="Z10" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA10" s="3">
         <v>600</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>1200</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>400</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1060,13 +1073,14 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E12" s="3">
         <v>300</v>
@@ -1075,46 +1089,46 @@
         <v>300</v>
       </c>
       <c r="G12" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="H12" s="3">
         <v>100</v>
       </c>
       <c r="I12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K12" s="3">
+        <v>100</v>
+      </c>
+      <c r="L12" s="3">
         <v>200</v>
-      </c>
-      <c r="L12" s="3">
-        <v>400</v>
       </c>
       <c r="M12" s="3">
         <v>400</v>
       </c>
       <c r="N12" s="3">
+        <v>400</v>
+      </c>
+      <c r="O12" s="3">
         <v>300</v>
-      </c>
-      <c r="O12" s="3">
-        <v>200</v>
       </c>
       <c r="P12" s="3">
         <v>200</v>
       </c>
       <c r="Q12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S12" s="3">
         <v>0</v>
       </c>
       <c r="T12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U12" s="3">
         <v>100</v>
@@ -1123,7 +1137,7 @@
         <v>100</v>
       </c>
       <c r="W12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="X12" s="3">
         <v>200</v>
@@ -1132,19 +1146,22 @@
         <v>200</v>
       </c>
       <c r="Z12" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA12" s="3">
         <v>400</v>
-      </c>
-      <c r="AA12" s="3">
-        <v>500</v>
       </c>
       <c r="AB12" s="3">
         <v>500</v>
       </c>
       <c r="AC12" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+        <v>500</v>
+      </c>
+      <c r="AD12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1226,46 +1243,49 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="3">
         <v>-500</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>-500</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M14" s="3">
         <v>-500</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1309,8 +1329,11 @@
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1392,8 +1415,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1420,43 +1446,44 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>600</v>
+      </c>
+      <c r="E17" s="3">
         <v>900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>600</v>
-      </c>
-      <c r="J17" s="3">
-        <v>900</v>
       </c>
       <c r="K17" s="3">
         <v>900</v>
       </c>
       <c r="L17" s="3">
+        <v>900</v>
+      </c>
+      <c r="M17" s="3">
         <v>1000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1700</v>
-      </c>
-      <c r="N17" s="3">
-        <v>1100</v>
       </c>
       <c r="O17" s="3">
         <v>1100</v>
@@ -1465,16 +1492,16 @@
         <v>1100</v>
       </c>
       <c r="Q17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="R17" s="3">
         <v>1700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1800</v>
-      </c>
-      <c r="T17" s="3">
-        <v>1400</v>
       </c>
       <c r="U17" s="3">
         <v>1400</v>
@@ -1483,19 +1510,19 @@
         <v>1400</v>
       </c>
       <c r="W17" s="3">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="X17" s="3">
         <v>1200</v>
       </c>
       <c r="Y17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Z17" s="3">
         <v>1600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1400</v>
-      </c>
-      <c r="AA17" s="3">
-        <v>1300</v>
       </c>
       <c r="AB17" s="3">
         <v>1300</v>
@@ -1503,91 +1530,97 @@
       <c r="AC17" s="3">
         <v>1300</v>
       </c>
-    </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD17" s="3">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="3">
         <v>-800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-600</v>
       </c>
-      <c r="I18" s="3">
-        <v>100</v>
-      </c>
       <c r="J18" s="3">
+        <v>100</v>
+      </c>
+      <c r="K18" s="3">
         <v>-500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-500</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-400</v>
       </c>
       <c r="P18" s="3">
         <v>-400</v>
       </c>
       <c r="Q18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R18" s="3">
         <v>1000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-400</v>
       </c>
-      <c r="S18" s="3">
-        <v>100</v>
-      </c>
       <c r="T18" s="3">
-        <v>-300</v>
+        <v>100</v>
       </c>
       <c r="U18" s="3">
         <v>-300</v>
       </c>
       <c r="V18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="W18" s="3">
         <v>-500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-500</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-300</v>
       </c>
-      <c r="AA18" s="3">
-        <v>100</v>
-      </c>
       <c r="AB18" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC18" s="3">
         <v>-700</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1617,13 +1650,14 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1647,11 +1681,11 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>400</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
@@ -1700,91 +1734,97 @@
       <c r="AC20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="3">
         <v>-800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-600</v>
       </c>
-      <c r="I21" s="3">
-        <v>100</v>
-      </c>
       <c r="J21" s="3">
+        <v>100</v>
+      </c>
+      <c r="K21" s="3">
         <v>-500</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-300</v>
       </c>
       <c r="L21" s="3">
         <v>-300</v>
       </c>
       <c r="M21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N21" s="3">
         <v>400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>200</v>
-      </c>
-      <c r="T21" s="3">
-        <v>-200</v>
       </c>
       <c r="U21" s="3">
         <v>-200</v>
       </c>
       <c r="V21" s="3">
-        <v>-400</v>
+        <v>-200</v>
       </c>
       <c r="W21" s="3">
         <v>-400</v>
       </c>
       <c r="X21" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="Y21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="3">
         <v>-500</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-300</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>200</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>-700</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1792,7 +1832,7 @@
         <v>100</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -1818,8 +1858,8 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>19</v>
+      <c r="N22" s="3">
+        <v>0</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>19</v>
@@ -1833,8 +1873,8 @@
       <c r="R22" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
+      <c r="S22" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="T22" s="3">
         <v>0</v>
@@ -1866,91 +1906,97 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-600</v>
       </c>
-      <c r="I23" s="3">
-        <v>100</v>
-      </c>
       <c r="J23" s="3">
+        <v>100</v>
+      </c>
+      <c r="K23" s="3">
         <v>-500</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-300</v>
       </c>
       <c r="L23" s="3">
         <v>-300</v>
       </c>
       <c r="M23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N23" s="3">
         <v>400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-300</v>
-      </c>
-      <c r="V23" s="3">
-        <v>-400</v>
       </c>
       <c r="W23" s="3">
         <v>-400</v>
       </c>
       <c r="X23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Y23" s="3">
         <v>-100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-500</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-300</v>
       </c>
-      <c r="AA23" s="3">
-        <v>100</v>
-      </c>
       <c r="AB23" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC23" s="3">
         <v>-700</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
@@ -2014,26 +2060,29 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-      <c r="X24" s="3" t="s">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Y24" s="3">
-        <v>0</v>
-      </c>
       <c r="Z24" s="3">
         <v>0</v>
       </c>
-      <c r="AA24" s="3" t="s">
-        <v>19</v>
+      <c r="AA24" s="3">
+        <v>0</v>
       </c>
       <c r="AB24" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="AC24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2115,174 +2164,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-600</v>
       </c>
-      <c r="I26" s="3">
-        <v>100</v>
-      </c>
       <c r="J26" s="3">
+        <v>100</v>
+      </c>
+      <c r="K26" s="3">
         <v>-500</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-300</v>
       </c>
       <c r="L26" s="3">
         <v>-300</v>
       </c>
       <c r="M26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N26" s="3">
         <v>400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-300</v>
-      </c>
-      <c r="V26" s="3">
-        <v>-400</v>
       </c>
       <c r="W26" s="3">
         <v>-400</v>
       </c>
       <c r="X26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Y26" s="3">
         <v>-100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-500</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-300</v>
       </c>
-      <c r="AA26" s="3">
-        <v>100</v>
-      </c>
       <c r="AB26" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC26" s="3">
         <v>-700</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-600</v>
       </c>
-      <c r="I27" s="3">
-        <v>100</v>
-      </c>
       <c r="J27" s="3">
+        <v>100</v>
+      </c>
+      <c r="K27" s="3">
         <v>-500</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-300</v>
       </c>
       <c r="L27" s="3">
         <v>-300</v>
       </c>
       <c r="M27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N27" s="3">
         <v>400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-300</v>
-      </c>
-      <c r="V27" s="3">
-        <v>-400</v>
       </c>
       <c r="W27" s="3">
         <v>-400</v>
       </c>
       <c r="X27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Y27" s="3">
         <v>-100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-500</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-300</v>
       </c>
-      <c r="AA27" s="3">
-        <v>100</v>
-      </c>
       <c r="AB27" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC27" s="3">
         <v>-700</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2364,8 +2422,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2447,8 +2508,11 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2530,8 +2594,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2613,13 +2680,16 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2643,11 +2713,11 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-400</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
@@ -2696,91 +2766,97 @@
       <c r="AC32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-600</v>
       </c>
-      <c r="I33" s="3">
-        <v>100</v>
-      </c>
       <c r="J33" s="3">
+        <v>100</v>
+      </c>
+      <c r="K33" s="3">
         <v>-500</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-300</v>
       </c>
       <c r="L33" s="3">
         <v>-300</v>
       </c>
       <c r="M33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N33" s="3">
         <v>400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-300</v>
-      </c>
-      <c r="V33" s="3">
-        <v>-400</v>
       </c>
       <c r="W33" s="3">
         <v>-400</v>
       </c>
       <c r="X33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Y33" s="3">
         <v>-100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-500</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-300</v>
       </c>
-      <c r="AA33" s="3">
-        <v>100</v>
-      </c>
       <c r="AB33" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC33" s="3">
         <v>-700</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2862,179 +2938,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-600</v>
       </c>
-      <c r="I35" s="3">
-        <v>100</v>
-      </c>
       <c r="J35" s="3">
+        <v>100</v>
+      </c>
+      <c r="K35" s="3">
         <v>-500</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-300</v>
       </c>
       <c r="L35" s="3">
         <v>-300</v>
       </c>
       <c r="M35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N35" s="3">
         <v>400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-300</v>
-      </c>
-      <c r="V35" s="3">
-        <v>-400</v>
       </c>
       <c r="W35" s="3">
         <v>-400</v>
       </c>
       <c r="X35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Y35" s="3">
         <v>-100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-500</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-300</v>
       </c>
-      <c r="AA35" s="3">
-        <v>100</v>
-      </c>
       <c r="AB35" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC35" s="3">
         <v>-700</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45010</v>
+      </c>
+      <c r="E38" s="2">
         <v>44919</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44828</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44737</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44464</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44374</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44282</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44191</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44009</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43918</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43827</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43736</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43645</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43554</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43463</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43372</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43099</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42917</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42826</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3064,8 +3149,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3095,16 +3181,17 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F41" s="3">
         <v>0</v>
@@ -3113,73 +3200,76 @@
         <v>0</v>
       </c>
       <c r="H41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I41" s="3">
+        <v>100</v>
+      </c>
+      <c r="J41" s="3">
         <v>300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1300</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1500</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>1100</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>1400</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3241,111 +3331,117 @@
         <v>0</v>
       </c>
       <c r="W42" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X42" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y42" s="3">
         <v>200</v>
-      </c>
-      <c r="Y42" s="3">
-        <v>400</v>
       </c>
       <c r="Z42" s="3">
         <v>400</v>
       </c>
       <c r="AA42" s="3">
+        <v>400</v>
+      </c>
+      <c r="AB42" s="3">
         <v>600</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>500</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="E43" s="3">
         <v>500</v>
       </c>
       <c r="F43" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
         <v>400</v>
       </c>
-      <c r="H43" s="3">
-        <v>100</v>
-      </c>
       <c r="I43" s="3">
+        <v>100</v>
+      </c>
+      <c r="J43" s="3">
         <v>300</v>
-      </c>
-      <c r="J43" s="3">
-        <v>200</v>
       </c>
       <c r="K43" s="3">
         <v>200</v>
       </c>
       <c r="L43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M43" s="3">
         <v>100</v>
       </c>
       <c r="N43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
         <v>200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>300</v>
       </c>
-      <c r="Q43" s="3">
-        <v>100</v>
-      </c>
       <c r="R43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S43" s="3">
+        <v>0</v>
+      </c>
+      <c r="T43" s="3">
         <v>300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>200</v>
-      </c>
-      <c r="U43" s="3">
-        <v>600</v>
       </c>
       <c r="V43" s="3">
         <v>600</v>
       </c>
       <c r="W43" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="X43" s="3">
         <v>300</v>
       </c>
       <c r="Y43" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z43" s="3">
         <v>700</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>400</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>900</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>500</v>
       </c>
-      <c r="AC43" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3356,7 +3452,7 @@
         <v>1000</v>
       </c>
       <c r="F44" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="G44" s="3">
         <v>1100</v>
@@ -3365,25 +3461,25 @@
         <v>1100</v>
       </c>
       <c r="I44" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J44" s="3">
         <v>1200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1100</v>
-      </c>
-      <c r="O44" s="3">
-        <v>1000</v>
       </c>
       <c r="P44" s="3">
         <v>1000</v>
@@ -3392,31 +3488,31 @@
         <v>1000</v>
       </c>
       <c r="R44" s="3">
+        <v>1000</v>
+      </c>
+      <c r="S44" s="3">
         <v>1100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1000</v>
-      </c>
-      <c r="T44" s="3">
-        <v>1400</v>
       </c>
       <c r="U44" s="3">
         <v>1400</v>
       </c>
       <c r="V44" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="W44" s="3">
         <v>1500</v>
       </c>
       <c r="X44" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="Y44" s="3">
         <v>1400</v>
       </c>
       <c r="Z44" s="3">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="AA44" s="3">
         <v>1800</v>
@@ -3425,10 +3521,13 @@
         <v>1800</v>
       </c>
       <c r="AC44" s="3">
+        <v>1800</v>
+      </c>
+      <c r="AD44" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3445,10 +3544,10 @@
         <v>200</v>
       </c>
       <c r="H45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J45" s="3">
         <v>200</v>
@@ -3457,14 +3556,14 @@
         <v>200</v>
       </c>
       <c r="L45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M45" s="3">
+        <v>100</v>
+      </c>
+      <c r="N45" s="3">
         <v>200</v>
       </c>
-      <c r="N45" s="3">
-        <v>100</v>
-      </c>
       <c r="O45" s="3">
         <v>100</v>
       </c>
@@ -3487,19 +3586,19 @@
         <v>100</v>
       </c>
       <c r="V45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W45" s="3">
         <v>200</v>
       </c>
       <c r="X45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Y45" s="3">
         <v>100</v>
       </c>
       <c r="Z45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AA45" s="3">
         <v>200</v>
@@ -3510,91 +3609,97 @@
       <c r="AC45" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1700</v>
+        <v>1500</v>
       </c>
       <c r="E46" s="3">
         <v>1700</v>
       </c>
       <c r="F46" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G46" s="3">
         <v>1300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1500</v>
-      </c>
-      <c r="I46" s="3">
-        <v>1900</v>
       </c>
       <c r="J46" s="3">
         <v>1900</v>
       </c>
       <c r="K46" s="3">
+        <v>1900</v>
+      </c>
+      <c r="L46" s="3">
         <v>2000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>4100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>3700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>3500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>3700</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>3900</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>4300</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>4700</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>4400</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3658,12 +3763,12 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-      <c r="X47" s="3" t="s">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Y47" s="3">
-        <v>0</v>
-      </c>
       <c r="Z47" s="3">
         <v>0</v>
       </c>
@@ -3671,13 +3776,16 @@
         <v>0</v>
       </c>
       <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="3">
         <v>200</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3685,7 +3793,7 @@
         <v>200</v>
       </c>
       <c r="E48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F48" s="3">
         <v>300</v>
@@ -3694,13 +3802,13 @@
         <v>300</v>
       </c>
       <c r="H48" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="I48" s="3">
         <v>400</v>
       </c>
       <c r="J48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K48" s="3">
         <v>500</v>
@@ -3709,19 +3817,19 @@
         <v>500</v>
       </c>
       <c r="M48" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N48" s="3">
         <v>600</v>
       </c>
       <c r="O48" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="P48" s="3">
         <v>700</v>
       </c>
       <c r="Q48" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="R48" s="3">
         <v>0</v>
@@ -3736,16 +3844,16 @@
         <v>0</v>
       </c>
       <c r="V48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W48" s="3">
         <v>100</v>
       </c>
       <c r="X48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z48" s="3">
         <v>100</v>
@@ -3757,10 +3865,13 @@
         <v>100</v>
       </c>
       <c r="AC48" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD48" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3842,8 +3953,11 @@
       <c r="AC49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3925,8 +4039,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4008,8 +4125,11 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4091,8 +4211,11 @@
       <c r="AC52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4174,91 +4297,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E54" s="3">
         <v>1900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1800</v>
-      </c>
-      <c r="I54" s="3">
-        <v>2300</v>
       </c>
       <c r="J54" s="3">
         <v>2300</v>
       </c>
       <c r="K54" s="3">
+        <v>2300</v>
+      </c>
+      <c r="L54" s="3">
         <v>2500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>3500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>4100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>3800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>3500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>3800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>3900</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>4400</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>4800</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>4700</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4288,8 +4417,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4319,8 +4449,9 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4328,49 +4459,49 @@
         <v>300</v>
       </c>
       <c r="E57" s="3">
+        <v>300</v>
+      </c>
+      <c r="F57" s="3">
         <v>200</v>
       </c>
-      <c r="F57" s="3">
-        <v>100</v>
-      </c>
       <c r="G57" s="3">
         <v>100</v>
       </c>
       <c r="H57" s="3">
+        <v>100</v>
+      </c>
+      <c r="I57" s="3">
         <v>200</v>
       </c>
-      <c r="I57" s="3">
-        <v>100</v>
-      </c>
       <c r="J57" s="3">
         <v>100</v>
       </c>
       <c r="K57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L57" s="3">
         <v>200</v>
       </c>
       <c r="M57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N57" s="3">
         <v>100</v>
       </c>
       <c r="O57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q57" s="3">
+        <v>100</v>
+      </c>
+      <c r="R57" s="3">
         <v>400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>300</v>
-      </c>
-      <c r="S57" s="3">
-        <v>200</v>
       </c>
       <c r="T57" s="3">
         <v>200</v>
@@ -4379,7 +4510,7 @@
         <v>200</v>
       </c>
       <c r="V57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W57" s="3">
         <v>100</v>
@@ -4397,45 +4528,48 @@
         <v>100</v>
       </c>
       <c r="AB57" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC57" s="3">
         <v>200</v>
       </c>
-      <c r="AC57" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>800</v>
+      </c>
+      <c r="E58" s="3">
         <v>3700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>3000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>500</v>
       </c>
-      <c r="K58" s="3" t="s">
+      <c r="L58" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>19</v>
+      <c r="M58" s="3">
+        <v>0</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>19</v>
@@ -4452,8 +4586,8 @@
       <c r="R58" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="S58" s="3">
-        <v>0</v>
+      <c r="S58" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="T58" s="3">
         <v>0</v>
@@ -4485,13 +4619,16 @@
       <c r="AC58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E59" s="3">
         <v>500</v>
@@ -4500,61 +4637,61 @@
         <v>500</v>
       </c>
       <c r="G59" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="H59" s="3">
         <v>400</v>
       </c>
       <c r="I59" s="3">
+        <v>400</v>
+      </c>
+      <c r="J59" s="3">
         <v>700</v>
-      </c>
-      <c r="J59" s="3">
-        <v>1100</v>
       </c>
       <c r="K59" s="3">
         <v>1100</v>
       </c>
       <c r="L59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M59" s="3">
         <v>700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>200</v>
-      </c>
-      <c r="Y59" s="3">
-        <v>300</v>
       </c>
       <c r="Z59" s="3">
         <v>300</v>
@@ -4566,78 +4703,81 @@
         <v>300</v>
       </c>
       <c r="AC59" s="3">
+        <v>300</v>
+      </c>
+      <c r="AD59" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E60" s="3">
         <v>4500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1700</v>
-      </c>
-      <c r="I60" s="3">
-        <v>1600</v>
       </c>
       <c r="J60" s="3">
         <v>1600</v>
       </c>
       <c r="K60" s="3">
+        <v>1600</v>
+      </c>
+      <c r="L60" s="3">
         <v>1300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>300</v>
-      </c>
-      <c r="Y60" s="3">
-        <v>400</v>
       </c>
       <c r="Z60" s="3">
         <v>400</v>
@@ -4646,18 +4786,21 @@
         <v>400</v>
       </c>
       <c r="AB60" s="3">
+        <v>400</v>
+      </c>
+      <c r="AC60" s="3">
         <v>500</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>100</v>
+        <v>3400</v>
       </c>
       <c r="E61" s="3">
         <v>100</v>
@@ -4672,7 +4815,7 @@
         <v>100</v>
       </c>
       <c r="I61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J61" s="3">
         <v>200</v>
@@ -4681,14 +4824,14 @@
         <v>200</v>
       </c>
       <c r="L61" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M61" s="3">
+        <v>100</v>
+      </c>
+      <c r="N61" s="3">
         <v>200</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -4734,8 +4877,11 @@
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4743,13 +4889,13 @@
         <v>0</v>
       </c>
       <c r="E62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F62" s="3">
         <v>100</v>
       </c>
       <c r="G62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H62" s="3">
         <v>200</v>
@@ -4758,13 +4904,13 @@
         <v>200</v>
       </c>
       <c r="J62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K62" s="3">
         <v>300</v>
       </c>
       <c r="L62" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="M62" s="3">
         <v>400</v>
@@ -4773,13 +4919,13 @@
         <v>400</v>
       </c>
       <c r="O62" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="P62" s="3">
         <v>500</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>19</v>
+      <c r="Q62" s="3">
+        <v>500</v>
       </c>
       <c r="R62" s="3" t="s">
         <v>19</v>
@@ -4796,8 +4942,8 @@
       <c r="V62" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="W62" s="3">
-        <v>0</v>
+      <c r="W62" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="X62" s="3">
         <v>0</v>
@@ -4817,8 +4963,11 @@
       <c r="AC62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4900,8 +5049,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4983,8 +5135,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5066,76 +5221,79 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E66" s="3">
         <v>4700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>300</v>
-      </c>
-      <c r="Y66" s="3">
-        <v>400</v>
       </c>
       <c r="Z66" s="3">
         <v>400</v>
@@ -5144,13 +5302,16 @@
         <v>400</v>
       </c>
       <c r="AB66" s="3">
+        <v>400</v>
+      </c>
+      <c r="AC66" s="3">
         <v>500</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5180,8 +5341,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5263,8 +5425,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5346,8 +5511,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5429,8 +5597,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5512,91 +5683,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-7300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-6500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-6100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-5300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-4800</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-4200</v>
       </c>
       <c r="J72" s="3">
         <v>-4200</v>
       </c>
       <c r="K72" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="L72" s="3">
         <v>-3700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-3400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-3100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-3500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-3000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-2200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-3200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-2900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-3000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-2800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-2500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-2100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-300</v>
       </c>
-      <c r="AA72" s="3">
-        <v>0</v>
-      </c>
       <c r="AB72" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC72" s="3">
         <v>-100</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5678,8 +5855,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5761,8 +5941,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5844,91 +6027,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E76" s="3">
         <v>-2800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-1900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-1600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2200</v>
-      </c>
-      <c r="X76" s="3">
-        <v>3500</v>
       </c>
       <c r="Y76" s="3">
         <v>3500</v>
       </c>
       <c r="Z76" s="3">
+        <v>3500</v>
+      </c>
+      <c r="AA76" s="3">
         <v>4000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>4400</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>4200</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6010,179 +6199,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45010</v>
+      </c>
+      <c r="E80" s="2">
         <v>44919</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44828</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44737</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44464</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44374</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44282</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44191</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44009</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43918</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43827</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43736</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43645</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43554</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43463</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43372</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43099</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42917</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42826</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-600</v>
       </c>
-      <c r="I81" s="3">
-        <v>100</v>
-      </c>
       <c r="J81" s="3">
+        <v>100</v>
+      </c>
+      <c r="K81" s="3">
         <v>-500</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-300</v>
       </c>
       <c r="L81" s="3">
         <v>-300</v>
       </c>
       <c r="M81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N81" s="3">
         <v>400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-300</v>
-      </c>
-      <c r="V81" s="3">
-        <v>-400</v>
       </c>
       <c r="W81" s="3">
         <v>-400</v>
       </c>
       <c r="X81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Y81" s="3">
         <v>-100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-500</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-300</v>
       </c>
-      <c r="AA81" s="3">
-        <v>100</v>
-      </c>
       <c r="AB81" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC81" s="3">
         <v>-700</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6212,8 +6410,9 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6295,8 +6494,11 @@
       <c r="AC83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6378,8 +6580,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6461,8 +6666,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6544,8 +6752,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6627,8 +6838,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6710,91 +6924,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-700</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
         <v>-700</v>
       </c>
       <c r="F89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G89" s="3">
         <v>-400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>400</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-100</v>
       </c>
       <c r="O89" s="3">
         <v>-100</v>
       </c>
       <c r="P89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1000</v>
       </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
       <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
         <v>-200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-300</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>200</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-500</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-1200</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6824,8 +7044,9 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6862,17 +7083,17 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>19</v>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
-      <c r="R91" s="3" t="s">
+      <c r="Q91" s="3" t="s">
         <v>19</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
       </c>
       <c r="S91" s="3" t="s">
         <v>19</v>
@@ -6880,20 +7101,20 @@
       <c r="T91" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
+      <c r="U91" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="V91" s="3">
         <v>0</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>19</v>
+      <c r="W91" s="3">
+        <v>0</v>
       </c>
       <c r="X91" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Y91" s="3">
-        <v>0</v>
+      <c r="Y91" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="Z91" s="3">
         <v>0</v>
@@ -6907,8 +7128,11 @@
       <c r="AC91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6990,8 +7214,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7073,8 +7300,11 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7099,17 +7329,17 @@
       <c r="J94" s="3">
         <v>0</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>19</v>
+      <c r="K94" s="3">
+        <v>0</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3" t="s">
+      <c r="M94" s="3" t="s">
         <v>19</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>19</v>
@@ -7117,8 +7347,8 @@
       <c r="P94" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
+      <c r="Q94" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="R94" s="3">
         <v>0</v>
@@ -7133,31 +7363,34 @@
         <v>0</v>
       </c>
       <c r="V94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W94" s="3">
         <v>100</v>
       </c>
       <c r="X94" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y94" s="3">
         <v>200</v>
       </c>
-      <c r="Y94" s="3">
-        <v>100</v>
-      </c>
       <c r="Z94" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AA94" s="3">
         <v>200</v>
       </c>
       <c r="AB94" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD94" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7187,8 +7420,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7270,8 +7504,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7353,8 +7590,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7436,8 +7676,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7519,43 +7762,46 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="E100" s="3">
         <v>700</v>
       </c>
       <c r="F100" s="3">
+        <v>700</v>
+      </c>
+      <c r="G100" s="3">
         <v>500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>500</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N100" s="3">
         <v>200</v>
-      </c>
-      <c r="N100" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="O100" s="3" t="s">
         <v>19</v>
@@ -7569,8 +7815,8 @@
       <c r="R100" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
+      <c r="S100" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="T100" s="3">
         <v>0</v>
@@ -7602,8 +7848,11 @@
       <c r="AC100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7685,8 +7934,11 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7694,7 +7946,7 @@
         <v>100</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F102" s="3">
         <v>0</v>
@@ -7703,69 +7955,72 @@
         <v>0</v>
       </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3">
-        <v>100</v>
-      </c>
       <c r="J102" s="3">
+        <v>100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1000</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>-200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>500</v>
       </c>
-      <c r="V102" s="3">
-        <v>0</v>
-      </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>-200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-200</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>400</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-300</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-1200</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TCCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TCCO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="92">
   <si>
     <t>TCCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,127 +665,131 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45101</v>
+      </c>
+      <c r="E7" s="2">
         <v>45010</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44919</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44828</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44737</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44464</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44374</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44282</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44191</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44009</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43918</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43827</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43736</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43645</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43554</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43463</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43372</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43099</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42917</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42826</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -793,67 +797,67 @@
         <v>19</v>
       </c>
       <c r="E8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F8" s="3">
+        <v>100</v>
+      </c>
+      <c r="G8" s="3">
         <v>200</v>
       </c>
-      <c r="G8" s="3">
-        <v>100</v>
-      </c>
       <c r="H8" s="3">
+        <v>100</v>
+      </c>
+      <c r="I8" s="3">
         <v>600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>600</v>
-      </c>
-      <c r="P8" s="3">
-        <v>700</v>
       </c>
       <c r="Q8" s="3">
         <v>700</v>
       </c>
       <c r="R8" s="3">
+        <v>700</v>
+      </c>
+      <c r="S8" s="3">
         <v>2700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1900</v>
-      </c>
-      <c r="U8" s="3">
-        <v>1100</v>
       </c>
       <c r="V8" s="3">
         <v>1100</v>
       </c>
       <c r="W8" s="3">
+        <v>1100</v>
+      </c>
+      <c r="X8" s="3">
         <v>900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>800</v>
-      </c>
-      <c r="Y8" s="3">
-        <v>1100</v>
       </c>
       <c r="Z8" s="3">
         <v>1100</v>
@@ -862,16 +866,19 @@
         <v>1100</v>
       </c>
       <c r="AB8" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AC8" s="3">
         <v>1400</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>600</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -882,82 +889,85 @@
         <v>100</v>
       </c>
       <c r="F9" s="3">
+        <v>100</v>
+      </c>
+      <c r="G9" s="3">
         <v>300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>400</v>
       </c>
-      <c r="M9" s="3">
-        <v>100</v>
-      </c>
       <c r="N9" s="3">
+        <v>100</v>
+      </c>
+      <c r="O9" s="3">
         <v>700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>200</v>
-      </c>
-      <c r="P9" s="3">
-        <v>400</v>
       </c>
       <c r="Q9" s="3">
         <v>400</v>
       </c>
       <c r="R9" s="3">
+        <v>400</v>
+      </c>
+      <c r="S9" s="3">
         <v>1000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>600</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>500</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>500</v>
-      </c>
-      <c r="AB9" s="3">
-        <v>200</v>
       </c>
       <c r="AC9" s="3">
         <v>200</v>
       </c>
       <c r="AD9" s="3">
+        <v>200</v>
+      </c>
+      <c r="AE9" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -965,58 +975,58 @@
         <v>19</v>
       </c>
       <c r="E10" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F10" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G10" s="3">
         <v>-100</v>
       </c>
       <c r="H10" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="I10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K10" s="3">
         <v>100</v>
       </c>
       <c r="L10" s="3">
+        <v>100</v>
+      </c>
+      <c r="M10" s="3">
         <v>200</v>
       </c>
-      <c r="M10" s="3">
-        <v>100</v>
-      </c>
       <c r="N10" s="3">
+        <v>100</v>
+      </c>
+      <c r="O10" s="3">
         <v>1400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>400</v>
-      </c>
-      <c r="P10" s="3">
-        <v>300</v>
       </c>
       <c r="Q10" s="3">
         <v>300</v>
       </c>
       <c r="R10" s="3">
+        <v>300</v>
+      </c>
+      <c r="S10" s="3">
         <v>1700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>400</v>
-      </c>
-      <c r="V10" s="3">
-        <v>200</v>
       </c>
       <c r="W10" s="3">
         <v>200</v>
@@ -1025,25 +1035,28 @@
         <v>200</v>
       </c>
       <c r="Y10" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z10" s="3">
         <v>600</v>
       </c>
-      <c r="Z10" s="3">
-        <v>100</v>
-      </c>
       <c r="AA10" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB10" s="3">
         <v>600</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>1200</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>400</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1074,16 +1087,17 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>100</v>
+      </c>
+      <c r="E12" s="3">
         <v>200</v>
-      </c>
-      <c r="E12" s="3">
-        <v>300</v>
       </c>
       <c r="F12" s="3">
         <v>300</v>
@@ -1092,46 +1106,46 @@
         <v>300</v>
       </c>
       <c r="H12" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="I12" s="3">
         <v>100</v>
       </c>
       <c r="J12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L12" s="3">
+        <v>100</v>
+      </c>
+      <c r="M12" s="3">
         <v>200</v>
-      </c>
-      <c r="M12" s="3">
-        <v>400</v>
       </c>
       <c r="N12" s="3">
         <v>400</v>
       </c>
       <c r="O12" s="3">
+        <v>400</v>
+      </c>
+      <c r="P12" s="3">
         <v>300</v>
-      </c>
-      <c r="P12" s="3">
-        <v>200</v>
       </c>
       <c r="Q12" s="3">
         <v>200</v>
       </c>
       <c r="R12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T12" s="3">
         <v>0</v>
       </c>
       <c r="U12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V12" s="3">
         <v>100</v>
@@ -1140,7 +1154,7 @@
         <v>100</v>
       </c>
       <c r="X12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Y12" s="3">
         <v>200</v>
@@ -1149,19 +1163,22 @@
         <v>200</v>
       </c>
       <c r="AA12" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB12" s="3">
         <v>400</v>
-      </c>
-      <c r="AB12" s="3">
-        <v>500</v>
       </c>
       <c r="AC12" s="3">
         <v>500</v>
       </c>
       <c r="AD12" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+        <v>500</v>
+      </c>
+      <c r="AE12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1246,8 +1263,11 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1257,38 +1277,38 @@
       <c r="E14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="3">
         <v>-500</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>-500</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N14" s="3">
         <v>-500</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1332,8 +1352,11 @@
       <c r="AD14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1418,8 +1441,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1447,46 +1473,47 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>400</v>
+      </c>
+      <c r="E17" s="3">
         <v>600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>600</v>
-      </c>
-      <c r="K17" s="3">
-        <v>900</v>
       </c>
       <c r="L17" s="3">
         <v>900</v>
       </c>
       <c r="M17" s="3">
+        <v>900</v>
+      </c>
+      <c r="N17" s="3">
         <v>1000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1700</v>
-      </c>
-      <c r="O17" s="3">
-        <v>1100</v>
       </c>
       <c r="P17" s="3">
         <v>1100</v>
@@ -1495,16 +1522,16 @@
         <v>1100</v>
       </c>
       <c r="R17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="S17" s="3">
         <v>1700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1800</v>
-      </c>
-      <c r="U17" s="3">
-        <v>1400</v>
       </c>
       <c r="V17" s="3">
         <v>1400</v>
@@ -1513,19 +1540,19 @@
         <v>1400</v>
       </c>
       <c r="X17" s="3">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="Y17" s="3">
         <v>1200</v>
       </c>
       <c r="Z17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="AA17" s="3">
         <v>1600</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1400</v>
-      </c>
-      <c r="AB17" s="3">
-        <v>1300</v>
       </c>
       <c r="AC17" s="3">
         <v>1300</v>
@@ -1533,8 +1560,11 @@
       <c r="AD17" s="3">
         <v>1300</v>
       </c>
-    </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE17" s="3">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
@@ -1542,85 +1572,88 @@
         <v>19</v>
       </c>
       <c r="E18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F18" s="3">
         <v>-800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-600</v>
       </c>
-      <c r="J18" s="3">
-        <v>100</v>
-      </c>
       <c r="K18" s="3">
+        <v>100</v>
+      </c>
+      <c r="L18" s="3">
         <v>-500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-500</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-400</v>
       </c>
       <c r="Q18" s="3">
         <v>-400</v>
       </c>
       <c r="R18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S18" s="3">
         <v>1000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-400</v>
       </c>
-      <c r="T18" s="3">
-        <v>100</v>
-      </c>
       <c r="U18" s="3">
-        <v>-300</v>
+        <v>100</v>
       </c>
       <c r="V18" s="3">
         <v>-300</v>
       </c>
       <c r="W18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="X18" s="3">
         <v>-500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-100</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-500</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-300</v>
       </c>
-      <c r="AB18" s="3">
-        <v>100</v>
-      </c>
       <c r="AC18" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD18" s="3">
         <v>-700</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1651,8 +1684,9 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1684,11 +1718,11 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>400</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
@@ -1737,8 +1771,11 @@
       <c r="AD20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1746,85 +1783,88 @@
         <v>19</v>
       </c>
       <c r="E21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F21" s="3">
         <v>-800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-600</v>
       </c>
-      <c r="J21" s="3">
-        <v>100</v>
-      </c>
       <c r="K21" s="3">
+        <v>100</v>
+      </c>
+      <c r="L21" s="3">
         <v>-500</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-300</v>
       </c>
       <c r="M21" s="3">
         <v>-300</v>
       </c>
       <c r="N21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O21" s="3">
         <v>400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>200</v>
-      </c>
-      <c r="U21" s="3">
-        <v>-200</v>
       </c>
       <c r="V21" s="3">
         <v>-200</v>
       </c>
       <c r="W21" s="3">
-        <v>-400</v>
+        <v>-200</v>
       </c>
       <c r="X21" s="3">
         <v>-400</v>
       </c>
       <c r="Y21" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="Z21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="3">
         <v>-500</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-300</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>200</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>-700</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1835,7 +1875,7 @@
         <v>100</v>
       </c>
       <c r="F22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -1861,8 +1901,8 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>19</v>
+      <c r="O22" s="3">
+        <v>0</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>19</v>
@@ -1876,8 +1916,8 @@
       <c r="S22" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
+      <c r="T22" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="U22" s="3">
         <v>0</v>
@@ -1909,94 +1949,100 @@
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-600</v>
       </c>
-      <c r="J23" s="3">
-        <v>100</v>
-      </c>
       <c r="K23" s="3">
+        <v>100</v>
+      </c>
+      <c r="L23" s="3">
         <v>-500</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-300</v>
       </c>
       <c r="M23" s="3">
         <v>-300</v>
       </c>
       <c r="N23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O23" s="3">
         <v>400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-300</v>
-      </c>
-      <c r="W23" s="3">
-        <v>-400</v>
       </c>
       <c r="X23" s="3">
         <v>-400</v>
       </c>
       <c r="Y23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Z23" s="3">
         <v>-100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-500</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-300</v>
       </c>
-      <c r="AB23" s="3">
-        <v>100</v>
-      </c>
       <c r="AC23" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD23" s="3">
         <v>-700</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
@@ -2063,26 +2109,29 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-      <c r="Y24" s="3" t="s">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Z24" s="3">
-        <v>0</v>
-      </c>
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-      <c r="AB24" s="3" t="s">
-        <v>19</v>
+      <c r="AB24" s="3">
+        <v>0</v>
       </c>
       <c r="AC24" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="AD24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AD24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2167,180 +2216,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-600</v>
       </c>
-      <c r="J26" s="3">
-        <v>100</v>
-      </c>
       <c r="K26" s="3">
+        <v>100</v>
+      </c>
+      <c r="L26" s="3">
         <v>-500</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-300</v>
       </c>
       <c r="M26" s="3">
         <v>-300</v>
       </c>
       <c r="N26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O26" s="3">
         <v>400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-300</v>
-      </c>
-      <c r="W26" s="3">
-        <v>-400</v>
       </c>
       <c r="X26" s="3">
         <v>-400</v>
       </c>
       <c r="Y26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Z26" s="3">
         <v>-100</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-500</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-300</v>
       </c>
-      <c r="AB26" s="3">
-        <v>100</v>
-      </c>
       <c r="AC26" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD26" s="3">
         <v>-700</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-600</v>
       </c>
-      <c r="J27" s="3">
-        <v>100</v>
-      </c>
       <c r="K27" s="3">
+        <v>100</v>
+      </c>
+      <c r="L27" s="3">
         <v>-500</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-300</v>
       </c>
       <c r="M27" s="3">
         <v>-300</v>
       </c>
       <c r="N27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O27" s="3">
         <v>400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-300</v>
-      </c>
-      <c r="W27" s="3">
-        <v>-400</v>
       </c>
       <c r="X27" s="3">
         <v>-400</v>
       </c>
       <c r="Y27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Z27" s="3">
         <v>-100</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-500</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-300</v>
       </c>
-      <c r="AB27" s="3">
-        <v>100</v>
-      </c>
       <c r="AC27" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD27" s="3">
         <v>-700</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2425,8 +2483,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2511,8 +2572,11 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2597,8 +2661,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2683,8 +2750,11 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2716,11 +2786,11 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-400</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
@@ -2769,94 +2839,100 @@
       <c r="AD32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-600</v>
       </c>
-      <c r="J33" s="3">
-        <v>100</v>
-      </c>
       <c r="K33" s="3">
+        <v>100</v>
+      </c>
+      <c r="L33" s="3">
         <v>-500</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-300</v>
       </c>
       <c r="M33" s="3">
         <v>-300</v>
       </c>
       <c r="N33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O33" s="3">
         <v>400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-300</v>
-      </c>
-      <c r="W33" s="3">
-        <v>-400</v>
       </c>
       <c r="X33" s="3">
         <v>-400</v>
       </c>
       <c r="Y33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Z33" s="3">
         <v>-100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-500</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-300</v>
       </c>
-      <c r="AB33" s="3">
-        <v>100</v>
-      </c>
       <c r="AC33" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD33" s="3">
         <v>-700</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2941,185 +3017,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-600</v>
       </c>
-      <c r="J35" s="3">
-        <v>100</v>
-      </c>
       <c r="K35" s="3">
+        <v>100</v>
+      </c>
+      <c r="L35" s="3">
         <v>-500</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-300</v>
       </c>
       <c r="M35" s="3">
         <v>-300</v>
       </c>
       <c r="N35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O35" s="3">
         <v>400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-300</v>
-      </c>
-      <c r="W35" s="3">
-        <v>-400</v>
       </c>
       <c r="X35" s="3">
         <v>-400</v>
       </c>
       <c r="Y35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Z35" s="3">
         <v>-100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-500</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-300</v>
       </c>
-      <c r="AB35" s="3">
-        <v>100</v>
-      </c>
       <c r="AC35" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD35" s="3">
         <v>-700</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45101</v>
+      </c>
+      <c r="E38" s="2">
         <v>45010</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44919</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44828</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44737</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44464</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44374</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44282</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44191</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44009</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43918</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43827</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43736</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43645</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43554</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43463</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43372</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43099</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42917</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42826</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3150,8 +3235,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3182,19 +3268,20 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
         <v>200</v>
       </c>
-      <c r="E41" s="3">
-        <v>100</v>
-      </c>
       <c r="F41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G41" s="3">
         <v>0</v>
@@ -3203,73 +3290,76 @@
         <v>0</v>
       </c>
       <c r="I41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J41" s="3">
+        <v>100</v>
+      </c>
+      <c r="K41" s="3">
         <v>300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1300</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>1500</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>1100</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>1400</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3334,119 +3424,125 @@
         <v>0</v>
       </c>
       <c r="X42" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y42" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z42" s="3">
         <v>200</v>
-      </c>
-      <c r="Z42" s="3">
-        <v>400</v>
       </c>
       <c r="AA42" s="3">
         <v>400</v>
       </c>
       <c r="AB42" s="3">
+        <v>400</v>
+      </c>
+      <c r="AC42" s="3">
         <v>600</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>500</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E43" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="F43" s="3">
         <v>500</v>
       </c>
       <c r="G43" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
         <v>400</v>
       </c>
-      <c r="I43" s="3">
-        <v>100</v>
-      </c>
       <c r="J43" s="3">
+        <v>100</v>
+      </c>
+      <c r="K43" s="3">
         <v>300</v>
-      </c>
-      <c r="K43" s="3">
-        <v>200</v>
       </c>
       <c r="L43" s="3">
         <v>200</v>
       </c>
       <c r="M43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N43" s="3">
         <v>100</v>
       </c>
       <c r="O43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
         <v>200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>300</v>
       </c>
-      <c r="R43" s="3">
-        <v>100</v>
-      </c>
       <c r="S43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T43" s="3">
+        <v>0</v>
+      </c>
+      <c r="U43" s="3">
         <v>300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>200</v>
-      </c>
-      <c r="V43" s="3">
-        <v>600</v>
       </c>
       <c r="W43" s="3">
         <v>600</v>
       </c>
       <c r="X43" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="Y43" s="3">
         <v>300</v>
       </c>
       <c r="Z43" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA43" s="3">
         <v>700</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>400</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>900</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>500</v>
       </c>
-      <c r="AD43" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="E44" s="3">
         <v>1000</v>
@@ -3455,7 +3551,7 @@
         <v>1000</v>
       </c>
       <c r="G44" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="H44" s="3">
         <v>1100</v>
@@ -3464,25 +3560,25 @@
         <v>1100</v>
       </c>
       <c r="J44" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K44" s="3">
         <v>1200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1100</v>
-      </c>
-      <c r="P44" s="3">
-        <v>1000</v>
       </c>
       <c r="Q44" s="3">
         <v>1000</v>
@@ -3491,31 +3587,31 @@
         <v>1000</v>
       </c>
       <c r="S44" s="3">
+        <v>1000</v>
+      </c>
+      <c r="T44" s="3">
         <v>1100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1000</v>
-      </c>
-      <c r="U44" s="3">
-        <v>1400</v>
       </c>
       <c r="V44" s="3">
         <v>1400</v>
       </c>
       <c r="W44" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="X44" s="3">
         <v>1500</v>
       </c>
       <c r="Y44" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="Z44" s="3">
         <v>1400</v>
       </c>
       <c r="AA44" s="3">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="AB44" s="3">
         <v>1800</v>
@@ -3524,10 +3620,13 @@
         <v>1800</v>
       </c>
       <c r="AD44" s="3">
+        <v>1800</v>
+      </c>
+      <c r="AE44" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3547,10 +3646,10 @@
         <v>200</v>
       </c>
       <c r="I45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K45" s="3">
         <v>200</v>
@@ -3559,14 +3658,14 @@
         <v>200</v>
       </c>
       <c r="M45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N45" s="3">
+        <v>100</v>
+      </c>
+      <c r="O45" s="3">
         <v>200</v>
       </c>
-      <c r="O45" s="3">
-        <v>100</v>
-      </c>
       <c r="P45" s="3">
         <v>100</v>
       </c>
@@ -3589,19 +3688,19 @@
         <v>100</v>
       </c>
       <c r="W45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="X45" s="3">
         <v>200</v>
       </c>
       <c r="Y45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Z45" s="3">
         <v>100</v>
       </c>
       <c r="AA45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AB45" s="3">
         <v>200</v>
@@ -3612,8 +3711,11 @@
       <c r="AD45" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE45" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3621,85 +3723,88 @@
         <v>1500</v>
       </c>
       <c r="E46" s="3">
-        <v>1700</v>
+        <v>1500</v>
       </c>
       <c r="F46" s="3">
         <v>1700</v>
       </c>
       <c r="G46" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H46" s="3">
         <v>1300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1500</v>
-      </c>
-      <c r="J46" s="3">
-        <v>1900</v>
       </c>
       <c r="K46" s="3">
         <v>1900</v>
       </c>
       <c r="L46" s="3">
+        <v>1900</v>
+      </c>
+      <c r="M46" s="3">
         <v>2000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>3400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>4100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>3700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>3500</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>3700</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>3900</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>4300</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>4700</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>4400</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3766,12 +3871,12 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-      <c r="Y47" s="3" t="s">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Z47" s="3">
-        <v>0</v>
-      </c>
       <c r="AA47" s="3">
         <v>0</v>
       </c>
@@ -3779,24 +3884,27 @@
         <v>0</v>
       </c>
       <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="3">
         <v>200</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E48" s="3">
         <v>200</v>
       </c>
       <c r="F48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G48" s="3">
         <v>300</v>
@@ -3805,13 +3913,13 @@
         <v>300</v>
       </c>
       <c r="I48" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="J48" s="3">
         <v>400</v>
       </c>
       <c r="K48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L48" s="3">
         <v>500</v>
@@ -3820,19 +3928,19 @@
         <v>500</v>
       </c>
       <c r="N48" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="O48" s="3">
         <v>600</v>
       </c>
       <c r="P48" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="Q48" s="3">
         <v>700</v>
       </c>
       <c r="R48" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="S48" s="3">
         <v>0</v>
@@ -3847,16 +3955,16 @@
         <v>0</v>
       </c>
       <c r="W48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X48" s="3">
         <v>100</v>
       </c>
       <c r="Y48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA48" s="3">
         <v>100</v>
@@ -3868,10 +3976,13 @@
         <v>100</v>
       </c>
       <c r="AD48" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE48" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3956,8 +4067,11 @@
       <c r="AD49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4042,8 +4156,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4128,8 +4245,11 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4214,8 +4334,11 @@
       <c r="AD52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4300,8 +4423,11 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -4309,85 +4435,88 @@
         <v>1700</v>
       </c>
       <c r="E54" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F54" s="3">
         <v>1900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1800</v>
-      </c>
-      <c r="J54" s="3">
-        <v>2300</v>
       </c>
       <c r="K54" s="3">
         <v>2300</v>
       </c>
       <c r="L54" s="3">
+        <v>2300</v>
+      </c>
+      <c r="M54" s="3">
         <v>2500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>3300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>3500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>4100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>3800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>3500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>3800</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>3900</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>4400</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>4800</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>4700</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4418,8 +4547,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4450,61 +4580,62 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="E57" s="3">
         <v>300</v>
       </c>
       <c r="F57" s="3">
+        <v>300</v>
+      </c>
+      <c r="G57" s="3">
         <v>200</v>
       </c>
-      <c r="G57" s="3">
-        <v>100</v>
-      </c>
       <c r="H57" s="3">
         <v>100</v>
       </c>
       <c r="I57" s="3">
+        <v>100</v>
+      </c>
+      <c r="J57" s="3">
         <v>200</v>
       </c>
-      <c r="J57" s="3">
-        <v>100</v>
-      </c>
       <c r="K57" s="3">
         <v>100</v>
       </c>
       <c r="L57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M57" s="3">
         <v>200</v>
       </c>
       <c r="N57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O57" s="3">
         <v>100</v>
       </c>
       <c r="P57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R57" s="3">
+        <v>100</v>
+      </c>
+      <c r="S57" s="3">
         <v>400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>300</v>
-      </c>
-      <c r="T57" s="3">
-        <v>200</v>
       </c>
       <c r="U57" s="3">
         <v>200</v>
@@ -4513,7 +4644,7 @@
         <v>200</v>
       </c>
       <c r="W57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="X57" s="3">
         <v>100</v>
@@ -4531,48 +4662,51 @@
         <v>100</v>
       </c>
       <c r="AC57" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD57" s="3">
         <v>200</v>
       </c>
-      <c r="AD57" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>900</v>
+      </c>
+      <c r="E58" s="3">
         <v>800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>3700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>3000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>500</v>
       </c>
-      <c r="L58" s="3" t="s">
+      <c r="M58" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>19</v>
+      <c r="N58" s="3">
+        <v>0</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>19</v>
@@ -4589,8 +4723,8 @@
       <c r="S58" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="T58" s="3">
-        <v>0</v>
+      <c r="T58" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="U58" s="3">
         <v>0</v>
@@ -4622,16 +4756,19 @@
       <c r="AD58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>800</v>
+      </c>
+      <c r="E59" s="3">
         <v>600</v>
-      </c>
-      <c r="E59" s="3">
-        <v>500</v>
       </c>
       <c r="F59" s="3">
         <v>500</v>
@@ -4640,61 +4777,61 @@
         <v>500</v>
       </c>
       <c r="H59" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="I59" s="3">
         <v>400</v>
       </c>
       <c r="J59" s="3">
+        <v>400</v>
+      </c>
+      <c r="K59" s="3">
         <v>700</v>
-      </c>
-      <c r="K59" s="3">
-        <v>1100</v>
       </c>
       <c r="L59" s="3">
         <v>1100</v>
       </c>
       <c r="M59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N59" s="3">
         <v>700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>200</v>
-      </c>
-      <c r="Z59" s="3">
-        <v>300</v>
       </c>
       <c r="AA59" s="3">
         <v>300</v>
@@ -4706,81 +4843,84 @@
         <v>300</v>
       </c>
       <c r="AD59" s="3">
+        <v>300</v>
+      </c>
+      <c r="AE59" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E60" s="3">
         <v>1700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1700</v>
-      </c>
-      <c r="J60" s="3">
-        <v>1600</v>
       </c>
       <c r="K60" s="3">
         <v>1600</v>
       </c>
       <c r="L60" s="3">
+        <v>1600</v>
+      </c>
+      <c r="M60" s="3">
         <v>1300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>300</v>
-      </c>
-      <c r="Z60" s="3">
-        <v>400</v>
       </c>
       <c r="AA60" s="3">
         <v>400</v>
@@ -4789,22 +4929,25 @@
         <v>400</v>
       </c>
       <c r="AC60" s="3">
+        <v>400</v>
+      </c>
+      <c r="AD60" s="3">
         <v>500</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E61" s="3">
         <v>3400</v>
       </c>
-      <c r="E61" s="3">
-        <v>100</v>
-      </c>
       <c r="F61" s="3">
         <v>100</v>
       </c>
@@ -4818,7 +4961,7 @@
         <v>100</v>
       </c>
       <c r="J61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K61" s="3">
         <v>200</v>
@@ -4827,14 +4970,14 @@
         <v>200</v>
       </c>
       <c r="M61" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N61" s="3">
+        <v>100</v>
+      </c>
+      <c r="O61" s="3">
         <v>200</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -4880,8 +5023,11 @@
       <c r="AD61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4892,13 +5038,13 @@
         <v>0</v>
       </c>
       <c r="F62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G62" s="3">
         <v>100</v>
       </c>
       <c r="H62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I62" s="3">
         <v>200</v>
@@ -4907,13 +5053,13 @@
         <v>200</v>
       </c>
       <c r="K62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L62" s="3">
         <v>300</v>
       </c>
       <c r="M62" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N62" s="3">
         <v>400</v>
@@ -4922,13 +5068,13 @@
         <v>400</v>
       </c>
       <c r="P62" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Q62" s="3">
         <v>500</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>19</v>
+      <c r="R62" s="3">
+        <v>500</v>
       </c>
       <c r="S62" s="3" t="s">
         <v>19</v>
@@ -4945,8 +5091,8 @@
       <c r="W62" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="X62" s="3">
-        <v>0</v>
+      <c r="X62" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="Y62" s="3">
         <v>0</v>
@@ -4966,8 +5112,11 @@
       <c r="AD62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5052,8 +5201,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5138,8 +5290,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5224,79 +5379,82 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E66" s="3">
         <v>5000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>2000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>300</v>
-      </c>
-      <c r="Z66" s="3">
-        <v>400</v>
       </c>
       <c r="AA66" s="3">
         <v>400</v>
@@ -5305,13 +5463,16 @@
         <v>400</v>
       </c>
       <c r="AC66" s="3">
+        <v>400</v>
+      </c>
+      <c r="AD66" s="3">
         <v>500</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5342,8 +5503,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5428,8 +5590,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5514,8 +5679,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5600,8 +5768,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5686,94 +5857,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-8000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-7300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-6500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-6100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-5300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-4800</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-4200</v>
       </c>
       <c r="K72" s="3">
         <v>-4200</v>
       </c>
       <c r="L72" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="M72" s="3">
         <v>-3700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-3400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-3100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-3500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-2600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-2200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-3200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-2900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-3000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-2800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-2500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-2100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-900</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-800</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-300</v>
       </c>
-      <c r="AB72" s="3">
-        <v>0</v>
-      </c>
       <c r="AC72" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD72" s="3">
         <v>-100</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5858,8 +6035,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5944,8 +6124,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6030,94 +6213,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E76" s="3">
         <v>-3400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-2800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-1900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-1600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2200</v>
-      </c>
-      <c r="Y76" s="3">
-        <v>3500</v>
       </c>
       <c r="Z76" s="3">
         <v>3500</v>
       </c>
       <c r="AA76" s="3">
+        <v>3500</v>
+      </c>
+      <c r="AB76" s="3">
         <v>4000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>4400</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>4200</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6202,185 +6391,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45101</v>
+      </c>
+      <c r="E80" s="2">
         <v>45010</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44919</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44828</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44737</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44464</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44374</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44282</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44191</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44009</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43918</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43827</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43736</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43645</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43554</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43463</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43372</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43099</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42917</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42826</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-600</v>
       </c>
-      <c r="J81" s="3">
-        <v>100</v>
-      </c>
       <c r="K81" s="3">
+        <v>100</v>
+      </c>
+      <c r="L81" s="3">
         <v>-500</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-300</v>
       </c>
       <c r="M81" s="3">
         <v>-300</v>
       </c>
       <c r="N81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O81" s="3">
         <v>400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-300</v>
-      </c>
-      <c r="W81" s="3">
-        <v>-400</v>
       </c>
       <c r="X81" s="3">
         <v>-400</v>
       </c>
       <c r="Y81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Z81" s="3">
         <v>-100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-500</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-300</v>
       </c>
-      <c r="AB81" s="3">
-        <v>100</v>
-      </c>
       <c r="AC81" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD81" s="3">
         <v>-700</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6411,8 +6609,9 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6497,8 +6696,11 @@
       <c r="AD83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6583,8 +6785,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6669,8 +6874,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6755,8 +6963,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6841,8 +7052,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6927,94 +7141,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-100</v>
-      </c>
-      <c r="E89" s="3">
-        <v>-700</v>
       </c>
       <c r="F89" s="3">
         <v>-700</v>
       </c>
       <c r="G89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="H89" s="3">
         <v>-400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>400</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-100</v>
       </c>
       <c r="P89" s="3">
         <v>-100</v>
       </c>
       <c r="Q89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R89" s="3">
         <v>-800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-1000</v>
       </c>
-      <c r="T89" s="3">
-        <v>0</v>
-      </c>
       <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
         <v>-200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>200</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-300</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>200</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-500</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>-1200</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7045,8 +7265,9 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7086,17 +7307,17 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>19</v>
+      <c r="P91" s="3">
+        <v>0</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
-      <c r="S91" s="3" t="s">
+      <c r="R91" s="3" t="s">
         <v>19</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
       </c>
       <c r="T91" s="3" t="s">
         <v>19</v>
@@ -7104,20 +7325,20 @@
       <c r="U91" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
+      <c r="V91" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="W91" s="3">
         <v>0</v>
       </c>
-      <c r="X91" s="3" t="s">
-        <v>19</v>
+      <c r="X91" s="3">
+        <v>0</v>
       </c>
       <c r="Y91" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Z91" s="3">
-        <v>0</v>
+      <c r="Z91" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="AA91" s="3">
         <v>0</v>
@@ -7131,8 +7352,11 @@
       <c r="AD91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7217,8 +7441,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7303,8 +7530,11 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7332,17 +7562,17 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>19</v>
+      <c r="L94" s="3">
+        <v>0</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-      <c r="O94" s="3" t="s">
+      <c r="N94" s="3" t="s">
         <v>19</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>19</v>
@@ -7350,8 +7580,8 @@
       <c r="Q94" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
+      <c r="R94" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="S94" s="3">
         <v>0</v>
@@ -7366,31 +7596,34 @@
         <v>0</v>
       </c>
       <c r="W94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X94" s="3">
         <v>100</v>
       </c>
       <c r="Y94" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z94" s="3">
         <v>200</v>
       </c>
-      <c r="Z94" s="3">
-        <v>100</v>
-      </c>
       <c r="AA94" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AB94" s="3">
         <v>200</v>
       </c>
       <c r="AC94" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE94" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7421,8 +7654,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7507,8 +7741,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7593,8 +7830,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7679,8 +7919,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7765,46 +8008,49 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>300</v>
-      </c>
-      <c r="E100" s="3">
-        <v>700</v>
       </c>
       <c r="F100" s="3">
         <v>700</v>
       </c>
       <c r="G100" s="3">
+        <v>700</v>
+      </c>
+      <c r="H100" s="3">
         <v>500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>500</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O100" s="3">
         <v>200</v>
-      </c>
-      <c r="O100" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="P100" s="3" t="s">
         <v>19</v>
@@ -7818,8 +8064,8 @@
       <c r="S100" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
+      <c r="T100" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="U100" s="3">
         <v>0</v>
@@ -7851,8 +8097,11 @@
       <c r="AD100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7937,19 +8186,22 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>100</v>
+        <v>-200</v>
       </c>
       <c r="E102" s="3">
         <v>100</v>
       </c>
       <c r="F102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G102" s="3">
         <v>0</v>
@@ -7958,69 +8210,72 @@
         <v>0</v>
       </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-200</v>
       </c>
-      <c r="J102" s="3">
-        <v>100</v>
-      </c>
       <c r="K102" s="3">
+        <v>100</v>
+      </c>
+      <c r="L102" s="3">
         <v>-300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1000</v>
       </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>-200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>500</v>
       </c>
-      <c r="W102" s="3">
-        <v>0</v>
-      </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>-200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>400</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-200</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>400</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-300</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-1200</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>100</v>
       </c>
     </row>
